--- a/CP317 Time Tracking Sheet.xlsx
+++ b/CP317 Time Tracking Sheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Github\UPOD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roman/Documents/romanlipisiy/github/virtual-environment/UPOD/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Time Log" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Time Log'!$B$1:$G$150</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="336">
   <si>
     <t>Raw</t>
   </si>
@@ -1223,11 +1228,14 @@
   <si>
     <t>06/22/16 - Made updates based on second round of SQA feedback to Front End RD</t>
   </si>
+  <si>
+    <t>07/01/16 - Migrated vapourware files to ruby on rails scaffolding</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="h&quot;:&quot;mm"/>
@@ -1301,7 +1309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1338,16 +1346,17 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1679,21 +1688,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C160" sqref="C160"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H151" sqref="H151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="67" style="23" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="67" style="21" customWidth="1"/>
+    <col min="5" max="5" width="28.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1712,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1716,7 +1725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1742,7 +1751,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="52" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1766,12 +1775,12 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> 17:38</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1795,10 +1804,10 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> 18:03</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1823,7 +1832,7 @@
         <v xml:space="preserve"> 22:14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1848,7 +1857,7 @@
         <v xml:space="preserve"> 11:16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1873,7 +1882,7 @@
         <v xml:space="preserve"> 12:19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1898,7 +1907,7 @@
         <v xml:space="preserve"> 15:25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1923,7 +1932,7 @@
         <v xml:space="preserve"> 00:21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1948,7 +1957,7 @@
         <v xml:space="preserve"> 14:22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="52" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1973,7 +1982,7 @@
         <v xml:space="preserve"> 15:44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1998,7 +2007,7 @@
         <v xml:space="preserve"> 15:49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>48</v>
@@ -2017,7 +2026,7 @@
         <v>0.78680555555555554</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -2042,7 +2051,7 @@
         <v xml:space="preserve"> 08:31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -2067,7 +2076,7 @@
         <v xml:space="preserve"> 18:07</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -2092,7 +2101,7 @@
         <v xml:space="preserve"> 10:42</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2117,7 +2126,7 @@
         <v xml:space="preserve"> 10:43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
@@ -2142,7 +2151,7 @@
         <v xml:space="preserve"> 11:08</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -2167,7 +2176,7 @@
         <v xml:space="preserve"> 20:28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
@@ -2192,7 +2201,7 @@
         <v xml:space="preserve"> 20:30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
@@ -2217,7 +2226,7 @@
         <v xml:space="preserve"> 20:30</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>78</v>
       </c>
@@ -2242,7 +2251,7 @@
         <v xml:space="preserve"> 18:00</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -2267,7 +2276,7 @@
         <v xml:space="preserve"> 18:22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>84</v>
@@ -2290,7 +2299,7 @@
         <v xml:space="preserve"> 23:00</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>87</v>
       </c>
@@ -2315,7 +2324,7 @@
         <v xml:space="preserve"> 10:47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>91</v>
       </c>
@@ -2340,7 +2349,7 @@
         <v xml:space="preserve"> 11:07</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>94</v>
       </c>
@@ -2365,7 +2374,7 @@
         <v xml:space="preserve"> 22:31</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>98</v>
@@ -2384,7 +2393,7 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>98</v>
@@ -2403,7 +2412,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>101</v>
       </c>
@@ -2428,7 +2437,7 @@
         <v xml:space="preserve"> 15:31</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>104</v>
       </c>
@@ -2453,7 +2462,7 @@
         <v xml:space="preserve"> 17:48</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>107</v>
       </c>
@@ -2478,7 +2487,7 @@
         <v xml:space="preserve"> 19:34</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>110</v>
       </c>
@@ -2503,7 +2512,7 @@
         <v xml:space="preserve"> 16:06</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
@@ -2528,7 +2537,7 @@
         <v xml:space="preserve"> 16:06</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -2551,7 +2560,7 @@
         <v xml:space="preserve"> 16:39</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>117</v>
       </c>
@@ -2576,7 +2585,7 @@
         <v xml:space="preserve"> 16:40</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>120</v>
       </c>
@@ -2601,7 +2610,7 @@
         <v xml:space="preserve"> 16:41</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>123</v>
       </c>
@@ -2626,7 +2635,7 @@
         <v xml:space="preserve"> 16:42</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>126</v>
       </c>
@@ -2651,7 +2660,7 @@
         <v xml:space="preserve"> 17:55</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>130</v>
       </c>
@@ -2676,7 +2685,7 @@
         <v xml:space="preserve"> 19:58</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>134</v>
       </c>
@@ -2701,7 +2710,7 @@
         <v xml:space="preserve"> 20:02</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>137</v>
       </c>
@@ -2726,7 +2735,7 @@
         <v xml:space="preserve"> 00:24</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>141</v>
       </c>
@@ -2751,7 +2760,7 @@
         <v xml:space="preserve"> 00:24</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>144</v>
       </c>
@@ -2776,7 +2785,7 @@
         <v xml:space="preserve"> 01:18</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>147</v>
       </c>
@@ -2801,7 +2810,7 @@
         <v xml:space="preserve"> 01:37</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>151</v>
       </c>
@@ -2826,7 +2835,7 @@
         <v xml:space="preserve"> 01:39</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="39" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>147</v>
       </c>
@@ -2851,7 +2860,7 @@
         <v xml:space="preserve"> 01:42</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
@@ -2876,7 +2885,7 @@
         <v xml:space="preserve"> 13:17</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>158</v>
       </c>
@@ -2901,7 +2910,7 @@
         <v xml:space="preserve"> 16:31</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>161</v>
       </c>
@@ -2926,7 +2935,7 @@
         <v xml:space="preserve"> 19:32</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>165</v>
       </c>
@@ -2951,7 +2960,7 @@
         <v xml:space="preserve"> 20:47</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>48</v>
@@ -2970,7 +2979,7 @@
         <v>0.94652777777777775</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>84</v>
@@ -2993,7 +3002,7 @@
         <v xml:space="preserve"> 23:48</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>117</v>
       </c>
@@ -3018,7 +3027,7 @@
         <v xml:space="preserve"> 20:20</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>174</v>
       </c>
@@ -3043,7 +3052,7 @@
         <v xml:space="preserve"> 17:08</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>177</v>
       </c>
@@ -3068,7 +3077,7 @@
         <v xml:space="preserve"> 14:02</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>180</v>
       </c>
@@ -3093,7 +3102,7 @@
         <v xml:space="preserve"> 19:29</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>107</v>
       </c>
@@ -3118,7 +3127,7 @@
         <v xml:space="preserve"> 01:32</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="52" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>174</v>
       </c>
@@ -3143,7 +3152,7 @@
         <v xml:space="preserve"> 01:34</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>188</v>
@@ -3162,7 +3171,7 @@
         <v>0.41388888888888886</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>190</v>
       </c>
@@ -3187,7 +3196,7 @@
         <v xml:space="preserve"> 11:54</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>193</v>
       </c>
@@ -3212,7 +3221,7 @@
         <v xml:space="preserve"> 14:21</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>196</v>
       </c>
@@ -3237,7 +3246,7 @@
         <v xml:space="preserve"> 22:47</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>199</v>
       </c>
@@ -3262,7 +3271,7 @@
         <v xml:space="preserve"> 03:52</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>202</v>
       </c>
@@ -3287,7 +3296,7 @@
         <v xml:space="preserve"> 11:23</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>205</v>
       </c>
@@ -3312,7 +3321,7 @@
         <v xml:space="preserve"> 00:23</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>208</v>
       </c>
@@ -3337,7 +3346,7 @@
         <v xml:space="preserve"> 00:32</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>211</v>
       </c>
@@ -3362,7 +3371,7 @@
         <v xml:space="preserve"> 00:33</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
@@ -3387,7 +3396,7 @@
         <v xml:space="preserve"> 11:49</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -3412,7 +3421,7 @@
         <v xml:space="preserve"> 11:51</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
@@ -3437,7 +3446,7 @@
         <v xml:space="preserve"> 20:18</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -3462,7 +3471,7 @@
         <v xml:space="preserve"> 20:18</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>63</v>
       </c>
@@ -3487,7 +3496,7 @@
         <v xml:space="preserve"> 20:19</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>63</v>
       </c>
@@ -3512,7 +3521,7 @@
         <v xml:space="preserve"> 20:53</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>229</v>
       </c>
@@ -3537,7 +3546,7 @@
         <v xml:space="preserve"> 23:59</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>232</v>
       </c>
@@ -3562,7 +3571,7 @@
         <v xml:space="preserve"> 02:53</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>126</v>
       </c>
@@ -3587,7 +3596,7 @@
         <v xml:space="preserve"> 11:22</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>237</v>
       </c>
@@ -3612,7 +3621,7 @@
         <v xml:space="preserve"> 12:39</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>241</v>
       </c>
@@ -3637,7 +3646,7 @@
         <v xml:space="preserve"> 22:47</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
         <v>84</v>
@@ -3660,7 +3669,7 @@
         <v xml:space="preserve"> 22:50</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="39" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>246</v>
       </c>
@@ -3685,7 +3694,7 @@
         <v xml:space="preserve"> 11:31</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>16</v>
@@ -3706,7 +3715,7 @@
         <v>0.48125000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -3731,7 +3740,7 @@
         <v xml:space="preserve"> 17:52</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>255</v>
       </c>
@@ -3756,7 +3765,7 @@
         <v xml:space="preserve"> 17:53</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>255</v>
       </c>
@@ -3781,7 +3790,7 @@
         <v xml:space="preserve"> 17:53</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>260</v>
       </c>
@@ -3806,7 +3815,7 @@
         <v xml:space="preserve"> 17:53</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
         <v>188</v>
@@ -3825,7 +3834,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="39" x14ac:dyDescent="0.15">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
         <v>188</v>
@@ -3844,7 +3853,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>265</v>
       </c>
@@ -3869,7 +3878,7 @@
         <v xml:space="preserve"> 18:53</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B90" s="1" t="s">
         <v>188</v>
       </c>
@@ -3887,7 +3896,7 @@
         <v>0.59375</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>269</v>
       </c>
@@ -3905,7 +3914,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="s">
         <v>269</v>
       </c>
@@ -3923,7 +3932,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="s">
         <v>269</v>
       </c>
@@ -3941,7 +3950,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>269</v>
       </c>
@@ -3959,7 +3968,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="26" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>188</v>
       </c>
@@ -3977,7 +3986,7 @@
         <v>0.60347222222222219</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B96" s="1" t="s">
         <v>275</v>
       </c>
@@ -3993,7 +4002,7 @@
       </c>
       <c r="G96" s="17"/>
     </row>
-    <row r="97" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>275</v>
       </c>
@@ -4009,7 +4018,7 @@
       </c>
       <c r="G97" s="17"/>
     </row>
-    <row r="98" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>275</v>
       </c>
@@ -4025,7 +4034,7 @@
       </c>
       <c r="G98" s="17"/>
     </row>
-    <row r="99" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B99" s="1" t="s">
         <v>48</v>
       </c>
@@ -4043,7 +4052,7 @@
         <v>0.76249999999999996</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>48</v>
       </c>
@@ -4061,7 +4070,7 @@
         <v>0.7631944444444444</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7" ht="26" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>188</v>
       </c>
@@ -4079,7 +4088,7 @@
         <v>0.92361111111111116</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B102" s="1" t="s">
         <v>51</v>
       </c>
@@ -4095,7 +4104,7 @@
       </c>
       <c r="G102" s="17"/>
     </row>
-    <row r="103" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>98</v>
       </c>
@@ -4113,7 +4122,7 @@
         <v>0.71875</v>
       </c>
     </row>
-    <row r="104" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B104" s="1" t="s">
         <v>24</v>
       </c>
@@ -4131,7 +4140,7 @@
         <v>0.81180555555555556</v>
       </c>
     </row>
-    <row r="105" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B105" s="1" t="s">
         <v>24</v>
       </c>
@@ -4149,7 +4158,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>252</v>
       </c>
@@ -4167,7 +4176,7 @@
         <v>0.69166666666666665</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B107" s="1" t="s">
         <v>131</v>
       </c>
@@ -4185,7 +4194,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="108" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B108" s="1" t="s">
         <v>131</v>
       </c>
@@ -4201,7 +4210,7 @@
       </c>
       <c r="G108" s="17"/>
     </row>
-    <row r="109" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B109" s="1" t="s">
         <v>131</v>
       </c>
@@ -4217,7 +4226,7 @@
       </c>
       <c r="G109" s="17"/>
     </row>
-    <row r="110" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B110" s="1" t="s">
         <v>131</v>
       </c>
@@ -4235,7 +4244,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B111" s="1" t="s">
         <v>48</v>
       </c>
@@ -4253,7 +4262,7 @@
         <v>0.91319444444444442</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B112" s="1" t="s">
         <v>292</v>
       </c>
@@ -4271,7 +4280,7 @@
         <v>0.50069444444444444</v>
       </c>
     </row>
-    <row r="113" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B113" s="1" t="s">
         <v>131</v>
       </c>
@@ -4289,7 +4298,7 @@
         <v>0.55833333333333335</v>
       </c>
     </row>
-    <row r="114" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B114" s="1" t="s">
         <v>98</v>
       </c>
@@ -4307,7 +4316,7 @@
         <v>0.96805555555555556</v>
       </c>
     </row>
-    <row r="115" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:7" ht="39" x14ac:dyDescent="0.15">
       <c r="B115" s="1" t="s">
         <v>181</v>
       </c>
@@ -4325,7 +4334,7 @@
         <v>0.76111111111111107</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="1" t="s">
         <v>131</v>
       </c>
@@ -4343,7 +4352,7 @@
         <v>0.84097222222222223</v>
       </c>
     </row>
-    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" s="1" t="s">
         <v>16</v>
       </c>
@@ -4361,7 +4370,7 @@
         <v>0.87916666666666665</v>
       </c>
     </row>
-    <row r="118" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B118" s="1" t="s">
         <v>299</v>
       </c>
@@ -4379,7 +4388,7 @@
         <v>0.92847222222222225</v>
       </c>
     </row>
-    <row r="119" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:7" ht="39" x14ac:dyDescent="0.15">
       <c r="B119" s="1" t="s">
         <v>181</v>
       </c>
@@ -4397,7 +4406,7 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="120" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:7" ht="26" x14ac:dyDescent="0.15">
       <c r="B120" s="1" t="s">
         <v>181</v>
       </c>
@@ -4415,7 +4424,7 @@
         <v>0.99652777777777779</v>
       </c>
     </row>
-    <row r="121" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B121" s="1" t="s">
         <v>188</v>
       </c>
@@ -4433,7 +4442,7 @@
         <v>0.58888888888888891</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:7" ht="39" x14ac:dyDescent="0.15">
       <c r="B122" s="1" t="s">
         <v>131</v>
       </c>
@@ -4451,7 +4460,7 @@
         <v>0.70277777777777772</v>
       </c>
     </row>
-    <row r="123" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B123" s="1" t="s">
         <v>98</v>
       </c>
@@ -4469,7 +4478,7 @@
         <v>0.70208333333333328</v>
       </c>
     </row>
-    <row r="124" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:7" ht="26" x14ac:dyDescent="0.15">
       <c r="B124" s="1" t="s">
         <v>306</v>
       </c>
@@ -4485,7 +4494,7 @@
       </c>
       <c r="G124" s="17"/>
     </row>
-    <row r="125" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B125" s="1" t="s">
         <v>306</v>
       </c>
@@ -4501,7 +4510,7 @@
       </c>
       <c r="G125" s="17"/>
     </row>
-    <row r="126" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B126" s="1" t="s">
         <v>306</v>
       </c>
@@ -4517,7 +4526,7 @@
       </c>
       <c r="G126" s="17"/>
     </row>
-    <row r="127" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B127" s="1" t="s">
         <v>306</v>
       </c>
@@ -4533,7 +4542,7 @@
       </c>
       <c r="G127" s="17"/>
     </row>
-    <row r="128" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:7" ht="26" x14ac:dyDescent="0.15">
       <c r="B128" s="1" t="s">
         <v>306</v>
       </c>
@@ -4551,7 +4560,7 @@
         <v>0.85555555555555551</v>
       </c>
     </row>
-    <row r="129" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:7" ht="26" x14ac:dyDescent="0.15">
       <c r="B129" s="1" t="s">
         <v>306</v>
       </c>
@@ -4569,7 +4578,7 @@
         <v>0.85555555555555551</v>
       </c>
     </row>
-    <row r="130" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B130" s="1" t="s">
         <v>24</v>
       </c>
@@ -4587,7 +4596,7 @@
         <v>0.95625000000000004</v>
       </c>
     </row>
-    <row r="131" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B131" s="1" t="s">
         <v>212</v>
       </c>
@@ -4605,7 +4614,7 @@
         <v>0.98402777777777772</v>
       </c>
     </row>
-    <row r="132" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B132" s="1" t="s">
         <v>315</v>
       </c>
@@ -4623,7 +4632,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="133" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B133" s="1" t="s">
         <v>275</v>
       </c>
@@ -4639,7 +4648,7 @@
       </c>
       <c r="G133" s="17"/>
     </row>
-    <row r="134" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B134" s="1" t="s">
         <v>275</v>
       </c>
@@ -4655,7 +4664,7 @@
       </c>
       <c r="G134" s="17"/>
     </row>
-    <row r="135" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B135" s="1" t="s">
         <v>319</v>
       </c>
@@ -4671,7 +4680,7 @@
       </c>
       <c r="G135" s="17"/>
     </row>
-    <row r="136" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B136" s="1" t="s">
         <v>114</v>
       </c>
@@ -4689,7 +4698,7 @@
         <v>0.67847222222222225</v>
       </c>
     </row>
-    <row r="137" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:7" ht="39" x14ac:dyDescent="0.15">
       <c r="B137" s="1" t="s">
         <v>114</v>
       </c>
@@ -4707,7 +4716,7 @@
         <v>0.68055555555555558</v>
       </c>
     </row>
-    <row r="138" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:7" ht="26" x14ac:dyDescent="0.15">
       <c r="B138" s="1" t="s">
         <v>114</v>
       </c>
@@ -4725,7 +4734,7 @@
         <v>0.68263888888888891</v>
       </c>
     </row>
-    <row r="139" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:7" ht="26" x14ac:dyDescent="0.15">
       <c r="B139" s="1" t="s">
         <v>162</v>
       </c>
@@ -4743,7 +4752,7 @@
         <v>0.7368055555555556</v>
       </c>
     </row>
-    <row r="140" spans="2:7" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:7" ht="26" x14ac:dyDescent="0.15">
       <c r="B140" s="1" t="s">
         <v>162</v>
       </c>
@@ -4761,7 +4770,7 @@
         <v>0.73819444444444449</v>
       </c>
     </row>
-    <row r="141" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:7" ht="26" x14ac:dyDescent="0.15">
       <c r="B141" s="1" t="s">
         <v>68</v>
       </c>
@@ -4782,7 +4791,7 @@
         <v xml:space="preserve"> 20:28</v>
       </c>
     </row>
-    <row r="142" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:7" ht="26" x14ac:dyDescent="0.15">
       <c r="B142" s="1" t="s">
         <v>72</v>
       </c>
@@ -4800,7 +4809,7 @@
         <v>0.81874999999999998</v>
       </c>
     </row>
-    <row r="143" spans="2:7" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:7" ht="65" x14ac:dyDescent="0.15">
       <c r="B143" s="1" t="s">
         <v>162</v>
       </c>
@@ -4818,7 +4827,7 @@
         <v>0.88541666666666663</v>
       </c>
     </row>
-    <row r="144" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B144" s="1" t="s">
         <v>24</v>
       </c>
@@ -4836,7 +4845,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="145" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B145" s="1" t="s">
         <v>24</v>
       </c>
@@ -4854,14 +4863,14 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="146" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:7" ht="26" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
         <v>32</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
-      <c r="D146" s="23" t="s">
+      <c r="D146" s="21" t="s">
         <v>330</v>
       </c>
       <c r="E146" s="14"/>
@@ -4872,14 +4881,14 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="147" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
         <v>32</v>
       </c>
       <c r="C147" s="1">
         <v>3</v>
       </c>
-      <c r="D147" s="23" t="s">
+      <c r="D147" s="21" t="s">
         <v>331</v>
       </c>
       <c r="E147" s="14"/>
@@ -4890,14 +4899,14 @@
         <v>1.0208333333333299</v>
       </c>
     </row>
-    <row r="148" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
         <v>32</v>
       </c>
       <c r="C148" s="1">
         <v>4</v>
       </c>
-      <c r="D148" s="23" t="s">
+      <c r="D148" s="21" t="s">
         <v>332</v>
       </c>
       <c r="E148" s="14"/>
@@ -4908,14 +4917,14 @@
         <v>1.0625</v>
       </c>
     </row>
-    <row r="149" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
         <v>32</v>
       </c>
       <c r="C149" s="1">
         <v>3.5</v>
       </c>
-      <c r="D149" s="23" t="s">
+      <c r="D149" s="21" t="s">
         <v>333</v>
       </c>
       <c r="E149" s="14"/>
@@ -4926,14 +4935,14 @@
         <v>1.1041666666666701</v>
       </c>
     </row>
-    <row r="150" spans="2:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
         <v>32</v>
       </c>
       <c r="C150" s="1">
         <v>2</v>
       </c>
-      <c r="D150" s="23" t="s">
+      <c r="D150" s="21" t="s">
         <v>334</v>
       </c>
       <c r="E150" s="14"/>
@@ -4944,3423 +4953,3437 @@
         <v>1.1458333333333299</v>
       </c>
     </row>
-    <row r="151" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B151" t="s">
+        <v>127</v>
+      </c>
+      <c r="C151" s="1">
+        <v>5</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>335</v>
+      </c>
       <c r="E151" s="14"/>
-      <c r="G151" s="17"/>
-    </row>
-    <row r="152" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F151" s="24">
+        <v>42552</v>
+      </c>
+      <c r="G151" s="17">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E152" s="14"/>
       <c r="G152" s="17"/>
     </row>
-    <row r="153" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E153" s="14"/>
       <c r="G153" s="17"/>
     </row>
-    <row r="154" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E154" s="14"/>
       <c r="G154" s="17"/>
     </row>
-    <row r="155" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E155" s="14"/>
       <c r="G155" s="17"/>
     </row>
-    <row r="156" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E156" s="14"/>
       <c r="G156" s="17"/>
     </row>
-    <row r="157" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E157" s="14"/>
       <c r="G157" s="17"/>
     </row>
-    <row r="158" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E158" s="14"/>
       <c r="G158" s="17"/>
     </row>
-    <row r="159" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E159" s="14"/>
       <c r="G159" s="17"/>
     </row>
-    <row r="160" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E160" s="14"/>
       <c r="G160" s="17"/>
     </row>
-    <row r="161" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E161" s="14"/>
       <c r="G161" s="17"/>
     </row>
-    <row r="162" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E162" s="14"/>
       <c r="G162" s="17"/>
     </row>
-    <row r="163" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E163" s="14"/>
       <c r="G163" s="17"/>
     </row>
-    <row r="164" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E164" s="14"/>
       <c r="G164" s="17"/>
     </row>
-    <row r="165" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E165" s="14"/>
       <c r="G165" s="17"/>
     </row>
-    <row r="166" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E166" s="14"/>
       <c r="G166" s="17"/>
     </row>
-    <row r="167" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E167" s="14"/>
       <c r="G167" s="17"/>
     </row>
-    <row r="168" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E168" s="14"/>
       <c r="G168" s="17"/>
     </row>
-    <row r="169" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E169" s="14"/>
       <c r="G169" s="17"/>
     </row>
-    <row r="170" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E170" s="14"/>
       <c r="G170" s="17"/>
     </row>
-    <row r="171" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E171" s="14"/>
       <c r="G171" s="17"/>
     </row>
-    <row r="172" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E172" s="14"/>
       <c r="G172" s="17"/>
     </row>
-    <row r="173" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E173" s="14"/>
       <c r="G173" s="17"/>
     </row>
-    <row r="174" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E174" s="14"/>
       <c r="G174" s="17"/>
     </row>
-    <row r="175" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E175" s="14"/>
       <c r="G175" s="17"/>
     </row>
-    <row r="176" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E176" s="14"/>
       <c r="G176" s="17"/>
     </row>
-    <row r="177" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E177" s="14"/>
       <c r="G177" s="17"/>
     </row>
-    <row r="178" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E178" s="14"/>
       <c r="G178" s="17"/>
     </row>
-    <row r="179" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E179" s="14"/>
       <c r="G179" s="17"/>
     </row>
-    <row r="180" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E180" s="14"/>
       <c r="G180" s="17"/>
     </row>
-    <row r="181" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E181" s="14"/>
       <c r="G181" s="17"/>
     </row>
-    <row r="182" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E182" s="14"/>
       <c r="G182" s="17"/>
     </row>
-    <row r="183" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E183" s="14"/>
       <c r="G183" s="17"/>
     </row>
-    <row r="184" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E184" s="14"/>
       <c r="G184" s="17"/>
     </row>
-    <row r="185" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E185" s="14"/>
       <c r="G185" s="17"/>
     </row>
-    <row r="186" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E186" s="14"/>
       <c r="G186" s="17"/>
     </row>
-    <row r="187" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E187" s="14"/>
       <c r="G187" s="17"/>
     </row>
-    <row r="188" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E188" s="14"/>
       <c r="G188" s="17"/>
     </row>
-    <row r="189" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E189" s="14"/>
       <c r="G189" s="17"/>
     </row>
-    <row r="190" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E190" s="14"/>
       <c r="G190" s="17"/>
     </row>
-    <row r="191" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E191" s="14"/>
       <c r="G191" s="17"/>
     </row>
-    <row r="192" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E192" s="14"/>
       <c r="G192" s="17"/>
     </row>
-    <row r="193" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E193" s="14"/>
       <c r="G193" s="17"/>
     </row>
-    <row r="194" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E194" s="14"/>
       <c r="G194" s="17"/>
     </row>
-    <row r="195" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E195" s="14"/>
       <c r="G195" s="17"/>
     </row>
-    <row r="196" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E196" s="14"/>
       <c r="G196" s="17"/>
     </row>
-    <row r="197" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E197" s="14"/>
       <c r="G197" s="17"/>
     </row>
-    <row r="198" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E198" s="14"/>
       <c r="G198" s="17"/>
     </row>
-    <row r="199" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E199" s="14"/>
       <c r="G199" s="17"/>
     </row>
-    <row r="200" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E200" s="14"/>
       <c r="G200" s="17"/>
     </row>
-    <row r="201" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E201" s="14"/>
       <c r="G201" s="17"/>
     </row>
-    <row r="202" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E202" s="14"/>
       <c r="G202" s="17"/>
     </row>
-    <row r="203" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E203" s="14"/>
       <c r="G203" s="17"/>
     </row>
-    <row r="204" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E204" s="14"/>
       <c r="G204" s="17"/>
     </row>
-    <row r="205" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E205" s="14"/>
       <c r="G205" s="17"/>
     </row>
-    <row r="206" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E206" s="14"/>
       <c r="G206" s="17"/>
     </row>
-    <row r="207" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E207" s="14"/>
       <c r="G207" s="17"/>
     </row>
-    <row r="208" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E208" s="14"/>
       <c r="G208" s="17"/>
     </row>
-    <row r="209" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E209" s="14"/>
       <c r="G209" s="17"/>
     </row>
-    <row r="210" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E210" s="14"/>
       <c r="G210" s="17"/>
     </row>
-    <row r="211" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E211" s="14"/>
       <c r="G211" s="17"/>
     </row>
-    <row r="212" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E212" s="14"/>
       <c r="G212" s="17"/>
     </row>
-    <row r="213" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E213" s="14"/>
       <c r="G213" s="17"/>
     </row>
-    <row r="214" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E214" s="14"/>
       <c r="G214" s="17"/>
     </row>
-    <row r="215" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E215" s="14"/>
       <c r="G215" s="17"/>
     </row>
-    <row r="216" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E216" s="14"/>
       <c r="G216" s="17"/>
     </row>
-    <row r="217" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E217" s="14"/>
       <c r="G217" s="17"/>
     </row>
-    <row r="218" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E218" s="14"/>
       <c r="G218" s="17"/>
     </row>
-    <row r="219" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E219" s="14"/>
       <c r="G219" s="17"/>
     </row>
-    <row r="220" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E220" s="14"/>
       <c r="G220" s="17"/>
     </row>
-    <row r="221" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E221" s="14"/>
       <c r="G221" s="17"/>
     </row>
-    <row r="222" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E222" s="14"/>
       <c r="G222" s="17"/>
     </row>
-    <row r="223" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E223" s="14"/>
       <c r="G223" s="17"/>
     </row>
-    <row r="224" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E224" s="14"/>
       <c r="G224" s="17"/>
     </row>
-    <row r="225" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E225" s="14"/>
       <c r="G225" s="17"/>
     </row>
-    <row r="226" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E226" s="14"/>
       <c r="G226" s="17"/>
     </row>
-    <row r="227" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E227" s="14"/>
       <c r="G227" s="17"/>
     </row>
-    <row r="228" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E228" s="14"/>
       <c r="G228" s="17"/>
     </row>
-    <row r="229" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E229" s="14"/>
       <c r="G229" s="17"/>
     </row>
-    <row r="230" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E230" s="14"/>
       <c r="G230" s="17"/>
     </row>
-    <row r="231" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E231" s="14"/>
       <c r="G231" s="17"/>
     </row>
-    <row r="232" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E232" s="14"/>
       <c r="G232" s="17"/>
     </row>
-    <row r="233" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E233" s="14"/>
       <c r="G233" s="17"/>
     </row>
-    <row r="234" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E234" s="14"/>
       <c r="G234" s="17"/>
     </row>
-    <row r="235" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E235" s="14"/>
       <c r="G235" s="17"/>
     </row>
-    <row r="236" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E236" s="14"/>
       <c r="G236" s="17"/>
     </row>
-    <row r="237" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E237" s="14"/>
       <c r="G237" s="17"/>
     </row>
-    <row r="238" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E238" s="14"/>
       <c r="G238" s="17"/>
     </row>
-    <row r="239" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E239" s="14"/>
       <c r="G239" s="17"/>
     </row>
-    <row r="240" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E240" s="14"/>
       <c r="G240" s="17"/>
     </row>
-    <row r="241" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E241" s="14"/>
       <c r="G241" s="17"/>
     </row>
-    <row r="242" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E242" s="14"/>
       <c r="G242" s="17"/>
     </row>
-    <row r="243" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E243" s="14"/>
       <c r="G243" s="17"/>
     </row>
-    <row r="244" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E244" s="14"/>
       <c r="G244" s="17"/>
     </row>
-    <row r="245" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E245" s="14"/>
       <c r="G245" s="17"/>
     </row>
-    <row r="246" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E246" s="14"/>
       <c r="G246" s="17"/>
     </row>
-    <row r="247" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E247" s="14"/>
       <c r="G247" s="17"/>
     </row>
-    <row r="248" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E248" s="14"/>
       <c r="G248" s="17"/>
     </row>
-    <row r="249" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E249" s="14"/>
       <c r="G249" s="17"/>
     </row>
-    <row r="250" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E250" s="14"/>
       <c r="G250" s="17"/>
     </row>
-    <row r="251" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E251" s="14"/>
       <c r="G251" s="17"/>
     </row>
-    <row r="252" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E252" s="14"/>
       <c r="G252" s="17"/>
     </row>
-    <row r="253" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E253" s="14"/>
       <c r="G253" s="17"/>
     </row>
-    <row r="254" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E254" s="14"/>
       <c r="G254" s="17"/>
     </row>
-    <row r="255" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E255" s="14"/>
       <c r="G255" s="17"/>
     </row>
-    <row r="256" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E256" s="14"/>
       <c r="G256" s="17"/>
     </row>
-    <row r="257" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E257" s="14"/>
       <c r="G257" s="17"/>
     </row>
-    <row r="258" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E258" s="14"/>
       <c r="G258" s="17"/>
     </row>
-    <row r="259" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E259" s="14"/>
       <c r="G259" s="17"/>
     </row>
-    <row r="260" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E260" s="14"/>
       <c r="G260" s="17"/>
     </row>
-    <row r="261" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E261" s="14"/>
       <c r="G261" s="17"/>
     </row>
-    <row r="262" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E262" s="14"/>
       <c r="G262" s="17"/>
     </row>
-    <row r="263" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E263" s="14"/>
       <c r="G263" s="17"/>
     </row>
-    <row r="264" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E264" s="14"/>
       <c r="G264" s="17"/>
     </row>
-    <row r="265" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E265" s="14"/>
       <c r="G265" s="17"/>
     </row>
-    <row r="266" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E266" s="14"/>
       <c r="G266" s="17"/>
     </row>
-    <row r="267" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E267" s="14"/>
       <c r="G267" s="17"/>
     </row>
-    <row r="268" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E268" s="14"/>
       <c r="G268" s="17"/>
     </row>
-    <row r="269" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E269" s="14"/>
       <c r="G269" s="17"/>
     </row>
-    <row r="270" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E270" s="14"/>
       <c r="G270" s="17"/>
     </row>
-    <row r="271" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E271" s="14"/>
       <c r="G271" s="17"/>
     </row>
-    <row r="272" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E272" s="14"/>
       <c r="G272" s="17"/>
     </row>
-    <row r="273" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E273" s="14"/>
       <c r="G273" s="17"/>
     </row>
-    <row r="274" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E274" s="14"/>
       <c r="G274" s="17"/>
     </row>
-    <row r="275" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E275" s="14"/>
       <c r="G275" s="17"/>
     </row>
-    <row r="276" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E276" s="14"/>
       <c r="G276" s="17"/>
     </row>
-    <row r="277" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E277" s="14"/>
       <c r="G277" s="17"/>
     </row>
-    <row r="278" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E278" s="14"/>
       <c r="G278" s="17"/>
     </row>
-    <row r="279" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E279" s="14"/>
       <c r="G279" s="17"/>
     </row>
-    <row r="280" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E280" s="14"/>
       <c r="G280" s="17"/>
     </row>
-    <row r="281" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E281" s="14"/>
       <c r="G281" s="17"/>
     </row>
-    <row r="282" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E282" s="14"/>
       <c r="G282" s="17"/>
     </row>
-    <row r="283" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E283" s="14"/>
       <c r="G283" s="17"/>
     </row>
-    <row r="284" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E284" s="14"/>
       <c r="G284" s="17"/>
     </row>
-    <row r="285" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E285" s="14"/>
       <c r="G285" s="17"/>
     </row>
-    <row r="286" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E286" s="14"/>
       <c r="G286" s="17"/>
     </row>
-    <row r="287" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E287" s="14"/>
       <c r="G287" s="17"/>
     </row>
-    <row r="288" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E288" s="14"/>
       <c r="G288" s="17"/>
     </row>
-    <row r="289" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E289" s="14"/>
       <c r="G289" s="17"/>
     </row>
-    <row r="290" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E290" s="14"/>
       <c r="G290" s="17"/>
     </row>
-    <row r="291" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E291" s="14"/>
       <c r="G291" s="17"/>
     </row>
-    <row r="292" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E292" s="14"/>
       <c r="G292" s="17"/>
     </row>
-    <row r="293" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E293" s="14"/>
       <c r="G293" s="17"/>
     </row>
-    <row r="294" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E294" s="14"/>
       <c r="G294" s="17"/>
     </row>
-    <row r="295" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E295" s="14"/>
       <c r="G295" s="17"/>
     </row>
-    <row r="296" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E296" s="14"/>
       <c r="G296" s="17"/>
     </row>
-    <row r="297" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E297" s="14"/>
       <c r="G297" s="17"/>
     </row>
-    <row r="298" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E298" s="14"/>
       <c r="G298" s="17"/>
     </row>
-    <row r="299" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E299" s="14"/>
       <c r="G299" s="17"/>
     </row>
-    <row r="300" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E300" s="14"/>
       <c r="G300" s="17"/>
     </row>
-    <row r="301" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E301" s="14"/>
       <c r="G301" s="17"/>
     </row>
-    <row r="302" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E302" s="14"/>
       <c r="G302" s="17"/>
     </row>
-    <row r="303" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E303" s="14"/>
       <c r="G303" s="17"/>
     </row>
-    <row r="304" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E304" s="14"/>
       <c r="G304" s="17"/>
     </row>
-    <row r="305" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E305" s="14"/>
       <c r="G305" s="17"/>
     </row>
-    <row r="306" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E306" s="14"/>
       <c r="G306" s="17"/>
     </row>
-    <row r="307" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E307" s="14"/>
       <c r="G307" s="17"/>
     </row>
-    <row r="308" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E308" s="14"/>
       <c r="G308" s="17"/>
     </row>
-    <row r="309" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E309" s="14"/>
       <c r="G309" s="17"/>
     </row>
-    <row r="310" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E310" s="14"/>
       <c r="G310" s="17"/>
     </row>
-    <row r="311" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E311" s="14"/>
       <c r="G311" s="17"/>
     </row>
-    <row r="312" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E312" s="14"/>
       <c r="G312" s="17"/>
     </row>
-    <row r="313" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E313" s="14"/>
       <c r="G313" s="17"/>
     </row>
-    <row r="314" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E314" s="14"/>
       <c r="G314" s="17"/>
     </row>
-    <row r="315" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E315" s="14"/>
       <c r="G315" s="17"/>
     </row>
-    <row r="316" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E316" s="14"/>
       <c r="G316" s="17"/>
     </row>
-    <row r="317" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E317" s="14"/>
       <c r="G317" s="17"/>
     </row>
-    <row r="318" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E318" s="14"/>
       <c r="G318" s="17"/>
     </row>
-    <row r="319" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E319" s="14"/>
       <c r="G319" s="17"/>
     </row>
-    <row r="320" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E320" s="14"/>
       <c r="G320" s="17"/>
     </row>
-    <row r="321" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E321" s="14"/>
       <c r="G321" s="17"/>
     </row>
-    <row r="322" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E322" s="14"/>
       <c r="G322" s="17"/>
     </row>
-    <row r="323" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E323" s="14"/>
       <c r="G323" s="17"/>
     </row>
-    <row r="324" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E324" s="14"/>
       <c r="G324" s="17"/>
     </row>
-    <row r="325" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E325" s="14"/>
       <c r="G325" s="17"/>
     </row>
-    <row r="326" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E326" s="14"/>
       <c r="G326" s="17"/>
     </row>
-    <row r="327" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E327" s="14"/>
       <c r="G327" s="17"/>
     </row>
-    <row r="328" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E328" s="14"/>
       <c r="G328" s="17"/>
     </row>
-    <row r="329" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E329" s="14"/>
       <c r="G329" s="17"/>
     </row>
-    <row r="330" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E330" s="14"/>
       <c r="G330" s="17"/>
     </row>
-    <row r="331" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E331" s="14"/>
       <c r="G331" s="17"/>
     </row>
-    <row r="332" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E332" s="14"/>
       <c r="G332" s="17"/>
     </row>
-    <row r="333" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E333" s="14"/>
       <c r="G333" s="17"/>
     </row>
-    <row r="334" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E334" s="14"/>
       <c r="G334" s="17"/>
     </row>
-    <row r="335" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E335" s="14"/>
       <c r="G335" s="17"/>
     </row>
-    <row r="336" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E336" s="14"/>
       <c r="G336" s="17"/>
     </row>
-    <row r="337" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E337" s="14"/>
       <c r="G337" s="17"/>
     </row>
-    <row r="338" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E338" s="14"/>
       <c r="G338" s="17"/>
     </row>
-    <row r="339" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E339" s="14"/>
       <c r="G339" s="17"/>
     </row>
-    <row r="340" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E340" s="14"/>
       <c r="G340" s="17"/>
     </row>
-    <row r="341" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E341" s="14"/>
       <c r="G341" s="17"/>
     </row>
-    <row r="342" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E342" s="14"/>
       <c r="G342" s="17"/>
     </row>
-    <row r="343" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E343" s="14"/>
       <c r="G343" s="17"/>
     </row>
-    <row r="344" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E344" s="14"/>
       <c r="G344" s="17"/>
     </row>
-    <row r="345" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E345" s="14"/>
       <c r="G345" s="17"/>
     </row>
-    <row r="346" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E346" s="14"/>
       <c r="G346" s="17"/>
     </row>
-    <row r="347" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E347" s="14"/>
       <c r="G347" s="17"/>
     </row>
-    <row r="348" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E348" s="14"/>
       <c r="G348" s="17"/>
     </row>
-    <row r="349" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E349" s="14"/>
       <c r="G349" s="17"/>
     </row>
-    <row r="350" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E350" s="14"/>
       <c r="G350" s="17"/>
     </row>
-    <row r="351" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E351" s="14"/>
       <c r="G351" s="17"/>
     </row>
-    <row r="352" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E352" s="14"/>
       <c r="G352" s="17"/>
     </row>
-    <row r="353" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E353" s="14"/>
       <c r="G353" s="17"/>
     </row>
-    <row r="354" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E354" s="14"/>
       <c r="G354" s="17"/>
     </row>
-    <row r="355" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E355" s="14"/>
       <c r="G355" s="17"/>
     </row>
-    <row r="356" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E356" s="14"/>
       <c r="G356" s="17"/>
     </row>
-    <row r="357" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E357" s="14"/>
       <c r="G357" s="17"/>
     </row>
-    <row r="358" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E358" s="14"/>
       <c r="G358" s="17"/>
     </row>
-    <row r="359" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E359" s="14"/>
       <c r="G359" s="17"/>
     </row>
-    <row r="360" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E360" s="14"/>
       <c r="G360" s="17"/>
     </row>
-    <row r="361" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E361" s="14"/>
       <c r="G361" s="17"/>
     </row>
-    <row r="362" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E362" s="14"/>
       <c r="G362" s="17"/>
     </row>
-    <row r="363" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E363" s="14"/>
       <c r="G363" s="17"/>
     </row>
-    <row r="364" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E364" s="14"/>
       <c r="G364" s="17"/>
     </row>
-    <row r="365" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E365" s="14"/>
       <c r="G365" s="17"/>
     </row>
-    <row r="366" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E366" s="14"/>
       <c r="G366" s="17"/>
     </row>
-    <row r="367" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E367" s="14"/>
       <c r="G367" s="17"/>
     </row>
-    <row r="368" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E368" s="14"/>
       <c r="G368" s="17"/>
     </row>
-    <row r="369" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E369" s="14"/>
       <c r="G369" s="17"/>
     </row>
-    <row r="370" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E370" s="14"/>
       <c r="G370" s="17"/>
     </row>
-    <row r="371" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E371" s="14"/>
       <c r="G371" s="17"/>
     </row>
-    <row r="372" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E372" s="14"/>
       <c r="G372" s="17"/>
     </row>
-    <row r="373" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E373" s="14"/>
       <c r="G373" s="17"/>
     </row>
-    <row r="374" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E374" s="14"/>
       <c r="G374" s="17"/>
     </row>
-    <row r="375" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E375" s="14"/>
       <c r="G375" s="17"/>
     </row>
-    <row r="376" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E376" s="14"/>
       <c r="G376" s="17"/>
     </row>
-    <row r="377" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E377" s="14"/>
       <c r="G377" s="17"/>
     </row>
-    <row r="378" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E378" s="14"/>
       <c r="G378" s="17"/>
     </row>
-    <row r="379" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E379" s="14"/>
       <c r="G379" s="17"/>
     </row>
-    <row r="380" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E380" s="14"/>
       <c r="G380" s="17"/>
     </row>
-    <row r="381" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E381" s="14"/>
       <c r="G381" s="17"/>
     </row>
-    <row r="382" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E382" s="14"/>
       <c r="G382" s="17"/>
     </row>
-    <row r="383" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E383" s="14"/>
       <c r="G383" s="17"/>
     </row>
-    <row r="384" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E384" s="14"/>
       <c r="G384" s="17"/>
     </row>
-    <row r="385" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E385" s="14"/>
       <c r="G385" s="17"/>
     </row>
-    <row r="386" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E386" s="14"/>
       <c r="G386" s="17"/>
     </row>
-    <row r="387" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E387" s="14"/>
       <c r="G387" s="17"/>
     </row>
-    <row r="388" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E388" s="14"/>
       <c r="G388" s="17"/>
     </row>
-    <row r="389" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E389" s="14"/>
       <c r="G389" s="17"/>
     </row>
-    <row r="390" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E390" s="14"/>
       <c r="G390" s="17"/>
     </row>
-    <row r="391" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E391" s="14"/>
       <c r="G391" s="17"/>
     </row>
-    <row r="392" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E392" s="14"/>
       <c r="G392" s="17"/>
     </row>
-    <row r="393" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E393" s="14"/>
       <c r="G393" s="17"/>
     </row>
-    <row r="394" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E394" s="14"/>
       <c r="G394" s="17"/>
     </row>
-    <row r="395" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E395" s="14"/>
       <c r="G395" s="17"/>
     </row>
-    <row r="396" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E396" s="14"/>
       <c r="G396" s="17"/>
     </row>
-    <row r="397" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E397" s="14"/>
       <c r="G397" s="17"/>
     </row>
-    <row r="398" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E398" s="14"/>
       <c r="G398" s="17"/>
     </row>
-    <row r="399" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E399" s="14"/>
       <c r="G399" s="17"/>
     </row>
-    <row r="400" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E400" s="14"/>
       <c r="G400" s="17"/>
     </row>
-    <row r="401" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E401" s="14"/>
       <c r="G401" s="17"/>
     </row>
-    <row r="402" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E402" s="14"/>
       <c r="G402" s="17"/>
     </row>
-    <row r="403" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E403" s="14"/>
       <c r="G403" s="17"/>
     </row>
-    <row r="404" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E404" s="14"/>
       <c r="G404" s="17"/>
     </row>
-    <row r="405" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E405" s="14"/>
       <c r="G405" s="17"/>
     </row>
-    <row r="406" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E406" s="14"/>
       <c r="G406" s="17"/>
     </row>
-    <row r="407" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E407" s="14"/>
       <c r="G407" s="17"/>
     </row>
-    <row r="408" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E408" s="14"/>
       <c r="G408" s="17"/>
     </row>
-    <row r="409" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E409" s="14"/>
       <c r="G409" s="17"/>
     </row>
-    <row r="410" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E410" s="14"/>
       <c r="G410" s="17"/>
     </row>
-    <row r="411" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E411" s="14"/>
       <c r="G411" s="17"/>
     </row>
-    <row r="412" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E412" s="14"/>
       <c r="G412" s="17"/>
     </row>
-    <row r="413" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E413" s="14"/>
       <c r="G413" s="17"/>
     </row>
-    <row r="414" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E414" s="14"/>
       <c r="G414" s="17"/>
     </row>
-    <row r="415" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E415" s="14"/>
       <c r="G415" s="17"/>
     </row>
-    <row r="416" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E416" s="14"/>
       <c r="G416" s="17"/>
     </row>
-    <row r="417" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E417" s="14"/>
       <c r="G417" s="17"/>
     </row>
-    <row r="418" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E418" s="14"/>
       <c r="G418" s="17"/>
     </row>
-    <row r="419" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E419" s="14"/>
       <c r="G419" s="17"/>
     </row>
-    <row r="420" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E420" s="14"/>
       <c r="G420" s="17"/>
     </row>
-    <row r="421" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E421" s="14"/>
       <c r="G421" s="17"/>
     </row>
-    <row r="422" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E422" s="14"/>
       <c r="G422" s="17"/>
     </row>
-    <row r="423" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E423" s="14"/>
       <c r="G423" s="17"/>
     </row>
-    <row r="424" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E424" s="14"/>
       <c r="G424" s="17"/>
     </row>
-    <row r="425" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E425" s="14"/>
       <c r="G425" s="17"/>
     </row>
-    <row r="426" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E426" s="14"/>
       <c r="G426" s="17"/>
     </row>
-    <row r="427" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E427" s="14"/>
       <c r="G427" s="17"/>
     </row>
-    <row r="428" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E428" s="14"/>
       <c r="G428" s="17"/>
     </row>
-    <row r="429" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E429" s="14"/>
       <c r="G429" s="17"/>
     </row>
-    <row r="430" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E430" s="14"/>
       <c r="G430" s="17"/>
     </row>
-    <row r="431" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E431" s="14"/>
       <c r="G431" s="17"/>
     </row>
-    <row r="432" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E432" s="14"/>
       <c r="G432" s="17"/>
     </row>
-    <row r="433" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E433" s="14"/>
       <c r="G433" s="17"/>
     </row>
-    <row r="434" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E434" s="14"/>
       <c r="G434" s="17"/>
     </row>
-    <row r="435" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E435" s="14"/>
       <c r="G435" s="17"/>
     </row>
-    <row r="436" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E436" s="14"/>
       <c r="G436" s="17"/>
     </row>
-    <row r="437" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E437" s="14"/>
       <c r="G437" s="17"/>
     </row>
-    <row r="438" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E438" s="14"/>
       <c r="G438" s="17"/>
     </row>
-    <row r="439" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E439" s="14"/>
       <c r="G439" s="17"/>
     </row>
-    <row r="440" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E440" s="14"/>
       <c r="G440" s="17"/>
     </row>
-    <row r="441" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E441" s="14"/>
       <c r="G441" s="17"/>
     </row>
-    <row r="442" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E442" s="14"/>
       <c r="G442" s="17"/>
     </row>
-    <row r="443" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E443" s="14"/>
       <c r="G443" s="17"/>
     </row>
-    <row r="444" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E444" s="14"/>
       <c r="G444" s="17"/>
     </row>
-    <row r="445" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E445" s="14"/>
       <c r="G445" s="17"/>
     </row>
-    <row r="446" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E446" s="14"/>
       <c r="G446" s="17"/>
     </row>
-    <row r="447" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E447" s="14"/>
       <c r="G447" s="17"/>
     </row>
-    <row r="448" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E448" s="14"/>
       <c r="G448" s="17"/>
     </row>
-    <row r="449" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E449" s="14"/>
       <c r="G449" s="17"/>
     </row>
-    <row r="450" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E450" s="14"/>
       <c r="G450" s="17"/>
     </row>
-    <row r="451" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E451" s="14"/>
       <c r="G451" s="17"/>
     </row>
-    <row r="452" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E452" s="14"/>
       <c r="G452" s="17"/>
     </row>
-    <row r="453" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E453" s="14"/>
       <c r="G453" s="17"/>
     </row>
-    <row r="454" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E454" s="14"/>
       <c r="G454" s="17"/>
     </row>
-    <row r="455" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E455" s="14"/>
       <c r="G455" s="17"/>
     </row>
-    <row r="456" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E456" s="14"/>
       <c r="G456" s="17"/>
     </row>
-    <row r="457" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E457" s="14"/>
       <c r="G457" s="17"/>
     </row>
-    <row r="458" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E458" s="14"/>
       <c r="G458" s="17"/>
     </row>
-    <row r="459" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E459" s="14"/>
       <c r="G459" s="17"/>
     </row>
-    <row r="460" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E460" s="14"/>
       <c r="G460" s="17"/>
     </row>
-    <row r="461" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E461" s="14"/>
       <c r="G461" s="17"/>
     </row>
-    <row r="462" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E462" s="14"/>
       <c r="G462" s="17"/>
     </row>
-    <row r="463" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E463" s="14"/>
       <c r="G463" s="17"/>
     </row>
-    <row r="464" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E464" s="14"/>
       <c r="G464" s="17"/>
     </row>
-    <row r="465" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E465" s="14"/>
       <c r="G465" s="17"/>
     </row>
-    <row r="466" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E466" s="14"/>
       <c r="G466" s="17"/>
     </row>
-    <row r="467" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E467" s="14"/>
       <c r="G467" s="17"/>
     </row>
-    <row r="468" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E468" s="14"/>
       <c r="G468" s="17"/>
     </row>
-    <row r="469" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E469" s="14"/>
       <c r="G469" s="17"/>
     </row>
-    <row r="470" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E470" s="14"/>
       <c r="G470" s="17"/>
     </row>
-    <row r="471" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E471" s="14"/>
       <c r="G471" s="17"/>
     </row>
-    <row r="472" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E472" s="14"/>
       <c r="G472" s="17"/>
     </row>
-    <row r="473" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E473" s="14"/>
       <c r="G473" s="17"/>
     </row>
-    <row r="474" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E474" s="14"/>
       <c r="G474" s="17"/>
     </row>
-    <row r="475" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E475" s="14"/>
       <c r="G475" s="17"/>
     </row>
-    <row r="476" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E476" s="14"/>
       <c r="G476" s="17"/>
     </row>
-    <row r="477" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E477" s="14"/>
       <c r="G477" s="17"/>
     </row>
-    <row r="478" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E478" s="14"/>
       <c r="G478" s="17"/>
     </row>
-    <row r="479" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E479" s="14"/>
       <c r="G479" s="17"/>
     </row>
-    <row r="480" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E480" s="14"/>
       <c r="G480" s="17"/>
     </row>
-    <row r="481" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E481" s="14"/>
       <c r="G481" s="17"/>
     </row>
-    <row r="482" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E482" s="14"/>
       <c r="G482" s="17"/>
     </row>
-    <row r="483" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E483" s="14"/>
       <c r="G483" s="17"/>
     </row>
-    <row r="484" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E484" s="14"/>
       <c r="G484" s="17"/>
     </row>
-    <row r="485" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E485" s="14"/>
       <c r="G485" s="17"/>
     </row>
-    <row r="486" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E486" s="14"/>
       <c r="G486" s="17"/>
     </row>
-    <row r="487" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E487" s="14"/>
       <c r="G487" s="17"/>
     </row>
-    <row r="488" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E488" s="14"/>
       <c r="G488" s="17"/>
     </row>
-    <row r="489" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E489" s="14"/>
       <c r="G489" s="17"/>
     </row>
-    <row r="490" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E490" s="14"/>
       <c r="G490" s="17"/>
     </row>
-    <row r="491" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E491" s="14"/>
       <c r="G491" s="17"/>
     </row>
-    <row r="492" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E492" s="14"/>
       <c r="G492" s="17"/>
     </row>
-    <row r="493" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E493" s="14"/>
       <c r="G493" s="17"/>
     </row>
-    <row r="494" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E494" s="14"/>
       <c r="G494" s="17"/>
     </row>
-    <row r="495" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E495" s="14"/>
       <c r="G495" s="17"/>
     </row>
-    <row r="496" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E496" s="14"/>
       <c r="G496" s="17"/>
     </row>
-    <row r="497" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E497" s="14"/>
       <c r="G497" s="17"/>
     </row>
-    <row r="498" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E498" s="14"/>
       <c r="G498" s="17"/>
     </row>
-    <row r="499" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E499" s="14"/>
       <c r="G499" s="17"/>
     </row>
-    <row r="500" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E500" s="14"/>
       <c r="G500" s="17"/>
     </row>
-    <row r="501" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E501" s="14"/>
       <c r="G501" s="17"/>
     </row>
-    <row r="502" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E502" s="14"/>
       <c r="G502" s="17"/>
     </row>
-    <row r="503" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E503" s="14"/>
       <c r="G503" s="17"/>
     </row>
-    <row r="504" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E504" s="14"/>
       <c r="G504" s="17"/>
     </row>
-    <row r="505" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E505" s="14"/>
       <c r="G505" s="17"/>
     </row>
-    <row r="506" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E506" s="14"/>
       <c r="G506" s="17"/>
     </row>
-    <row r="507" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E507" s="14"/>
       <c r="G507" s="17"/>
     </row>
-    <row r="508" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E508" s="14"/>
       <c r="G508" s="17"/>
     </row>
-    <row r="509" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E509" s="14"/>
       <c r="G509" s="17"/>
     </row>
-    <row r="510" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E510" s="14"/>
       <c r="G510" s="17"/>
     </row>
-    <row r="511" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E511" s="14"/>
       <c r="G511" s="17"/>
     </row>
-    <row r="512" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E512" s="14"/>
       <c r="G512" s="17"/>
     </row>
-    <row r="513" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E513" s="14"/>
       <c r="G513" s="17"/>
     </row>
-    <row r="514" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E514" s="14"/>
       <c r="G514" s="17"/>
     </row>
-    <row r="515" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E515" s="14"/>
       <c r="G515" s="17"/>
     </row>
-    <row r="516" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E516" s="14"/>
       <c r="G516" s="17"/>
     </row>
-    <row r="517" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E517" s="14"/>
       <c r="G517" s="17"/>
     </row>
-    <row r="518" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E518" s="14"/>
       <c r="G518" s="17"/>
     </row>
-    <row r="519" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E519" s="14"/>
       <c r="G519" s="17"/>
     </row>
-    <row r="520" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E520" s="14"/>
       <c r="G520" s="17"/>
     </row>
-    <row r="521" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E521" s="14"/>
       <c r="G521" s="17"/>
     </row>
-    <row r="522" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E522" s="14"/>
       <c r="G522" s="17"/>
     </row>
-    <row r="523" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E523" s="14"/>
       <c r="G523" s="17"/>
     </row>
-    <row r="524" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E524" s="14"/>
       <c r="G524" s="17"/>
     </row>
-    <row r="525" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E525" s="14"/>
       <c r="G525" s="17"/>
     </row>
-    <row r="526" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E526" s="14"/>
       <c r="G526" s="17"/>
     </row>
-    <row r="527" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E527" s="14"/>
       <c r="G527" s="17"/>
     </row>
-    <row r="528" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E528" s="14"/>
       <c r="G528" s="17"/>
     </row>
-    <row r="529" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E529" s="14"/>
       <c r="G529" s="17"/>
     </row>
-    <row r="530" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E530" s="14"/>
       <c r="G530" s="17"/>
     </row>
-    <row r="531" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E531" s="14"/>
       <c r="G531" s="17"/>
     </row>
-    <row r="532" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E532" s="14"/>
       <c r="G532" s="17"/>
     </row>
-    <row r="533" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E533" s="14"/>
       <c r="G533" s="17"/>
     </row>
-    <row r="534" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E534" s="14"/>
       <c r="G534" s="17"/>
     </row>
-    <row r="535" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E535" s="14"/>
       <c r="G535" s="17"/>
     </row>
-    <row r="536" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E536" s="14"/>
       <c r="G536" s="17"/>
     </row>
-    <row r="537" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E537" s="14"/>
       <c r="G537" s="17"/>
     </row>
-    <row r="538" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E538" s="14"/>
       <c r="G538" s="17"/>
     </row>
-    <row r="539" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E539" s="14"/>
       <c r="G539" s="17"/>
     </row>
-    <row r="540" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E540" s="14"/>
       <c r="G540" s="17"/>
     </row>
-    <row r="541" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E541" s="14"/>
       <c r="G541" s="17"/>
     </row>
-    <row r="542" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E542" s="14"/>
       <c r="G542" s="17"/>
     </row>
-    <row r="543" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E543" s="14"/>
       <c r="G543" s="17"/>
     </row>
-    <row r="544" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E544" s="14"/>
       <c r="G544" s="17"/>
     </row>
-    <row r="545" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E545" s="14"/>
       <c r="G545" s="17"/>
     </row>
-    <row r="546" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E546" s="14"/>
       <c r="G546" s="17"/>
     </row>
-    <row r="547" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E547" s="14"/>
       <c r="G547" s="17"/>
     </row>
-    <row r="548" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E548" s="14"/>
       <c r="G548" s="17"/>
     </row>
-    <row r="549" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E549" s="14"/>
       <c r="G549" s="17"/>
     </row>
-    <row r="550" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E550" s="14"/>
       <c r="G550" s="17"/>
     </row>
-    <row r="551" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E551" s="14"/>
       <c r="G551" s="17"/>
     </row>
-    <row r="552" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E552" s="14"/>
       <c r="G552" s="17"/>
     </row>
-    <row r="553" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E553" s="14"/>
       <c r="G553" s="17"/>
     </row>
-    <row r="554" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E554" s="14"/>
       <c r="G554" s="17"/>
     </row>
-    <row r="555" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E555" s="14"/>
       <c r="G555" s="17"/>
     </row>
-    <row r="556" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E556" s="14"/>
       <c r="G556" s="17"/>
     </row>
-    <row r="557" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E557" s="14"/>
       <c r="G557" s="17"/>
     </row>
-    <row r="558" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E558" s="14"/>
       <c r="G558" s="17"/>
     </row>
-    <row r="559" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E559" s="14"/>
       <c r="G559" s="17"/>
     </row>
-    <row r="560" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E560" s="14"/>
       <c r="G560" s="17"/>
     </row>
-    <row r="561" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E561" s="14"/>
       <c r="G561" s="17"/>
     </row>
-    <row r="562" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E562" s="14"/>
       <c r="G562" s="17"/>
     </row>
-    <row r="563" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E563" s="14"/>
       <c r="G563" s="17"/>
     </row>
-    <row r="564" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E564" s="14"/>
       <c r="G564" s="17"/>
     </row>
-    <row r="565" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E565" s="14"/>
       <c r="G565" s="17"/>
     </row>
-    <row r="566" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E566" s="14"/>
       <c r="G566" s="17"/>
     </row>
-    <row r="567" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E567" s="14"/>
       <c r="G567" s="17"/>
     </row>
-    <row r="568" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E568" s="14"/>
       <c r="G568" s="17"/>
     </row>
-    <row r="569" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E569" s="14"/>
       <c r="G569" s="17"/>
     </row>
-    <row r="570" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E570" s="14"/>
       <c r="G570" s="17"/>
     </row>
-    <row r="571" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E571" s="14"/>
       <c r="G571" s="17"/>
     </row>
-    <row r="572" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E572" s="14"/>
       <c r="G572" s="17"/>
     </row>
-    <row r="573" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E573" s="14"/>
       <c r="G573" s="17"/>
     </row>
-    <row r="574" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E574" s="14"/>
       <c r="G574" s="17"/>
     </row>
-    <row r="575" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E575" s="14"/>
       <c r="G575" s="17"/>
     </row>
-    <row r="576" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E576" s="14"/>
       <c r="G576" s="17"/>
     </row>
-    <row r="577" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E577" s="14"/>
       <c r="G577" s="17"/>
     </row>
-    <row r="578" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E578" s="14"/>
       <c r="G578" s="17"/>
     </row>
-    <row r="579" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E579" s="14"/>
       <c r="G579" s="17"/>
     </row>
-    <row r="580" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E580" s="14"/>
       <c r="G580" s="17"/>
     </row>
-    <row r="581" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E581" s="14"/>
       <c r="G581" s="17"/>
     </row>
-    <row r="582" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E582" s="14"/>
       <c r="G582" s="17"/>
     </row>
-    <row r="583" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E583" s="14"/>
       <c r="G583" s="17"/>
     </row>
-    <row r="584" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E584" s="14"/>
       <c r="G584" s="17"/>
     </row>
-    <row r="585" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E585" s="14"/>
       <c r="G585" s="17"/>
     </row>
-    <row r="586" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E586" s="14"/>
       <c r="G586" s="17"/>
     </row>
-    <row r="587" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E587" s="14"/>
       <c r="G587" s="17"/>
     </row>
-    <row r="588" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E588" s="14"/>
       <c r="G588" s="17"/>
     </row>
-    <row r="589" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E589" s="14"/>
       <c r="G589" s="17"/>
     </row>
-    <row r="590" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E590" s="14"/>
       <c r="G590" s="17"/>
     </row>
-    <row r="591" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E591" s="14"/>
       <c r="G591" s="17"/>
     </row>
-    <row r="592" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E592" s="14"/>
       <c r="G592" s="17"/>
     </row>
-    <row r="593" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E593" s="14"/>
       <c r="G593" s="17"/>
     </row>
-    <row r="594" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E594" s="14"/>
       <c r="G594" s="17"/>
     </row>
-    <row r="595" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E595" s="14"/>
       <c r="G595" s="17"/>
     </row>
-    <row r="596" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E596" s="14"/>
       <c r="G596" s="17"/>
     </row>
-    <row r="597" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E597" s="14"/>
       <c r="G597" s="17"/>
     </row>
-    <row r="598" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E598" s="14"/>
       <c r="G598" s="17"/>
     </row>
-    <row r="599" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E599" s="14"/>
       <c r="G599" s="17"/>
     </row>
-    <row r="600" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E600" s="14"/>
       <c r="G600" s="17"/>
     </row>
-    <row r="601" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E601" s="14"/>
       <c r="G601" s="17"/>
     </row>
-    <row r="602" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E602" s="14"/>
       <c r="G602" s="17"/>
     </row>
-    <row r="603" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E603" s="14"/>
       <c r="G603" s="17"/>
     </row>
-    <row r="604" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E604" s="14"/>
       <c r="G604" s="17"/>
     </row>
-    <row r="605" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E605" s="14"/>
       <c r="G605" s="17"/>
     </row>
-    <row r="606" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E606" s="14"/>
       <c r="G606" s="17"/>
     </row>
-    <row r="607" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E607" s="14"/>
       <c r="G607" s="17"/>
     </row>
-    <row r="608" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E608" s="14"/>
       <c r="G608" s="17"/>
     </row>
-    <row r="609" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E609" s="14"/>
       <c r="G609" s="17"/>
     </row>
-    <row r="610" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E610" s="14"/>
       <c r="G610" s="17"/>
     </row>
-    <row r="611" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E611" s="14"/>
       <c r="G611" s="17"/>
     </row>
-    <row r="612" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E612" s="14"/>
       <c r="G612" s="17"/>
     </row>
-    <row r="613" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E613" s="14"/>
       <c r="G613" s="17"/>
     </row>
-    <row r="614" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E614" s="14"/>
       <c r="G614" s="17"/>
     </row>
-    <row r="615" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E615" s="14"/>
       <c r="G615" s="17"/>
     </row>
-    <row r="616" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E616" s="14"/>
       <c r="G616" s="17"/>
     </row>
-    <row r="617" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E617" s="14"/>
       <c r="G617" s="17"/>
     </row>
-    <row r="618" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E618" s="14"/>
       <c r="G618" s="17"/>
     </row>
-    <row r="619" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E619" s="14"/>
       <c r="G619" s="17"/>
     </row>
-    <row r="620" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E620" s="14"/>
       <c r="G620" s="17"/>
     </row>
-    <row r="621" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E621" s="14"/>
       <c r="G621" s="17"/>
     </row>
-    <row r="622" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E622" s="14"/>
       <c r="G622" s="17"/>
     </row>
-    <row r="623" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E623" s="14"/>
       <c r="G623" s="17"/>
     </row>
-    <row r="624" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E624" s="14"/>
       <c r="G624" s="17"/>
     </row>
-    <row r="625" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E625" s="14"/>
       <c r="G625" s="17"/>
     </row>
-    <row r="626" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E626" s="14"/>
       <c r="G626" s="17"/>
     </row>
-    <row r="627" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E627" s="14"/>
       <c r="G627" s="17"/>
     </row>
-    <row r="628" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E628" s="14"/>
       <c r="G628" s="17"/>
     </row>
-    <row r="629" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E629" s="14"/>
       <c r="G629" s="17"/>
     </row>
-    <row r="630" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E630" s="14"/>
       <c r="G630" s="17"/>
     </row>
-    <row r="631" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E631" s="14"/>
       <c r="G631" s="17"/>
     </row>
-    <row r="632" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E632" s="14"/>
       <c r="G632" s="17"/>
     </row>
-    <row r="633" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E633" s="14"/>
       <c r="G633" s="17"/>
     </row>
-    <row r="634" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E634" s="14"/>
       <c r="G634" s="17"/>
     </row>
-    <row r="635" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E635" s="14"/>
       <c r="G635" s="17"/>
     </row>
-    <row r="636" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E636" s="14"/>
       <c r="G636" s="17"/>
     </row>
-    <row r="637" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E637" s="14"/>
       <c r="G637" s="17"/>
     </row>
-    <row r="638" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E638" s="14"/>
       <c r="G638" s="17"/>
     </row>
-    <row r="639" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E639" s="14"/>
       <c r="G639" s="17"/>
     </row>
-    <row r="640" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E640" s="14"/>
       <c r="G640" s="17"/>
     </row>
-    <row r="641" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E641" s="14"/>
       <c r="G641" s="17"/>
     </row>
-    <row r="642" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E642" s="14"/>
       <c r="G642" s="17"/>
     </row>
-    <row r="643" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E643" s="14"/>
       <c r="G643" s="17"/>
     </row>
-    <row r="644" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E644" s="14"/>
       <c r="G644" s="17"/>
     </row>
-    <row r="645" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E645" s="14"/>
       <c r="G645" s="17"/>
     </row>
-    <row r="646" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E646" s="14"/>
       <c r="G646" s="17"/>
     </row>
-    <row r="647" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E647" s="14"/>
       <c r="G647" s="17"/>
     </row>
-    <row r="648" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E648" s="14"/>
       <c r="G648" s="17"/>
     </row>
-    <row r="649" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E649" s="14"/>
       <c r="G649" s="17"/>
     </row>
-    <row r="650" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E650" s="14"/>
       <c r="G650" s="17"/>
     </row>
-    <row r="651" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E651" s="14"/>
       <c r="G651" s="17"/>
     </row>
-    <row r="652" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E652" s="14"/>
       <c r="G652" s="17"/>
     </row>
-    <row r="653" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E653" s="14"/>
       <c r="G653" s="17"/>
     </row>
-    <row r="654" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E654" s="14"/>
       <c r="G654" s="17"/>
     </row>
-    <row r="655" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E655" s="14"/>
       <c r="G655" s="17"/>
     </row>
-    <row r="656" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E656" s="14"/>
       <c r="G656" s="17"/>
     </row>
-    <row r="657" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E657" s="14"/>
       <c r="G657" s="17"/>
     </row>
-    <row r="658" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E658" s="14"/>
       <c r="G658" s="17"/>
     </row>
-    <row r="659" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E659" s="14"/>
       <c r="G659" s="17"/>
     </row>
-    <row r="660" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E660" s="14"/>
       <c r="G660" s="17"/>
     </row>
-    <row r="661" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E661" s="14"/>
       <c r="G661" s="17"/>
     </row>
-    <row r="662" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E662" s="14"/>
       <c r="G662" s="17"/>
     </row>
-    <row r="663" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E663" s="14"/>
       <c r="G663" s="17"/>
     </row>
-    <row r="664" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E664" s="14"/>
       <c r="G664" s="17"/>
     </row>
-    <row r="665" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E665" s="14"/>
       <c r="G665" s="17"/>
     </row>
-    <row r="666" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E666" s="14"/>
       <c r="G666" s="17"/>
     </row>
-    <row r="667" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E667" s="14"/>
       <c r="G667" s="17"/>
     </row>
-    <row r="668" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E668" s="14"/>
       <c r="G668" s="17"/>
     </row>
-    <row r="669" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E669" s="14"/>
       <c r="G669" s="17"/>
     </row>
-    <row r="670" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E670" s="14"/>
       <c r="G670" s="17"/>
     </row>
-    <row r="671" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E671" s="14"/>
       <c r="G671" s="17"/>
     </row>
-    <row r="672" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E672" s="14"/>
       <c r="G672" s="17"/>
     </row>
-    <row r="673" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E673" s="14"/>
       <c r="G673" s="17"/>
     </row>
-    <row r="674" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E674" s="14"/>
       <c r="G674" s="17"/>
     </row>
-    <row r="675" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E675" s="14"/>
       <c r="G675" s="17"/>
     </row>
-    <row r="676" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E676" s="14"/>
       <c r="G676" s="17"/>
     </row>
-    <row r="677" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E677" s="14"/>
       <c r="G677" s="17"/>
     </row>
-    <row r="678" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E678" s="14"/>
       <c r="G678" s="17"/>
     </row>
-    <row r="679" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E679" s="14"/>
       <c r="G679" s="17"/>
     </row>
-    <row r="680" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E680" s="14"/>
       <c r="G680" s="17"/>
     </row>
-    <row r="681" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E681" s="14"/>
       <c r="G681" s="17"/>
     </row>
-    <row r="682" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E682" s="14"/>
       <c r="G682" s="17"/>
     </row>
-    <row r="683" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E683" s="14"/>
       <c r="G683" s="17"/>
     </row>
-    <row r="684" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E684" s="14"/>
       <c r="G684" s="17"/>
     </row>
-    <row r="685" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E685" s="14"/>
       <c r="G685" s="17"/>
     </row>
-    <row r="686" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E686" s="14"/>
       <c r="G686" s="17"/>
     </row>
-    <row r="687" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E687" s="14"/>
       <c r="G687" s="17"/>
     </row>
-    <row r="688" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E688" s="14"/>
       <c r="G688" s="17"/>
     </row>
-    <row r="689" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E689" s="14"/>
       <c r="G689" s="17"/>
     </row>
-    <row r="690" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E690" s="14"/>
       <c r="G690" s="17"/>
     </row>
-    <row r="691" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E691" s="14"/>
       <c r="G691" s="17"/>
     </row>
-    <row r="692" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E692" s="14"/>
       <c r="G692" s="17"/>
     </row>
-    <row r="693" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E693" s="14"/>
       <c r="G693" s="17"/>
     </row>
-    <row r="694" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E694" s="14"/>
       <c r="G694" s="17"/>
     </row>
-    <row r="695" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E695" s="14"/>
       <c r="G695" s="17"/>
     </row>
-    <row r="696" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E696" s="14"/>
       <c r="G696" s="17"/>
     </row>
-    <row r="697" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E697" s="14"/>
       <c r="G697" s="17"/>
     </row>
-    <row r="698" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E698" s="14"/>
       <c r="G698" s="17"/>
     </row>
-    <row r="699" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E699" s="14"/>
       <c r="G699" s="17"/>
     </row>
-    <row r="700" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E700" s="14"/>
       <c r="G700" s="17"/>
     </row>
-    <row r="701" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E701" s="14"/>
       <c r="G701" s="17"/>
     </row>
-    <row r="702" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E702" s="14"/>
       <c r="G702" s="17"/>
     </row>
-    <row r="703" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E703" s="14"/>
       <c r="G703" s="17"/>
     </row>
-    <row r="704" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E704" s="14"/>
       <c r="G704" s="17"/>
     </row>
-    <row r="705" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E705" s="14"/>
       <c r="G705" s="17"/>
     </row>
-    <row r="706" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E706" s="14"/>
       <c r="G706" s="17"/>
     </row>
-    <row r="707" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E707" s="14"/>
       <c r="G707" s="17"/>
     </row>
-    <row r="708" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E708" s="14"/>
       <c r="G708" s="17"/>
     </row>
-    <row r="709" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E709" s="14"/>
       <c r="G709" s="17"/>
     </row>
-    <row r="710" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E710" s="14"/>
       <c r="G710" s="17"/>
     </row>
-    <row r="711" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E711" s="14"/>
       <c r="G711" s="17"/>
     </row>
-    <row r="712" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E712" s="14"/>
       <c r="G712" s="17"/>
     </row>
-    <row r="713" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E713" s="14"/>
       <c r="G713" s="17"/>
     </row>
-    <row r="714" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E714" s="14"/>
       <c r="G714" s="17"/>
     </row>
-    <row r="715" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E715" s="14"/>
       <c r="G715" s="17"/>
     </row>
-    <row r="716" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E716" s="14"/>
       <c r="G716" s="17"/>
     </row>
-    <row r="717" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E717" s="14"/>
       <c r="G717" s="17"/>
     </row>
-    <row r="718" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E718" s="14"/>
       <c r="G718" s="17"/>
     </row>
-    <row r="719" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E719" s="14"/>
       <c r="G719" s="17"/>
     </row>
-    <row r="720" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E720" s="14"/>
       <c r="G720" s="17"/>
     </row>
-    <row r="721" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E721" s="14"/>
       <c r="G721" s="17"/>
     </row>
-    <row r="722" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E722" s="14"/>
       <c r="G722" s="17"/>
     </row>
-    <row r="723" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E723" s="14"/>
       <c r="G723" s="17"/>
     </row>
-    <row r="724" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E724" s="14"/>
       <c r="G724" s="17"/>
     </row>
-    <row r="725" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E725" s="14"/>
       <c r="G725" s="17"/>
     </row>
-    <row r="726" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E726" s="14"/>
       <c r="G726" s="17"/>
     </row>
-    <row r="727" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E727" s="14"/>
       <c r="G727" s="17"/>
     </row>
-    <row r="728" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E728" s="14"/>
       <c r="G728" s="17"/>
     </row>
-    <row r="729" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E729" s="14"/>
       <c r="G729" s="17"/>
     </row>
-    <row r="730" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E730" s="14"/>
       <c r="G730" s="17"/>
     </row>
-    <row r="731" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E731" s="14"/>
       <c r="G731" s="17"/>
     </row>
-    <row r="732" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E732" s="14"/>
       <c r="G732" s="17"/>
     </row>
-    <row r="733" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E733" s="14"/>
       <c r="G733" s="17"/>
     </row>
-    <row r="734" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E734" s="14"/>
       <c r="G734" s="17"/>
     </row>
-    <row r="735" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E735" s="14"/>
       <c r="G735" s="17"/>
     </row>
-    <row r="736" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E736" s="14"/>
       <c r="G736" s="17"/>
     </row>
-    <row r="737" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E737" s="14"/>
       <c r="G737" s="17"/>
     </row>
-    <row r="738" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E738" s="14"/>
       <c r="G738" s="17"/>
     </row>
-    <row r="739" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E739" s="14"/>
       <c r="G739" s="17"/>
     </row>
-    <row r="740" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E740" s="14"/>
       <c r="G740" s="17"/>
     </row>
-    <row r="741" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E741" s="14"/>
       <c r="G741" s="17"/>
     </row>
-    <row r="742" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E742" s="14"/>
       <c r="G742" s="17"/>
     </row>
-    <row r="743" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E743" s="14"/>
       <c r="G743" s="17"/>
     </row>
-    <row r="744" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E744" s="14"/>
       <c r="G744" s="17"/>
     </row>
-    <row r="745" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E745" s="14"/>
       <c r="G745" s="17"/>
     </row>
-    <row r="746" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E746" s="14"/>
       <c r="G746" s="17"/>
     </row>
-    <row r="747" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E747" s="14"/>
       <c r="G747" s="17"/>
     </row>
-    <row r="748" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E748" s="14"/>
       <c r="G748" s="17"/>
     </row>
-    <row r="749" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E749" s="14"/>
       <c r="G749" s="17"/>
     </row>
-    <row r="750" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E750" s="14"/>
       <c r="G750" s="17"/>
     </row>
-    <row r="751" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E751" s="14"/>
       <c r="G751" s="17"/>
     </row>
-    <row r="752" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E752" s="14"/>
       <c r="G752" s="17"/>
     </row>
-    <row r="753" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E753" s="14"/>
       <c r="G753" s="17"/>
     </row>
-    <row r="754" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E754" s="14"/>
       <c r="G754" s="17"/>
     </row>
-    <row r="755" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E755" s="14"/>
       <c r="G755" s="17"/>
     </row>
-    <row r="756" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E756" s="14"/>
       <c r="G756" s="17"/>
     </row>
-    <row r="757" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E757" s="14"/>
       <c r="G757" s="17"/>
     </row>
-    <row r="758" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E758" s="14"/>
       <c r="G758" s="17"/>
     </row>
-    <row r="759" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E759" s="14"/>
       <c r="G759" s="17"/>
     </row>
-    <row r="760" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E760" s="14"/>
       <c r="G760" s="17"/>
     </row>
-    <row r="761" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E761" s="14"/>
       <c r="G761" s="17"/>
     </row>
-    <row r="762" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E762" s="14"/>
       <c r="G762" s="17"/>
     </row>
-    <row r="763" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E763" s="14"/>
       <c r="G763" s="17"/>
     </row>
-    <row r="764" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E764" s="14"/>
       <c r="G764" s="17"/>
     </row>
-    <row r="765" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E765" s="14"/>
       <c r="G765" s="17"/>
     </row>
-    <row r="766" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E766" s="14"/>
       <c r="G766" s="17"/>
     </row>
-    <row r="767" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E767" s="14"/>
       <c r="G767" s="17"/>
     </row>
-    <row r="768" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E768" s="14"/>
       <c r="G768" s="17"/>
     </row>
-    <row r="769" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E769" s="14"/>
       <c r="G769" s="17"/>
     </row>
-    <row r="770" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E770" s="14"/>
       <c r="G770" s="17"/>
     </row>
-    <row r="771" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E771" s="14"/>
       <c r="G771" s="17"/>
     </row>
-    <row r="772" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E772" s="14"/>
       <c r="G772" s="17"/>
     </row>
-    <row r="773" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E773" s="14"/>
       <c r="G773" s="17"/>
     </row>
-    <row r="774" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E774" s="14"/>
       <c r="G774" s="17"/>
     </row>
-    <row r="775" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E775" s="14"/>
       <c r="G775" s="17"/>
     </row>
-    <row r="776" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E776" s="14"/>
       <c r="G776" s="17"/>
     </row>
-    <row r="777" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E777" s="14"/>
       <c r="G777" s="17"/>
     </row>
-    <row r="778" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E778" s="14"/>
       <c r="G778" s="17"/>
     </row>
-    <row r="779" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E779" s="14"/>
       <c r="G779" s="17"/>
     </row>
-    <row r="780" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E780" s="14"/>
       <c r="G780" s="17"/>
     </row>
-    <row r="781" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E781" s="14"/>
       <c r="G781" s="17"/>
     </row>
-    <row r="782" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E782" s="14"/>
       <c r="G782" s="17"/>
     </row>
-    <row r="783" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E783" s="14"/>
       <c r="G783" s="17"/>
     </row>
-    <row r="784" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E784" s="14"/>
       <c r="G784" s="17"/>
     </row>
-    <row r="785" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E785" s="14"/>
       <c r="G785" s="17"/>
     </row>
-    <row r="786" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E786" s="14"/>
       <c r="G786" s="17"/>
     </row>
-    <row r="787" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E787" s="14"/>
       <c r="G787" s="17"/>
     </row>
-    <row r="788" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E788" s="14"/>
       <c r="G788" s="17"/>
     </row>
-    <row r="789" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E789" s="14"/>
       <c r="G789" s="17"/>
     </row>
-    <row r="790" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E790" s="14"/>
       <c r="G790" s="17"/>
     </row>
-    <row r="791" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E791" s="14"/>
       <c r="G791" s="17"/>
     </row>
-    <row r="792" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E792" s="14"/>
       <c r="G792" s="17"/>
     </row>
-    <row r="793" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E793" s="14"/>
       <c r="G793" s="17"/>
     </row>
-    <row r="794" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E794" s="14"/>
       <c r="G794" s="17"/>
     </row>
-    <row r="795" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E795" s="14"/>
       <c r="G795" s="17"/>
     </row>
-    <row r="796" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E796" s="14"/>
       <c r="G796" s="17"/>
     </row>
-    <row r="797" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E797" s="14"/>
       <c r="G797" s="17"/>
     </row>
-    <row r="798" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E798" s="14"/>
       <c r="G798" s="17"/>
     </row>
-    <row r="799" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E799" s="14"/>
       <c r="G799" s="17"/>
     </row>
-    <row r="800" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E800" s="14"/>
       <c r="G800" s="17"/>
     </row>
-    <row r="801" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E801" s="14"/>
       <c r="G801" s="17"/>
     </row>
-    <row r="802" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E802" s="14"/>
       <c r="G802" s="17"/>
     </row>
-    <row r="803" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E803" s="14"/>
       <c r="G803" s="17"/>
     </row>
-    <row r="804" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E804" s="14"/>
       <c r="G804" s="17"/>
     </row>
-    <row r="805" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E805" s="14"/>
       <c r="G805" s="17"/>
     </row>
-    <row r="806" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E806" s="14"/>
       <c r="G806" s="17"/>
     </row>
-    <row r="807" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E807" s="14"/>
       <c r="G807" s="17"/>
     </row>
-    <row r="808" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E808" s="14"/>
       <c r="G808" s="17"/>
     </row>
-    <row r="809" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E809" s="14"/>
       <c r="G809" s="17"/>
     </row>
-    <row r="810" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E810" s="14"/>
       <c r="G810" s="17"/>
     </row>
-    <row r="811" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E811" s="14"/>
       <c r="G811" s="17"/>
     </row>
-    <row r="812" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E812" s="14"/>
       <c r="G812" s="17"/>
     </row>
-    <row r="813" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E813" s="14"/>
       <c r="G813" s="17"/>
     </row>
-    <row r="814" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E814" s="14"/>
       <c r="G814" s="17"/>
     </row>
-    <row r="815" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E815" s="14"/>
       <c r="G815" s="17"/>
     </row>
-    <row r="816" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E816" s="14"/>
       <c r="G816" s="17"/>
     </row>
-    <row r="817" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E817" s="14"/>
       <c r="G817" s="17"/>
     </row>
-    <row r="818" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E818" s="14"/>
       <c r="G818" s="17"/>
     </row>
-    <row r="819" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E819" s="14"/>
       <c r="G819" s="17"/>
     </row>
-    <row r="820" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E820" s="14"/>
       <c r="G820" s="17"/>
     </row>
-    <row r="821" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E821" s="14"/>
       <c r="G821" s="17"/>
     </row>
-    <row r="822" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E822" s="14"/>
       <c r="G822" s="17"/>
     </row>
-    <row r="823" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E823" s="14"/>
       <c r="G823" s="17"/>
     </row>
-    <row r="824" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E824" s="14"/>
       <c r="G824" s="17"/>
     </row>
-    <row r="825" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E825" s="14"/>
       <c r="G825" s="17"/>
     </row>
-    <row r="826" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E826" s="14"/>
       <c r="G826" s="17"/>
     </row>
-    <row r="827" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E827" s="14"/>
       <c r="G827" s="17"/>
     </row>
-    <row r="828" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E828" s="14"/>
       <c r="G828" s="17"/>
     </row>
-    <row r="829" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E829" s="14"/>
       <c r="G829" s="17"/>
     </row>
-    <row r="830" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E830" s="14"/>
       <c r="G830" s="17"/>
     </row>
-    <row r="831" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E831" s="14"/>
       <c r="G831" s="17"/>
     </row>
-    <row r="832" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E832" s="14"/>
       <c r="G832" s="17"/>
     </row>
-    <row r="833" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E833" s="14"/>
       <c r="G833" s="17"/>
     </row>
-    <row r="834" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E834" s="14"/>
       <c r="G834" s="17"/>
     </row>
-    <row r="835" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E835" s="14"/>
       <c r="G835" s="17"/>
     </row>
-    <row r="836" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E836" s="14"/>
       <c r="G836" s="17"/>
     </row>
-    <row r="837" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E837" s="14"/>
       <c r="G837" s="17"/>
     </row>
-    <row r="838" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E838" s="14"/>
       <c r="G838" s="17"/>
     </row>
-    <row r="839" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E839" s="14"/>
       <c r="G839" s="17"/>
     </row>
-    <row r="840" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E840" s="14"/>
       <c r="G840" s="17"/>
     </row>
-    <row r="841" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E841" s="14"/>
       <c r="G841" s="17"/>
     </row>
-    <row r="842" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E842" s="14"/>
       <c r="G842" s="17"/>
     </row>
-    <row r="843" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E843" s="14"/>
       <c r="G843" s="17"/>
     </row>
-    <row r="844" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E844" s="14"/>
       <c r="G844" s="17"/>
     </row>
-    <row r="845" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E845" s="14"/>
       <c r="G845" s="17"/>
     </row>
-    <row r="846" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E846" s="14"/>
       <c r="G846" s="17"/>
     </row>
-    <row r="847" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E847" s="14"/>
       <c r="G847" s="17"/>
     </row>
-    <row r="848" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E848" s="14"/>
       <c r="G848" s="17"/>
     </row>
-    <row r="849" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E849" s="14"/>
       <c r="G849" s="17"/>
     </row>
-    <row r="850" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E850" s="14"/>
       <c r="G850" s="17"/>
     </row>
-    <row r="851" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E851" s="14"/>
       <c r="G851" s="17"/>
     </row>
-    <row r="852" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E852" s="14"/>
       <c r="G852" s="17"/>
     </row>
-    <row r="853" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E853" s="14"/>
       <c r="G853" s="17"/>
     </row>
-    <row r="854" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E854" s="14"/>
       <c r="G854" s="17"/>
     </row>
-    <row r="855" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E855" s="14"/>
       <c r="G855" s="17"/>
     </row>
-    <row r="856" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E856" s="14"/>
       <c r="G856" s="17"/>
     </row>
-    <row r="857" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E857" s="14"/>
       <c r="G857" s="17"/>
     </row>
-    <row r="858" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E858" s="14"/>
       <c r="G858" s="17"/>
     </row>
-    <row r="859" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E859" s="14"/>
       <c r="G859" s="17"/>
     </row>
-    <row r="860" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E860" s="14"/>
       <c r="G860" s="17"/>
     </row>
-    <row r="861" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E861" s="14"/>
       <c r="G861" s="17"/>
     </row>
-    <row r="862" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E862" s="14"/>
       <c r="G862" s="17"/>
     </row>
-    <row r="863" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E863" s="14"/>
       <c r="G863" s="17"/>
     </row>
-    <row r="864" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E864" s="14"/>
       <c r="G864" s="17"/>
     </row>
-    <row r="865" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E865" s="14"/>
       <c r="G865" s="17"/>
     </row>
-    <row r="866" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E866" s="14"/>
       <c r="G866" s="17"/>
     </row>
-    <row r="867" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E867" s="14"/>
       <c r="G867" s="17"/>
     </row>
-    <row r="868" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E868" s="14"/>
       <c r="G868" s="17"/>
     </row>
-    <row r="869" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E869" s="14"/>
       <c r="G869" s="17"/>
     </row>
-    <row r="870" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E870" s="14"/>
       <c r="G870" s="17"/>
     </row>
-    <row r="871" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E871" s="14"/>
       <c r="G871" s="17"/>
     </row>
-    <row r="872" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E872" s="14"/>
       <c r="G872" s="17"/>
     </row>
-    <row r="873" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E873" s="14"/>
       <c r="G873" s="17"/>
     </row>
-    <row r="874" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E874" s="14"/>
       <c r="G874" s="17"/>
     </row>
-    <row r="875" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E875" s="14"/>
       <c r="G875" s="17"/>
     </row>
-    <row r="876" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E876" s="14"/>
       <c r="G876" s="17"/>
     </row>
-    <row r="877" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E877" s="14"/>
       <c r="G877" s="17"/>
     </row>
-    <row r="878" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E878" s="14"/>
       <c r="G878" s="17"/>
     </row>
-    <row r="879" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E879" s="14"/>
       <c r="G879" s="17"/>
     </row>
-    <row r="880" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E880" s="14"/>
       <c r="G880" s="17"/>
     </row>
-    <row r="881" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E881" s="14"/>
       <c r="G881" s="17"/>
     </row>
-    <row r="882" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E882" s="14"/>
       <c r="G882" s="17"/>
     </row>
-    <row r="883" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E883" s="14"/>
       <c r="G883" s="17"/>
     </row>
-    <row r="884" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E884" s="14"/>
       <c r="G884" s="17"/>
     </row>
-    <row r="885" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E885" s="14"/>
       <c r="G885" s="17"/>
     </row>
-    <row r="886" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E886" s="14"/>
       <c r="G886" s="17"/>
     </row>
-    <row r="887" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E887" s="14"/>
       <c r="G887" s="17"/>
     </row>
-    <row r="888" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E888" s="14"/>
       <c r="G888" s="17"/>
     </row>
-    <row r="889" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E889" s="14"/>
       <c r="G889" s="17"/>
     </row>
-    <row r="890" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E890" s="14"/>
       <c r="G890" s="17"/>
     </row>
-    <row r="891" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E891" s="14"/>
       <c r="G891" s="17"/>
     </row>
-    <row r="892" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E892" s="14"/>
       <c r="G892" s="17"/>
     </row>
-    <row r="893" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E893" s="14"/>
       <c r="G893" s="17"/>
     </row>
-    <row r="894" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E894" s="14"/>
       <c r="G894" s="17"/>
     </row>
-    <row r="895" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E895" s="14"/>
       <c r="G895" s="17"/>
     </row>
-    <row r="896" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E896" s="14"/>
       <c r="G896" s="17"/>
     </row>
-    <row r="897" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E897" s="14"/>
       <c r="G897" s="17"/>
     </row>
-    <row r="898" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E898" s="14"/>
       <c r="G898" s="17"/>
     </row>
-    <row r="899" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E899" s="14"/>
       <c r="G899" s="17"/>
     </row>
-    <row r="900" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E900" s="14"/>
       <c r="G900" s="17"/>
     </row>
-    <row r="901" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E901" s="14"/>
       <c r="G901" s="17"/>
     </row>
-    <row r="902" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E902" s="14"/>
       <c r="G902" s="17"/>
     </row>
-    <row r="903" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E903" s="14"/>
       <c r="G903" s="17"/>
     </row>
-    <row r="904" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E904" s="14"/>
       <c r="G904" s="17"/>
     </row>
-    <row r="905" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E905" s="14"/>
       <c r="G905" s="17"/>
     </row>
-    <row r="906" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E906" s="14"/>
       <c r="G906" s="17"/>
     </row>
-    <row r="907" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E907" s="14"/>
       <c r="G907" s="17"/>
     </row>
-    <row r="908" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E908" s="14"/>
       <c r="G908" s="17"/>
     </row>
-    <row r="909" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E909" s="14"/>
       <c r="G909" s="17"/>
     </row>
-    <row r="910" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E910" s="14"/>
       <c r="G910" s="17"/>
     </row>
-    <row r="911" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E911" s="14"/>
       <c r="G911" s="17"/>
     </row>
-    <row r="912" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E912" s="14"/>
       <c r="G912" s="17"/>
     </row>
-    <row r="913" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E913" s="14"/>
       <c r="G913" s="17"/>
     </row>
-    <row r="914" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E914" s="14"/>
       <c r="G914" s="17"/>
     </row>
-    <row r="915" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E915" s="14"/>
       <c r="G915" s="17"/>
     </row>
-    <row r="916" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E916" s="14"/>
       <c r="G916" s="17"/>
     </row>
-    <row r="917" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E917" s="14"/>
       <c r="G917" s="17"/>
     </row>
-    <row r="918" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E918" s="14"/>
       <c r="G918" s="17"/>
     </row>
-    <row r="919" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E919" s="14"/>
       <c r="G919" s="17"/>
     </row>
-    <row r="920" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E920" s="14"/>
       <c r="G920" s="17"/>
     </row>
-    <row r="921" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E921" s="14"/>
       <c r="G921" s="17"/>
     </row>
-    <row r="922" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E922" s="14"/>
       <c r="G922" s="17"/>
     </row>
-    <row r="923" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E923" s="14"/>
       <c r="G923" s="17"/>
     </row>
-    <row r="924" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E924" s="14"/>
       <c r="G924" s="17"/>
     </row>
-    <row r="925" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E925" s="14"/>
       <c r="G925" s="17"/>
     </row>
-    <row r="926" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E926" s="14"/>
       <c r="G926" s="17"/>
     </row>
-    <row r="927" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E927" s="14"/>
       <c r="G927" s="17"/>
     </row>
-    <row r="928" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E928" s="14"/>
       <c r="G928" s="17"/>
     </row>
-    <row r="929" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E929" s="14"/>
       <c r="G929" s="17"/>
     </row>
-    <row r="930" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E930" s="14"/>
       <c r="G930" s="17"/>
     </row>
-    <row r="931" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E931" s="14"/>
       <c r="G931" s="17"/>
     </row>
-    <row r="932" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E932" s="14"/>
       <c r="G932" s="17"/>
     </row>
-    <row r="933" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E933" s="14"/>
       <c r="G933" s="17"/>
     </row>
-    <row r="934" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E934" s="14"/>
       <c r="G934" s="17"/>
     </row>
-    <row r="935" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E935" s="14"/>
       <c r="G935" s="17"/>
     </row>
-    <row r="936" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E936" s="14"/>
       <c r="G936" s="17"/>
     </row>
-    <row r="937" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E937" s="14"/>
       <c r="G937" s="17"/>
     </row>
-    <row r="938" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E938" s="14"/>
       <c r="G938" s="17"/>
     </row>
-    <row r="939" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E939" s="14"/>
       <c r="G939" s="17"/>
     </row>
-    <row r="940" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E940" s="14"/>
       <c r="G940" s="17"/>
     </row>
-    <row r="941" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E941" s="14"/>
       <c r="G941" s="17"/>
     </row>
-    <row r="942" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E942" s="14"/>
       <c r="G942" s="17"/>
     </row>
-    <row r="943" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E943" s="14"/>
       <c r="G943" s="17"/>
     </row>
-    <row r="944" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E944" s="14"/>
       <c r="G944" s="17"/>
     </row>
-    <row r="945" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E945" s="14"/>
       <c r="G945" s="17"/>
     </row>
-    <row r="946" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E946" s="14"/>
       <c r="G946" s="17"/>
     </row>
-    <row r="947" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E947" s="14"/>
       <c r="G947" s="17"/>
     </row>
-    <row r="948" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E948" s="14"/>
       <c r="G948" s="17"/>
     </row>
-    <row r="949" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E949" s="14"/>
       <c r="G949" s="17"/>
     </row>
-    <row r="950" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E950" s="14"/>
       <c r="G950" s="17"/>
     </row>
-    <row r="951" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E951" s="14"/>
       <c r="G951" s="17"/>
     </row>
-    <row r="952" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E952" s="14"/>
       <c r="G952" s="17"/>
     </row>
-    <row r="953" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E953" s="14"/>
       <c r="G953" s="17"/>
     </row>
-    <row r="954" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E954" s="14"/>
       <c r="G954" s="17"/>
     </row>
-    <row r="955" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E955" s="14"/>
       <c r="G955" s="17"/>
     </row>
-    <row r="956" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E956" s="14"/>
       <c r="G956" s="17"/>
     </row>
-    <row r="957" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E957" s="14"/>
       <c r="G957" s="17"/>
     </row>
-    <row r="958" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E958" s="14"/>
       <c r="G958" s="17"/>
     </row>
-    <row r="959" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E959" s="14"/>
       <c r="G959" s="17"/>
     </row>
-    <row r="960" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E960" s="14"/>
       <c r="G960" s="17"/>
     </row>
-    <row r="961" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E961" s="14"/>
       <c r="G961" s="17"/>
     </row>
-    <row r="962" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E962" s="14"/>
       <c r="G962" s="17"/>
     </row>
-    <row r="963" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E963" s="14"/>
       <c r="G963" s="17"/>
     </row>
-    <row r="964" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E964" s="14"/>
       <c r="G964" s="17"/>
     </row>
-    <row r="965" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E965" s="14"/>
       <c r="G965" s="17"/>
     </row>
-    <row r="966" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E966" s="14"/>
       <c r="G966" s="17"/>
     </row>
-    <row r="967" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E967" s="14"/>
       <c r="G967" s="17"/>
     </row>
-    <row r="968" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E968" s="14"/>
       <c r="G968" s="17"/>
     </row>
-    <row r="969" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E969" s="14"/>
       <c r="G969" s="17"/>
     </row>
-    <row r="970" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E970" s="14"/>
       <c r="G970" s="17"/>
     </row>
-    <row r="971" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E971" s="14"/>
       <c r="G971" s="17"/>
     </row>
-    <row r="972" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E972" s="14"/>
       <c r="G972" s="17"/>
     </row>
-    <row r="973" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E973" s="14"/>
       <c r="G973" s="17"/>
     </row>
-    <row r="974" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E974" s="14"/>
       <c r="G974" s="17"/>
     </row>
-    <row r="975" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E975" s="14"/>
       <c r="G975" s="17"/>
     </row>
-    <row r="976" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E976" s="14"/>
       <c r="G976" s="17"/>
     </row>
-    <row r="977" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E977" s="14"/>
       <c r="G977" s="17"/>
     </row>
-    <row r="978" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E978" s="14"/>
       <c r="G978" s="17"/>
     </row>
-    <row r="979" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E979" s="14"/>
       <c r="G979" s="17"/>
     </row>
-    <row r="980" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E980" s="14"/>
       <c r="G980" s="17"/>
     </row>
-    <row r="981" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E981" s="14"/>
       <c r="G981" s="17"/>
     </row>
-    <row r="982" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E982" s="14"/>
       <c r="G982" s="17"/>
     </row>
-    <row r="983" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E983" s="14"/>
       <c r="G983" s="17"/>
     </row>
-    <row r="984" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E984" s="14"/>
       <c r="G984" s="17"/>
     </row>
-    <row r="985" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E985" s="14"/>
       <c r="G985" s="17"/>
     </row>
-    <row r="986" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E986" s="14"/>
       <c r="G986" s="17"/>
     </row>
-    <row r="987" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E987" s="14"/>
       <c r="G987" s="17"/>
     </row>
-    <row r="988" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E988" s="14"/>
       <c r="G988" s="17"/>
     </row>
-    <row r="989" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E989" s="14"/>
       <c r="G989" s="17"/>
     </row>
-    <row r="990" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E990" s="14"/>
       <c r="G990" s="17"/>
     </row>
-    <row r="991" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E991" s="14"/>
       <c r="G991" s="17"/>
     </row>
-    <row r="992" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E992" s="14"/>
       <c r="G992" s="17"/>
     </row>
-    <row r="993" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E993" s="14"/>
       <c r="G993" s="17"/>
     </row>
-    <row r="994" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E994" s="14"/>
       <c r="G994" s="17"/>
     </row>
-    <row r="995" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E995" s="14"/>
       <c r="G995" s="17"/>
     </row>
-    <row r="996" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E996" s="14"/>
       <c r="G996" s="17"/>
     </row>
-    <row r="997" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E997" s="14"/>
       <c r="G997" s="17"/>
     </row>
-    <row r="998" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E998" s="14"/>
       <c r="G998" s="17"/>
     </row>
-    <row r="999" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E999" s="14"/>
       <c r="G999" s="17"/>
     </row>
-    <row r="1000" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E1000" s="14"/>
       <c r="G1000" s="17"/>
     </row>
-    <row r="1001" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1001" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E1001" s="14"/>
       <c r="G1001" s="17"/>
     </row>
-    <row r="1002" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1002" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E1002" s="14"/>
       <c r="G1002" s="17"/>
     </row>
-    <row r="1003" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1003" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E1003" s="14"/>
       <c r="G1003" s="17"/>
     </row>
-    <row r="1004" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1004" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E1004" s="14"/>
       <c r="G1004" s="17"/>
     </row>
-    <row r="1005" spans="5:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1005" spans="5:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E1005" s="14"/>
       <c r="G1005" s="17"/>
     </row>

--- a/CP317 Time Tracking Sheet.xlsx
+++ b/CP317 Time Tracking Sheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roman/Documents/romanlipisiy/github/virtual-environment/UPOD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WillDetlor/GitHub/UPOD/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="337">
   <si>
     <t>Raw</t>
   </si>
@@ -1230,6 +1230,9 @@
   </si>
   <si>
     <t>07/01/16 - Migrated vapourware files to ruby on rails scaffolding</t>
+  </si>
+  <si>
+    <t>Organizing categories/sub-categories design, developing requirements document with results of discussions</t>
   </si>
 </sst>
 </file>
@@ -1352,11 +1355,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1689,8 +1692,8 @@
   <dimension ref="A1:I1005"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H151" sqref="H151"/>
+      <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1775,10 +1778,10 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> 17:38</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="23"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -1804,8 +1807,8 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> 18:03</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -4964,16 +4967,30 @@
         <v>335</v>
       </c>
       <c r="E151" s="14"/>
-      <c r="F151" s="24">
+      <c r="F151" s="22">
         <v>42552</v>
       </c>
       <c r="G151" s="17">
         <v>0.15625</v>
       </c>
     </row>
-    <row r="152" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:7" ht="26" x14ac:dyDescent="0.15">
+      <c r="B152" t="s">
+        <v>64</v>
+      </c>
+      <c r="C152" s="1">
+        <v>3</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>336</v>
+      </c>
       <c r="E152" s="14"/>
-      <c r="G152" s="17"/>
+      <c r="F152" s="22">
+        <v>42555</v>
+      </c>
+      <c r="G152" s="17">
+        <v>0.74305555555555547</v>
+      </c>
     </row>
     <row r="153" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="E153" s="14"/>

--- a/CP317 Time Tracking Sheet.xlsx
+++ b/CP317 Time Tracking Sheet.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roman/Documents/romanlipisiy/github/virtual-environment/UPOD/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12220"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Time Log" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Time Log'!$B$1:$G$150</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="338">
   <si>
     <t>Raw</t>
   </si>
@@ -1230,6 +1225,12 @@
   </si>
   <si>
     <t>07/01/16 - Migrated vapourware files to ruby on rails scaffolding</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Designed and started creating elastic collision diagram</t>
   </si>
 </sst>
 </file>
@@ -1352,11 +1353,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1678,7 +1679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1690,19 +1691,19 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H151" sqref="H151"/>
+      <selection pane="bottomLeft" activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" customWidth="1"/>
     <col min="4" max="4" width="67" style="21" customWidth="1"/>
-    <col min="5" max="5" width="28.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1751,7 +1752,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="52" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="50" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1775,12 +1776,12 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> 17:38</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1804,10 +1805,10 @@
         <f t="shared" si="1"/>
         <v xml:space="preserve"> 18:03</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1832,7 +1833,7 @@
         <v xml:space="preserve"> 22:14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1857,7 +1858,7 @@
         <v xml:space="preserve"> 11:16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v xml:space="preserve"> 12:19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v xml:space="preserve"> 15:25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1932,7 +1933,7 @@
         <v xml:space="preserve"> 00:21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v xml:space="preserve"> 14:22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="52" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="50" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v xml:space="preserve"> 15:44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v xml:space="preserve"> 15:49</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>48</v>
@@ -2026,7 +2027,7 @@
         <v>0.78680555555555554</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v xml:space="preserve"> 08:31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -2076,7 +2077,7 @@
         <v xml:space="preserve"> 18:07</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v xml:space="preserve"> 10:42</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2126,7 +2127,7 @@
         <v xml:space="preserve"> 10:43</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v xml:space="preserve"> 11:08</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v xml:space="preserve"> 20:28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v xml:space="preserve"> 20:30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v xml:space="preserve"> 20:30</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>78</v>
       </c>
@@ -2251,7 +2252,7 @@
         <v xml:space="preserve"> 18:00</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v xml:space="preserve"> 18:22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>84</v>
@@ -2299,7 +2300,7 @@
         <v xml:space="preserve"> 23:00</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>87</v>
       </c>
@@ -2324,7 +2325,7 @@
         <v xml:space="preserve"> 10:47</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>91</v>
       </c>
@@ -2349,7 +2350,7 @@
         <v xml:space="preserve"> 11:07</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>94</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v xml:space="preserve"> 22:31</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>98</v>
@@ -2393,7 +2394,7 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>98</v>
@@ -2412,7 +2413,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>101</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v xml:space="preserve"> 15:31</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>104</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v xml:space="preserve"> 17:48</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>107</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v xml:space="preserve"> 19:34</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>110</v>
       </c>
@@ -2512,7 +2513,7 @@
         <v xml:space="preserve"> 16:06</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v xml:space="preserve"> 16:06</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>113</v>
       </c>
@@ -2560,7 +2561,7 @@
         <v xml:space="preserve"> 16:39</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>117</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v xml:space="preserve"> 16:40</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>120</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v xml:space="preserve"> 16:41</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>123</v>
       </c>
@@ -2635,7 +2636,7 @@
         <v xml:space="preserve"> 16:42</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>126</v>
       </c>
@@ -2660,7 +2661,7 @@
         <v xml:space="preserve"> 17:55</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>130</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v xml:space="preserve"> 19:58</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>134</v>
       </c>
@@ -2710,7 +2711,7 @@
         <v xml:space="preserve"> 20:02</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>137</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v xml:space="preserve"> 00:24</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>141</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v xml:space="preserve"> 00:24</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>144</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v xml:space="preserve"> 01:18</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>147</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v xml:space="preserve"> 01:37</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>151</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v xml:space="preserve"> 01:39</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>147</v>
       </c>
@@ -2860,7 +2861,7 @@
         <v xml:space="preserve"> 01:42</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v xml:space="preserve"> 13:17</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>158</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v xml:space="preserve"> 16:31</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>161</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v xml:space="preserve"> 19:32</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>165</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v xml:space="preserve"> 20:47</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>48</v>
@@ -2979,7 +2980,7 @@
         <v>0.94652777777777775</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>84</v>
@@ -3002,7 +3003,7 @@
         <v xml:space="preserve"> 23:48</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>117</v>
       </c>
@@ -3027,7 +3028,7 @@
         <v xml:space="preserve"> 20:20</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>174</v>
       </c>
@@ -3052,7 +3053,7 @@
         <v xml:space="preserve"> 17:08</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>177</v>
       </c>
@@ -3077,7 +3078,7 @@
         <v xml:space="preserve"> 14:02</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>180</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v xml:space="preserve"> 19:29</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>107</v>
       </c>
@@ -3127,7 +3128,7 @@
         <v xml:space="preserve"> 01:32</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="52" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" ht="50" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>174</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v xml:space="preserve"> 01:34</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>188</v>
@@ -3171,7 +3172,7 @@
         <v>0.41388888888888886</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>190</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v xml:space="preserve"> 11:54</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>193</v>
       </c>
@@ -3221,7 +3222,7 @@
         <v xml:space="preserve"> 14:21</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>196</v>
       </c>
@@ -3246,7 +3247,7 @@
         <v xml:space="preserve"> 22:47</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>199</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v xml:space="preserve"> 03:52</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>202</v>
       </c>
@@ -3296,7 +3297,7 @@
         <v xml:space="preserve"> 11:23</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>205</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v xml:space="preserve"> 00:23</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>208</v>
       </c>
@@ -3346,7 +3347,7 @@
         <v xml:space="preserve"> 00:32</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>211</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v xml:space="preserve"> 00:33</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>71</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v xml:space="preserve"> 11:49</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
@@ -3421,7 +3422,7 @@
         <v xml:space="preserve"> 11:51</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>219</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v xml:space="preserve"> 20:18</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>222</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v xml:space="preserve"> 20:18</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>63</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v xml:space="preserve"> 20:19</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>63</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v xml:space="preserve"> 20:53</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>229</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v xml:space="preserve"> 23:59</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>232</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v xml:space="preserve"> 02:53</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>126</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v xml:space="preserve"> 11:22</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>237</v>
       </c>
@@ -3621,7 +3622,7 @@
         <v xml:space="preserve"> 12:39</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>241</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v xml:space="preserve"> 22:47</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1" t="s">
         <v>84</v>
@@ -3669,7 +3670,7 @@
         <v xml:space="preserve"> 22:50</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>246</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v xml:space="preserve"> 11:31</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
         <v>16</v>
@@ -3715,7 +3716,7 @@
         <v>0.48125000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>251</v>
       </c>
@@ -3740,7 +3741,7 @@
         <v xml:space="preserve"> 17:52</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>255</v>
       </c>
@@ -3765,7 +3766,7 @@
         <v xml:space="preserve"> 17:53</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>255</v>
       </c>
@@ -3790,7 +3791,7 @@
         <v xml:space="preserve"> 17:53</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>260</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v xml:space="preserve"> 17:53</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
         <v>188</v>
@@ -3834,7 +3835,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1" t="s">
         <v>188</v>
@@ -3853,7 +3854,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>265</v>
       </c>
@@ -3878,7 +3879,7 @@
         <v xml:space="preserve"> 18:53</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>188</v>
       </c>
@@ -3896,7 +3897,7 @@
         <v>0.59375</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>269</v>
       </c>
@@ -3914,7 +3915,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B92" s="1" t="s">
         <v>269</v>
       </c>
@@ -3932,7 +3933,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>269</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B94" s="1" t="s">
         <v>269</v>
       </c>
@@ -3968,7 +3969,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="B95" s="1" t="s">
         <v>188</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>0.60347222222222219</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B96" s="1" t="s">
         <v>275</v>
       </c>
@@ -4002,7 +4003,7 @@
       </c>
       <c r="G96" s="17"/>
     </row>
-    <row r="97" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>275</v>
       </c>
@@ -4018,7 +4019,7 @@
       </c>
       <c r="G97" s="17"/>
     </row>
-    <row r="98" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
         <v>275</v>
       </c>
@@ -4034,7 +4035,7 @@
       </c>
       <c r="G98" s="17"/>
     </row>
-    <row r="99" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B99" s="1" t="s">
         <v>48</v>
       </c>
@@ -4052,7 +4053,7 @@
         <v>0.76249999999999996</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B100" s="1" t="s">
         <v>48</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>0.7631944444444444</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:7" ht="25" x14ac:dyDescent="0.25">
       <c r="B101" s="1" t="s">
         <v>188</v>
       </c>
@@ -4088,7 +4089,7 @@
         <v>0.92361111111111116</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
         <v>51</v>
       </c>
@@ -4104,7 +4105,7 @@
       </c>
       <c r="G102" s="17"/>
     </row>
-    <row r="103" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B103" s="1" t="s">
         <v>98</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>0.71875</v>
       </c>
     </row>
-    <row r="104" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>24</v>
       </c>
@@ -4140,7 +4141,7 @@
         <v>0.81180555555555556</v>
       </c>
     </row>
-    <row r="105" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
         <v>24</v>
       </c>
@@ -4158,7 +4159,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B106" s="1" t="s">
         <v>252</v>
       </c>
@@ -4176,7 +4177,7 @@
         <v>0.69166666666666665</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B107" s="1" t="s">
         <v>131</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="108" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B108" s="1" t="s">
         <v>131</v>
       </c>
@@ -4210,7 +4211,7 @@
       </c>
       <c r="G108" s="17"/>
     </row>
-    <row r="109" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B109" s="1" t="s">
         <v>131</v>
       </c>
@@ -4226,7 +4227,7 @@
       </c>
       <c r="G109" s="17"/>
     </row>
-    <row r="110" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B110" s="1" t="s">
         <v>131</v>
       </c>
@@ -4244,7 +4245,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="111" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>48</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>0.91319444444444442</v>
       </c>
     </row>
-    <row r="112" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>292</v>
       </c>
@@ -4280,7 +4281,7 @@
         <v>0.50069444444444444</v>
       </c>
     </row>
-    <row r="113" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>131</v>
       </c>
@@ -4298,7 +4299,7 @@
         <v>0.55833333333333335</v>
       </c>
     </row>
-    <row r="114" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>98</v>
       </c>
@@ -4316,7 +4317,7 @@
         <v>0.96805555555555556</v>
       </c>
     </row>
-    <row r="115" spans="2:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B115" s="1" t="s">
         <v>181</v>
       </c>
@@ -4334,7 +4335,7 @@
         <v>0.76111111111111107</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="1" t="s">
         <v>131</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>0.84097222222222223</v>
       </c>
     </row>
-    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>16</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>0.87916666666666665</v>
       </c>
     </row>
-    <row r="118" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>299</v>
       </c>
@@ -4388,7 +4389,7 @@
         <v>0.92847222222222225</v>
       </c>
     </row>
-    <row r="119" spans="2:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>181</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="120" spans="2:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:7" ht="25" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>181</v>
       </c>
@@ -4424,7 +4425,7 @@
         <v>0.99652777777777779</v>
       </c>
     </row>
-    <row r="121" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B121" s="1" t="s">
         <v>188</v>
       </c>
@@ -4442,7 +4443,7 @@
         <v>0.58888888888888891</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B122" s="1" t="s">
         <v>131</v>
       </c>
@@ -4460,7 +4461,7 @@
         <v>0.70277777777777772</v>
       </c>
     </row>
-    <row r="123" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
         <v>98</v>
       </c>
@@ -4478,7 +4479,7 @@
         <v>0.70208333333333328</v>
       </c>
     </row>
-    <row r="124" spans="2:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:7" ht="25" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
         <v>306</v>
       </c>
@@ -4494,7 +4495,7 @@
       </c>
       <c r="G124" s="17"/>
     </row>
-    <row r="125" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>306</v>
       </c>
@@ -4510,7 +4511,7 @@
       </c>
       <c r="G125" s="17"/>
     </row>
-    <row r="126" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:7" ht="25" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
         <v>306</v>
       </c>
@@ -4526,7 +4527,7 @@
       </c>
       <c r="G126" s="17"/>
     </row>
-    <row r="127" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
         <v>306</v>
       </c>
@@ -4542,7 +4543,7 @@
       </c>
       <c r="G127" s="17"/>
     </row>
-    <row r="128" spans="2:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:7" ht="25" x14ac:dyDescent="0.25">
       <c r="B128" s="1" t="s">
         <v>306</v>
       </c>
@@ -4560,7 +4561,7 @@
         <v>0.85555555555555551</v>
       </c>
     </row>
-    <row r="129" spans="2:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:7" ht="25" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
         <v>306</v>
       </c>
@@ -4578,7 +4579,7 @@
         <v>0.85555555555555551</v>
       </c>
     </row>
-    <row r="130" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
         <v>24</v>
       </c>
@@ -4596,7 +4597,7 @@
         <v>0.95625000000000004</v>
       </c>
     </row>
-    <row r="131" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B131" s="1" t="s">
         <v>212</v>
       </c>
@@ -4614,7 +4615,7 @@
         <v>0.98402777777777772</v>
       </c>
     </row>
-    <row r="132" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
         <v>315</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>0.23958333333333334</v>
       </c>
     </row>
-    <row r="133" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
         <v>275</v>
       </c>
@@ -4648,7 +4649,7 @@
       </c>
       <c r="G133" s="17"/>
     </row>
-    <row r="134" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
         <v>275</v>
       </c>
@@ -4664,7 +4665,7 @@
       </c>
       <c r="G134" s="17"/>
     </row>
-    <row r="135" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
         <v>319</v>
       </c>
@@ -4680,7 +4681,7 @@
       </c>
       <c r="G135" s="17"/>
     </row>
-    <row r="136" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
         <v>114</v>
       </c>
@@ -4698,7 +4699,7 @@
         <v>0.67847222222222225</v>
       </c>
     </row>
-    <row r="137" spans="2:7" ht="39" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
         <v>114</v>
       </c>
@@ -4716,7 +4717,7 @@
         <v>0.68055555555555558</v>
       </c>
     </row>
-    <row r="138" spans="2:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:7" ht="25" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
         <v>114</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>0.68263888888888891</v>
       </c>
     </row>
-    <row r="139" spans="2:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:7" ht="25" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
         <v>162</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>0.7368055555555556</v>
       </c>
     </row>
-    <row r="140" spans="2:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:7" ht="25" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
         <v>162</v>
       </c>
@@ -4770,7 +4771,7 @@
         <v>0.73819444444444449</v>
       </c>
     </row>
-    <row r="141" spans="2:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:7" ht="25" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
         <v>68</v>
       </c>
@@ -4791,7 +4792,7 @@
         <v xml:space="preserve"> 20:28</v>
       </c>
     </row>
-    <row r="142" spans="2:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:7" ht="25" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
         <v>72</v>
       </c>
@@ -4809,7 +4810,7 @@
         <v>0.81874999999999998</v>
       </c>
     </row>
-    <row r="143" spans="2:7" ht="65" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:7" ht="62.5" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
         <v>162</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>0.88541666666666663</v>
       </c>
     </row>
-    <row r="144" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
         <v>24</v>
       </c>
@@ -4845,7 +4846,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="145" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
         <v>24</v>
       </c>
@@ -4863,7 +4864,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="146" spans="2:7" ht="26" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:8" ht="25" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>32</v>
       </c>
@@ -4881,7 +4882,7 @@
         <v>0.97916666666666663</v>
       </c>
     </row>
-    <row r="147" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>32</v>
       </c>
@@ -4899,7 +4900,7 @@
         <v>1.0208333333333299</v>
       </c>
     </row>
-    <row r="148" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>32</v>
       </c>
@@ -4917,7 +4918,7 @@
         <v>1.0625</v>
       </c>
     </row>
-    <row r="149" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>32</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>1.1041666666666701</v>
       </c>
     </row>
-    <row r="150" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:8" ht="25" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>32</v>
       </c>
@@ -4953,7 +4954,7 @@
         <v>1.1458333333333299</v>
       </c>
     </row>
-    <row r="151" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>127</v>
       </c>
@@ -4964,3426 +4965,3443 @@
         <v>335</v>
       </c>
       <c r="E151" s="14"/>
-      <c r="F151" s="24">
+      <c r="F151" s="22">
         <v>42552</v>
       </c>
       <c r="G151" s="17">
         <v>0.15625</v>
       </c>
-    </row>
-    <row r="152" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="H151" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>76</v>
+      </c>
+      <c r="C152" s="1">
+        <v>4</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>337</v>
+      </c>
       <c r="E152" s="14"/>
-      <c r="G152" s="17"/>
-    </row>
-    <row r="153" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="F152" s="22">
+        <v>42556</v>
+      </c>
+      <c r="G152" s="17">
+        <v>0.37708333333333338</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E153" s="14"/>
       <c r="G153" s="17"/>
     </row>
-    <row r="154" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E154" s="14"/>
       <c r="G154" s="17"/>
     </row>
-    <row r="155" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E155" s="14"/>
       <c r="G155" s="17"/>
     </row>
-    <row r="156" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E156" s="14"/>
       <c r="G156" s="17"/>
     </row>
-    <row r="157" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E157" s="14"/>
       <c r="G157" s="17"/>
     </row>
-    <row r="158" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E158" s="14"/>
       <c r="G158" s="17"/>
     </row>
-    <row r="159" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E159" s="14"/>
       <c r="G159" s="17"/>
     </row>
-    <row r="160" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E160" s="14"/>
       <c r="G160" s="17"/>
     </row>
-    <row r="161" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="161" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E161" s="14"/>
       <c r="G161" s="17"/>
     </row>
-    <row r="162" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="162" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E162" s="14"/>
       <c r="G162" s="17"/>
     </row>
-    <row r="163" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="163" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E163" s="14"/>
       <c r="G163" s="17"/>
     </row>
-    <row r="164" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="164" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E164" s="14"/>
       <c r="G164" s="17"/>
     </row>
-    <row r="165" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="165" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E165" s="14"/>
       <c r="G165" s="17"/>
     </row>
-    <row r="166" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="166" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E166" s="14"/>
       <c r="G166" s="17"/>
     </row>
-    <row r="167" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="167" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E167" s="14"/>
       <c r="G167" s="17"/>
     </row>
-    <row r="168" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="168" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E168" s="14"/>
       <c r="G168" s="17"/>
     </row>
-    <row r="169" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="169" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E169" s="14"/>
       <c r="G169" s="17"/>
     </row>
-    <row r="170" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="170" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E170" s="14"/>
       <c r="G170" s="17"/>
     </row>
-    <row r="171" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="171" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E171" s="14"/>
       <c r="G171" s="17"/>
     </row>
-    <row r="172" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="172" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E172" s="14"/>
       <c r="G172" s="17"/>
     </row>
-    <row r="173" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="173" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E173" s="14"/>
       <c r="G173" s="17"/>
     </row>
-    <row r="174" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="174" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E174" s="14"/>
       <c r="G174" s="17"/>
     </row>
-    <row r="175" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="175" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E175" s="14"/>
       <c r="G175" s="17"/>
     </row>
-    <row r="176" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="176" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E176" s="14"/>
       <c r="G176" s="17"/>
     </row>
-    <row r="177" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="177" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E177" s="14"/>
       <c r="G177" s="17"/>
     </row>
-    <row r="178" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="178" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E178" s="14"/>
       <c r="G178" s="17"/>
     </row>
-    <row r="179" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="179" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E179" s="14"/>
       <c r="G179" s="17"/>
     </row>
-    <row r="180" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="180" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E180" s="14"/>
       <c r="G180" s="17"/>
     </row>
-    <row r="181" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="181" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E181" s="14"/>
       <c r="G181" s="17"/>
     </row>
-    <row r="182" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="182" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E182" s="14"/>
       <c r="G182" s="17"/>
     </row>
-    <row r="183" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="183" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E183" s="14"/>
       <c r="G183" s="17"/>
     </row>
-    <row r="184" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="184" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E184" s="14"/>
       <c r="G184" s="17"/>
     </row>
-    <row r="185" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="185" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E185" s="14"/>
       <c r="G185" s="17"/>
     </row>
-    <row r="186" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="186" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E186" s="14"/>
       <c r="G186" s="17"/>
     </row>
-    <row r="187" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="187" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E187" s="14"/>
       <c r="G187" s="17"/>
     </row>
-    <row r="188" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="188" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E188" s="14"/>
       <c r="G188" s="17"/>
     </row>
-    <row r="189" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="189" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E189" s="14"/>
       <c r="G189" s="17"/>
     </row>
-    <row r="190" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="190" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E190" s="14"/>
       <c r="G190" s="17"/>
     </row>
-    <row r="191" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="191" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E191" s="14"/>
       <c r="G191" s="17"/>
     </row>
-    <row r="192" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="192" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E192" s="14"/>
       <c r="G192" s="17"/>
     </row>
-    <row r="193" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="193" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E193" s="14"/>
       <c r="G193" s="17"/>
     </row>
-    <row r="194" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="194" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E194" s="14"/>
       <c r="G194" s="17"/>
     </row>
-    <row r="195" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="195" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E195" s="14"/>
       <c r="G195" s="17"/>
     </row>
-    <row r="196" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="196" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E196" s="14"/>
       <c r="G196" s="17"/>
     </row>
-    <row r="197" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="197" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E197" s="14"/>
       <c r="G197" s="17"/>
     </row>
-    <row r="198" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="198" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E198" s="14"/>
       <c r="G198" s="17"/>
     </row>
-    <row r="199" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="199" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E199" s="14"/>
       <c r="G199" s="17"/>
     </row>
-    <row r="200" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="200" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E200" s="14"/>
       <c r="G200" s="17"/>
     </row>
-    <row r="201" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="201" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E201" s="14"/>
       <c r="G201" s="17"/>
     </row>
-    <row r="202" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="202" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E202" s="14"/>
       <c r="G202" s="17"/>
     </row>
-    <row r="203" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="203" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E203" s="14"/>
       <c r="G203" s="17"/>
     </row>
-    <row r="204" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="204" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E204" s="14"/>
       <c r="G204" s="17"/>
     </row>
-    <row r="205" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="205" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E205" s="14"/>
       <c r="G205" s="17"/>
     </row>
-    <row r="206" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="206" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E206" s="14"/>
       <c r="G206" s="17"/>
     </row>
-    <row r="207" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="207" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E207" s="14"/>
       <c r="G207" s="17"/>
     </row>
-    <row r="208" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="208" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E208" s="14"/>
       <c r="G208" s="17"/>
     </row>
-    <row r="209" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="209" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E209" s="14"/>
       <c r="G209" s="17"/>
     </row>
-    <row r="210" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="210" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E210" s="14"/>
       <c r="G210" s="17"/>
     </row>
-    <row r="211" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="211" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E211" s="14"/>
       <c r="G211" s="17"/>
     </row>
-    <row r="212" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="212" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E212" s="14"/>
       <c r="G212" s="17"/>
     </row>
-    <row r="213" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="213" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E213" s="14"/>
       <c r="G213" s="17"/>
     </row>
-    <row r="214" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="214" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E214" s="14"/>
       <c r="G214" s="17"/>
     </row>
-    <row r="215" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="215" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E215" s="14"/>
       <c r="G215" s="17"/>
     </row>
-    <row r="216" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="216" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E216" s="14"/>
       <c r="G216" s="17"/>
     </row>
-    <row r="217" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="217" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E217" s="14"/>
       <c r="G217" s="17"/>
     </row>
-    <row r="218" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="218" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E218" s="14"/>
       <c r="G218" s="17"/>
     </row>
-    <row r="219" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="219" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E219" s="14"/>
       <c r="G219" s="17"/>
     </row>
-    <row r="220" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="220" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E220" s="14"/>
       <c r="G220" s="17"/>
     </row>
-    <row r="221" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="221" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E221" s="14"/>
       <c r="G221" s="17"/>
     </row>
-    <row r="222" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="222" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E222" s="14"/>
       <c r="G222" s="17"/>
     </row>
-    <row r="223" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="223" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E223" s="14"/>
       <c r="G223" s="17"/>
     </row>
-    <row r="224" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="224" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E224" s="14"/>
       <c r="G224" s="17"/>
     </row>
-    <row r="225" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="225" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E225" s="14"/>
       <c r="G225" s="17"/>
     </row>
-    <row r="226" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="226" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E226" s="14"/>
       <c r="G226" s="17"/>
     </row>
-    <row r="227" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="227" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E227" s="14"/>
       <c r="G227" s="17"/>
     </row>
-    <row r="228" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="228" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E228" s="14"/>
       <c r="G228" s="17"/>
     </row>
-    <row r="229" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="229" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E229" s="14"/>
       <c r="G229" s="17"/>
     </row>
-    <row r="230" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="230" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E230" s="14"/>
       <c r="G230" s="17"/>
     </row>
-    <row r="231" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="231" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E231" s="14"/>
       <c r="G231" s="17"/>
     </row>
-    <row r="232" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="232" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E232" s="14"/>
       <c r="G232" s="17"/>
     </row>
-    <row r="233" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="233" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E233" s="14"/>
       <c r="G233" s="17"/>
     </row>
-    <row r="234" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="234" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E234" s="14"/>
       <c r="G234" s="17"/>
     </row>
-    <row r="235" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="235" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E235" s="14"/>
       <c r="G235" s="17"/>
     </row>
-    <row r="236" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="236" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E236" s="14"/>
       <c r="G236" s="17"/>
     </row>
-    <row r="237" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="237" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E237" s="14"/>
       <c r="G237" s="17"/>
     </row>
-    <row r="238" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="238" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E238" s="14"/>
       <c r="G238" s="17"/>
     </row>
-    <row r="239" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="239" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E239" s="14"/>
       <c r="G239" s="17"/>
     </row>
-    <row r="240" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="240" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E240" s="14"/>
       <c r="G240" s="17"/>
     </row>
-    <row r="241" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="241" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E241" s="14"/>
       <c r="G241" s="17"/>
     </row>
-    <row r="242" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="242" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E242" s="14"/>
       <c r="G242" s="17"/>
     </row>
-    <row r="243" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="243" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E243" s="14"/>
       <c r="G243" s="17"/>
     </row>
-    <row r="244" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="244" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E244" s="14"/>
       <c r="G244" s="17"/>
     </row>
-    <row r="245" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="245" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E245" s="14"/>
       <c r="G245" s="17"/>
     </row>
-    <row r="246" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="246" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E246" s="14"/>
       <c r="G246" s="17"/>
     </row>
-    <row r="247" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="247" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E247" s="14"/>
       <c r="G247" s="17"/>
     </row>
-    <row r="248" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="248" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E248" s="14"/>
       <c r="G248" s="17"/>
     </row>
-    <row r="249" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="249" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E249" s="14"/>
       <c r="G249" s="17"/>
     </row>
-    <row r="250" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="250" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E250" s="14"/>
       <c r="G250" s="17"/>
     </row>
-    <row r="251" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="251" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E251" s="14"/>
       <c r="G251" s="17"/>
     </row>
-    <row r="252" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="252" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E252" s="14"/>
       <c r="G252" s="17"/>
     </row>
-    <row r="253" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="253" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E253" s="14"/>
       <c r="G253" s="17"/>
     </row>
-    <row r="254" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="254" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E254" s="14"/>
       <c r="G254" s="17"/>
     </row>
-    <row r="255" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="255" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E255" s="14"/>
       <c r="G255" s="17"/>
     </row>
-    <row r="256" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="256" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E256" s="14"/>
       <c r="G256" s="17"/>
     </row>
-    <row r="257" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="257" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E257" s="14"/>
       <c r="G257" s="17"/>
     </row>
-    <row r="258" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="258" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E258" s="14"/>
       <c r="G258" s="17"/>
     </row>
-    <row r="259" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="259" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E259" s="14"/>
       <c r="G259" s="17"/>
     </row>
-    <row r="260" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="260" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E260" s="14"/>
       <c r="G260" s="17"/>
     </row>
-    <row r="261" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="261" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E261" s="14"/>
       <c r="G261" s="17"/>
     </row>
-    <row r="262" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="262" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E262" s="14"/>
       <c r="G262" s="17"/>
     </row>
-    <row r="263" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="263" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E263" s="14"/>
       <c r="G263" s="17"/>
     </row>
-    <row r="264" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="264" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E264" s="14"/>
       <c r="G264" s="17"/>
     </row>
-    <row r="265" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="265" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E265" s="14"/>
       <c r="G265" s="17"/>
     </row>
-    <row r="266" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="266" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E266" s="14"/>
       <c r="G266" s="17"/>
     </row>
-    <row r="267" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="267" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E267" s="14"/>
       <c r="G267" s="17"/>
     </row>
-    <row r="268" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="268" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E268" s="14"/>
       <c r="G268" s="17"/>
     </row>
-    <row r="269" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="269" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E269" s="14"/>
       <c r="G269" s="17"/>
     </row>
-    <row r="270" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="270" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E270" s="14"/>
       <c r="G270" s="17"/>
     </row>
-    <row r="271" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="271" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E271" s="14"/>
       <c r="G271" s="17"/>
     </row>
-    <row r="272" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="272" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E272" s="14"/>
       <c r="G272" s="17"/>
     </row>
-    <row r="273" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="273" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E273" s="14"/>
       <c r="G273" s="17"/>
     </row>
-    <row r="274" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="274" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E274" s="14"/>
       <c r="G274" s="17"/>
     </row>
-    <row r="275" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="275" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E275" s="14"/>
       <c r="G275" s="17"/>
     </row>
-    <row r="276" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="276" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E276" s="14"/>
       <c r="G276" s="17"/>
     </row>
-    <row r="277" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="277" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E277" s="14"/>
       <c r="G277" s="17"/>
     </row>
-    <row r="278" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="278" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E278" s="14"/>
       <c r="G278" s="17"/>
     </row>
-    <row r="279" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="279" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E279" s="14"/>
       <c r="G279" s="17"/>
     </row>
-    <row r="280" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="280" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E280" s="14"/>
       <c r="G280" s="17"/>
     </row>
-    <row r="281" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="281" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E281" s="14"/>
       <c r="G281" s="17"/>
     </row>
-    <row r="282" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="282" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E282" s="14"/>
       <c r="G282" s="17"/>
     </row>
-    <row r="283" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="283" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E283" s="14"/>
       <c r="G283" s="17"/>
     </row>
-    <row r="284" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="284" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E284" s="14"/>
       <c r="G284" s="17"/>
     </row>
-    <row r="285" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="285" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E285" s="14"/>
       <c r="G285" s="17"/>
     </row>
-    <row r="286" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="286" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E286" s="14"/>
       <c r="G286" s="17"/>
     </row>
-    <row r="287" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="287" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E287" s="14"/>
       <c r="G287" s="17"/>
     </row>
-    <row r="288" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="288" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E288" s="14"/>
       <c r="G288" s="17"/>
     </row>
-    <row r="289" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="289" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E289" s="14"/>
       <c r="G289" s="17"/>
     </row>
-    <row r="290" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="290" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E290" s="14"/>
       <c r="G290" s="17"/>
     </row>
-    <row r="291" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="291" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E291" s="14"/>
       <c r="G291" s="17"/>
     </row>
-    <row r="292" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="292" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E292" s="14"/>
       <c r="G292" s="17"/>
     </row>
-    <row r="293" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="293" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E293" s="14"/>
       <c r="G293" s="17"/>
     </row>
-    <row r="294" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="294" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E294" s="14"/>
       <c r="G294" s="17"/>
     </row>
-    <row r="295" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="295" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E295" s="14"/>
       <c r="G295" s="17"/>
     </row>
-    <row r="296" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="296" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E296" s="14"/>
       <c r="G296" s="17"/>
     </row>
-    <row r="297" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="297" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E297" s="14"/>
       <c r="G297" s="17"/>
     </row>
-    <row r="298" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="298" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E298" s="14"/>
       <c r="G298" s="17"/>
     </row>
-    <row r="299" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="299" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E299" s="14"/>
       <c r="G299" s="17"/>
     </row>
-    <row r="300" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="300" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E300" s="14"/>
       <c r="G300" s="17"/>
     </row>
-    <row r="301" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="301" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E301" s="14"/>
       <c r="G301" s="17"/>
     </row>
-    <row r="302" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="302" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E302" s="14"/>
       <c r="G302" s="17"/>
     </row>
-    <row r="303" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="303" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E303" s="14"/>
       <c r="G303" s="17"/>
     </row>
-    <row r="304" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="304" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E304" s="14"/>
       <c r="G304" s="17"/>
     </row>
-    <row r="305" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="305" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E305" s="14"/>
       <c r="G305" s="17"/>
     </row>
-    <row r="306" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="306" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E306" s="14"/>
       <c r="G306" s="17"/>
     </row>
-    <row r="307" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="307" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E307" s="14"/>
       <c r="G307" s="17"/>
     </row>
-    <row r="308" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="308" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E308" s="14"/>
       <c r="G308" s="17"/>
     </row>
-    <row r="309" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="309" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E309" s="14"/>
       <c r="G309" s="17"/>
     </row>
-    <row r="310" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="310" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E310" s="14"/>
       <c r="G310" s="17"/>
     </row>
-    <row r="311" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="311" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E311" s="14"/>
       <c r="G311" s="17"/>
     </row>
-    <row r="312" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="312" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E312" s="14"/>
       <c r="G312" s="17"/>
     </row>
-    <row r="313" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="313" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E313" s="14"/>
       <c r="G313" s="17"/>
     </row>
-    <row r="314" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="314" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E314" s="14"/>
       <c r="G314" s="17"/>
     </row>
-    <row r="315" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="315" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E315" s="14"/>
       <c r="G315" s="17"/>
     </row>
-    <row r="316" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="316" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E316" s="14"/>
       <c r="G316" s="17"/>
     </row>
-    <row r="317" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="317" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E317" s="14"/>
       <c r="G317" s="17"/>
     </row>
-    <row r="318" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="318" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E318" s="14"/>
       <c r="G318" s="17"/>
     </row>
-    <row r="319" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="319" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E319" s="14"/>
       <c r="G319" s="17"/>
     </row>
-    <row r="320" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="320" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E320" s="14"/>
       <c r="G320" s="17"/>
     </row>
-    <row r="321" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="321" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E321" s="14"/>
       <c r="G321" s="17"/>
     </row>
-    <row r="322" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="322" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E322" s="14"/>
       <c r="G322" s="17"/>
     </row>
-    <row r="323" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="323" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E323" s="14"/>
       <c r="G323" s="17"/>
     </row>
-    <row r="324" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="324" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E324" s="14"/>
       <c r="G324" s="17"/>
     </row>
-    <row r="325" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="325" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E325" s="14"/>
       <c r="G325" s="17"/>
     </row>
-    <row r="326" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="326" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E326" s="14"/>
       <c r="G326" s="17"/>
     </row>
-    <row r="327" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="327" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E327" s="14"/>
       <c r="G327" s="17"/>
     </row>
-    <row r="328" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="328" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E328" s="14"/>
       <c r="G328" s="17"/>
     </row>
-    <row r="329" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="329" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E329" s="14"/>
       <c r="G329" s="17"/>
     </row>
-    <row r="330" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="330" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E330" s="14"/>
       <c r="G330" s="17"/>
     </row>
-    <row r="331" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="331" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E331" s="14"/>
       <c r="G331" s="17"/>
     </row>
-    <row r="332" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="332" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E332" s="14"/>
       <c r="G332" s="17"/>
     </row>
-    <row r="333" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="333" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E333" s="14"/>
       <c r="G333" s="17"/>
     </row>
-    <row r="334" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="334" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E334" s="14"/>
       <c r="G334" s="17"/>
     </row>
-    <row r="335" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="335" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E335" s="14"/>
       <c r="G335" s="17"/>
     </row>
-    <row r="336" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="336" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E336" s="14"/>
       <c r="G336" s="17"/>
     </row>
-    <row r="337" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="337" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E337" s="14"/>
       <c r="G337" s="17"/>
     </row>
-    <row r="338" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="338" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E338" s="14"/>
       <c r="G338" s="17"/>
     </row>
-    <row r="339" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="339" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E339" s="14"/>
       <c r="G339" s="17"/>
     </row>
-    <row r="340" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="340" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E340" s="14"/>
       <c r="G340" s="17"/>
     </row>
-    <row r="341" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="341" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E341" s="14"/>
       <c r="G341" s="17"/>
     </row>
-    <row r="342" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="342" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E342" s="14"/>
       <c r="G342" s="17"/>
     </row>
-    <row r="343" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="343" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E343" s="14"/>
       <c r="G343" s="17"/>
     </row>
-    <row r="344" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="344" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E344" s="14"/>
       <c r="G344" s="17"/>
     </row>
-    <row r="345" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="345" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E345" s="14"/>
       <c r="G345" s="17"/>
     </row>
-    <row r="346" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="346" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E346" s="14"/>
       <c r="G346" s="17"/>
     </row>
-    <row r="347" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="347" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E347" s="14"/>
       <c r="G347" s="17"/>
     </row>
-    <row r="348" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="348" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E348" s="14"/>
       <c r="G348" s="17"/>
     </row>
-    <row r="349" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="349" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E349" s="14"/>
       <c r="G349" s="17"/>
     </row>
-    <row r="350" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="350" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E350" s="14"/>
       <c r="G350" s="17"/>
     </row>
-    <row r="351" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="351" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E351" s="14"/>
       <c r="G351" s="17"/>
     </row>
-    <row r="352" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="352" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E352" s="14"/>
       <c r="G352" s="17"/>
     </row>
-    <row r="353" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="353" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E353" s="14"/>
       <c r="G353" s="17"/>
     </row>
-    <row r="354" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="354" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E354" s="14"/>
       <c r="G354" s="17"/>
     </row>
-    <row r="355" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="355" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E355" s="14"/>
       <c r="G355" s="17"/>
     </row>
-    <row r="356" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="356" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E356" s="14"/>
       <c r="G356" s="17"/>
     </row>
-    <row r="357" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="357" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E357" s="14"/>
       <c r="G357" s="17"/>
     </row>
-    <row r="358" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="358" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E358" s="14"/>
       <c r="G358" s="17"/>
     </row>
-    <row r="359" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="359" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E359" s="14"/>
       <c r="G359" s="17"/>
     </row>
-    <row r="360" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="360" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E360" s="14"/>
       <c r="G360" s="17"/>
     </row>
-    <row r="361" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="361" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E361" s="14"/>
       <c r="G361" s="17"/>
     </row>
-    <row r="362" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="362" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E362" s="14"/>
       <c r="G362" s="17"/>
     </row>
-    <row r="363" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="363" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E363" s="14"/>
       <c r="G363" s="17"/>
     </row>
-    <row r="364" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="364" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E364" s="14"/>
       <c r="G364" s="17"/>
     </row>
-    <row r="365" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="365" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E365" s="14"/>
       <c r="G365" s="17"/>
     </row>
-    <row r="366" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="366" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E366" s="14"/>
       <c r="G366" s="17"/>
     </row>
-    <row r="367" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="367" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E367" s="14"/>
       <c r="G367" s="17"/>
     </row>
-    <row r="368" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="368" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E368" s="14"/>
       <c r="G368" s="17"/>
     </row>
-    <row r="369" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="369" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E369" s="14"/>
       <c r="G369" s="17"/>
     </row>
-    <row r="370" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="370" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E370" s="14"/>
       <c r="G370" s="17"/>
     </row>
-    <row r="371" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="371" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E371" s="14"/>
       <c r="G371" s="17"/>
     </row>
-    <row r="372" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="372" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E372" s="14"/>
       <c r="G372" s="17"/>
     </row>
-    <row r="373" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="373" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E373" s="14"/>
       <c r="G373" s="17"/>
     </row>
-    <row r="374" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="374" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E374" s="14"/>
       <c r="G374" s="17"/>
     </row>
-    <row r="375" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="375" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E375" s="14"/>
       <c r="G375" s="17"/>
     </row>
-    <row r="376" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="376" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E376" s="14"/>
       <c r="G376" s="17"/>
     </row>
-    <row r="377" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="377" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E377" s="14"/>
       <c r="G377" s="17"/>
     </row>
-    <row r="378" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="378" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E378" s="14"/>
       <c r="G378" s="17"/>
     </row>
-    <row r="379" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="379" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E379" s="14"/>
       <c r="G379" s="17"/>
     </row>
-    <row r="380" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="380" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E380" s="14"/>
       <c r="G380" s="17"/>
     </row>
-    <row r="381" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="381" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E381" s="14"/>
       <c r="G381" s="17"/>
     </row>
-    <row r="382" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="382" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E382" s="14"/>
       <c r="G382" s="17"/>
     </row>
-    <row r="383" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="383" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E383" s="14"/>
       <c r="G383" s="17"/>
     </row>
-    <row r="384" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="384" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E384" s="14"/>
       <c r="G384" s="17"/>
     </row>
-    <row r="385" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="385" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E385" s="14"/>
       <c r="G385" s="17"/>
     </row>
-    <row r="386" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="386" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E386" s="14"/>
       <c r="G386" s="17"/>
     </row>
-    <row r="387" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="387" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E387" s="14"/>
       <c r="G387" s="17"/>
     </row>
-    <row r="388" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="388" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E388" s="14"/>
       <c r="G388" s="17"/>
     </row>
-    <row r="389" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="389" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E389" s="14"/>
       <c r="G389" s="17"/>
     </row>
-    <row r="390" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="390" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E390" s="14"/>
       <c r="G390" s="17"/>
     </row>
-    <row r="391" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="391" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E391" s="14"/>
       <c r="G391" s="17"/>
     </row>
-    <row r="392" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="392" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E392" s="14"/>
       <c r="G392" s="17"/>
     </row>
-    <row r="393" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="393" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E393" s="14"/>
       <c r="G393" s="17"/>
     </row>
-    <row r="394" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="394" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E394" s="14"/>
       <c r="G394" s="17"/>
     </row>
-    <row r="395" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="395" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E395" s="14"/>
       <c r="G395" s="17"/>
     </row>
-    <row r="396" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="396" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E396" s="14"/>
       <c r="G396" s="17"/>
     </row>
-    <row r="397" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="397" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E397" s="14"/>
       <c r="G397" s="17"/>
     </row>
-    <row r="398" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="398" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E398" s="14"/>
       <c r="G398" s="17"/>
     </row>
-    <row r="399" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="399" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E399" s="14"/>
       <c r="G399" s="17"/>
     </row>
-    <row r="400" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="400" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E400" s="14"/>
       <c r="G400" s="17"/>
     </row>
-    <row r="401" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="401" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E401" s="14"/>
       <c r="G401" s="17"/>
     </row>
-    <row r="402" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="402" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E402" s="14"/>
       <c r="G402" s="17"/>
     </row>
-    <row r="403" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="403" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E403" s="14"/>
       <c r="G403" s="17"/>
     </row>
-    <row r="404" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="404" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E404" s="14"/>
       <c r="G404" s="17"/>
     </row>
-    <row r="405" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="405" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E405" s="14"/>
       <c r="G405" s="17"/>
     </row>
-    <row r="406" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="406" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E406" s="14"/>
       <c r="G406" s="17"/>
     </row>
-    <row r="407" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="407" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E407" s="14"/>
       <c r="G407" s="17"/>
     </row>
-    <row r="408" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="408" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E408" s="14"/>
       <c r="G408" s="17"/>
     </row>
-    <row r="409" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="409" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E409" s="14"/>
       <c r="G409" s="17"/>
     </row>
-    <row r="410" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="410" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E410" s="14"/>
       <c r="G410" s="17"/>
     </row>
-    <row r="411" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="411" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E411" s="14"/>
       <c r="G411" s="17"/>
     </row>
-    <row r="412" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="412" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E412" s="14"/>
       <c r="G412" s="17"/>
     </row>
-    <row r="413" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="413" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E413" s="14"/>
       <c r="G413" s="17"/>
     </row>
-    <row r="414" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="414" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E414" s="14"/>
       <c r="G414" s="17"/>
     </row>
-    <row r="415" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="415" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E415" s="14"/>
       <c r="G415" s="17"/>
     </row>
-    <row r="416" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="416" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E416" s="14"/>
       <c r="G416" s="17"/>
     </row>
-    <row r="417" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="417" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E417" s="14"/>
       <c r="G417" s="17"/>
     </row>
-    <row r="418" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="418" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E418" s="14"/>
       <c r="G418" s="17"/>
     </row>
-    <row r="419" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="419" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E419" s="14"/>
       <c r="G419" s="17"/>
     </row>
-    <row r="420" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="420" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E420" s="14"/>
       <c r="G420" s="17"/>
     </row>
-    <row r="421" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="421" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E421" s="14"/>
       <c r="G421" s="17"/>
     </row>
-    <row r="422" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="422" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E422" s="14"/>
       <c r="G422" s="17"/>
     </row>
-    <row r="423" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="423" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E423" s="14"/>
       <c r="G423" s="17"/>
     </row>
-    <row r="424" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="424" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E424" s="14"/>
       <c r="G424" s="17"/>
     </row>
-    <row r="425" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="425" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E425" s="14"/>
       <c r="G425" s="17"/>
     </row>
-    <row r="426" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="426" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E426" s="14"/>
       <c r="G426" s="17"/>
     </row>
-    <row r="427" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="427" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E427" s="14"/>
       <c r="G427" s="17"/>
     </row>
-    <row r="428" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="428" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E428" s="14"/>
       <c r="G428" s="17"/>
     </row>
-    <row r="429" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="429" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E429" s="14"/>
       <c r="G429" s="17"/>
     </row>
-    <row r="430" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="430" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E430" s="14"/>
       <c r="G430" s="17"/>
     </row>
-    <row r="431" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="431" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E431" s="14"/>
       <c r="G431" s="17"/>
     </row>
-    <row r="432" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="432" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E432" s="14"/>
       <c r="G432" s="17"/>
     </row>
-    <row r="433" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="433" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E433" s="14"/>
       <c r="G433" s="17"/>
     </row>
-    <row r="434" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="434" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E434" s="14"/>
       <c r="G434" s="17"/>
     </row>
-    <row r="435" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="435" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E435" s="14"/>
       <c r="G435" s="17"/>
     </row>
-    <row r="436" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="436" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E436" s="14"/>
       <c r="G436" s="17"/>
     </row>
-    <row r="437" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="437" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E437" s="14"/>
       <c r="G437" s="17"/>
     </row>
-    <row r="438" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="438" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E438" s="14"/>
       <c r="G438" s="17"/>
     </row>
-    <row r="439" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="439" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E439" s="14"/>
       <c r="G439" s="17"/>
     </row>
-    <row r="440" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="440" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E440" s="14"/>
       <c r="G440" s="17"/>
     </row>
-    <row r="441" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="441" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E441" s="14"/>
       <c r="G441" s="17"/>
     </row>
-    <row r="442" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="442" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E442" s="14"/>
       <c r="G442" s="17"/>
     </row>
-    <row r="443" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="443" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E443" s="14"/>
       <c r="G443" s="17"/>
     </row>
-    <row r="444" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="444" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E444" s="14"/>
       <c r="G444" s="17"/>
     </row>
-    <row r="445" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="445" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E445" s="14"/>
       <c r="G445" s="17"/>
     </row>
-    <row r="446" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="446" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E446" s="14"/>
       <c r="G446" s="17"/>
     </row>
-    <row r="447" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="447" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E447" s="14"/>
       <c r="G447" s="17"/>
     </row>
-    <row r="448" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="448" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E448" s="14"/>
       <c r="G448" s="17"/>
     </row>
-    <row r="449" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="449" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E449" s="14"/>
       <c r="G449" s="17"/>
     </row>
-    <row r="450" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="450" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E450" s="14"/>
       <c r="G450" s="17"/>
     </row>
-    <row r="451" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="451" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E451" s="14"/>
       <c r="G451" s="17"/>
     </row>
-    <row r="452" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="452" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E452" s="14"/>
       <c r="G452" s="17"/>
     </row>
-    <row r="453" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="453" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E453" s="14"/>
       <c r="G453" s="17"/>
     </row>
-    <row r="454" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="454" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E454" s="14"/>
       <c r="G454" s="17"/>
     </row>
-    <row r="455" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="455" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E455" s="14"/>
       <c r="G455" s="17"/>
     </row>
-    <row r="456" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="456" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E456" s="14"/>
       <c r="G456" s="17"/>
     </row>
-    <row r="457" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="457" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E457" s="14"/>
       <c r="G457" s="17"/>
     </row>
-    <row r="458" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="458" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E458" s="14"/>
       <c r="G458" s="17"/>
     </row>
-    <row r="459" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="459" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E459" s="14"/>
       <c r="G459" s="17"/>
     </row>
-    <row r="460" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="460" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E460" s="14"/>
       <c r="G460" s="17"/>
     </row>
-    <row r="461" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="461" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E461" s="14"/>
       <c r="G461" s="17"/>
     </row>
-    <row r="462" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="462" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E462" s="14"/>
       <c r="G462" s="17"/>
     </row>
-    <row r="463" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="463" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E463" s="14"/>
       <c r="G463" s="17"/>
     </row>
-    <row r="464" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="464" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E464" s="14"/>
       <c r="G464" s="17"/>
     </row>
-    <row r="465" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="465" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E465" s="14"/>
       <c r="G465" s="17"/>
     </row>
-    <row r="466" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="466" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E466" s="14"/>
       <c r="G466" s="17"/>
     </row>
-    <row r="467" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="467" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E467" s="14"/>
       <c r="G467" s="17"/>
     </row>
-    <row r="468" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="468" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E468" s="14"/>
       <c r="G468" s="17"/>
     </row>
-    <row r="469" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="469" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E469" s="14"/>
       <c r="G469" s="17"/>
     </row>
-    <row r="470" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="470" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E470" s="14"/>
       <c r="G470" s="17"/>
     </row>
-    <row r="471" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="471" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E471" s="14"/>
       <c r="G471" s="17"/>
     </row>
-    <row r="472" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="472" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E472" s="14"/>
       <c r="G472" s="17"/>
     </row>
-    <row r="473" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="473" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E473" s="14"/>
       <c r="G473" s="17"/>
     </row>
-    <row r="474" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="474" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E474" s="14"/>
       <c r="G474" s="17"/>
     </row>
-    <row r="475" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="475" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E475" s="14"/>
       <c r="G475" s="17"/>
     </row>
-    <row r="476" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="476" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E476" s="14"/>
       <c r="G476" s="17"/>
     </row>
-    <row r="477" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="477" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E477" s="14"/>
       <c r="G477" s="17"/>
     </row>
-    <row r="478" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="478" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E478" s="14"/>
       <c r="G478" s="17"/>
     </row>
-    <row r="479" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="479" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E479" s="14"/>
       <c r="G479" s="17"/>
     </row>
-    <row r="480" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="480" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E480" s="14"/>
       <c r="G480" s="17"/>
     </row>
-    <row r="481" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="481" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E481" s="14"/>
       <c r="G481" s="17"/>
     </row>
-    <row r="482" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="482" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E482" s="14"/>
       <c r="G482" s="17"/>
     </row>
-    <row r="483" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="483" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E483" s="14"/>
       <c r="G483" s="17"/>
     </row>
-    <row r="484" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="484" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E484" s="14"/>
       <c r="G484" s="17"/>
     </row>
-    <row r="485" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="485" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E485" s="14"/>
       <c r="G485" s="17"/>
     </row>
-    <row r="486" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="486" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E486" s="14"/>
       <c r="G486" s="17"/>
     </row>
-    <row r="487" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="487" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E487" s="14"/>
       <c r="G487" s="17"/>
     </row>
-    <row r="488" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="488" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E488" s="14"/>
       <c r="G488" s="17"/>
     </row>
-    <row r="489" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="489" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E489" s="14"/>
       <c r="G489" s="17"/>
     </row>
-    <row r="490" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="490" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E490" s="14"/>
       <c r="G490" s="17"/>
     </row>
-    <row r="491" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="491" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E491" s="14"/>
       <c r="G491" s="17"/>
     </row>
-    <row r="492" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="492" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E492" s="14"/>
       <c r="G492" s="17"/>
     </row>
-    <row r="493" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="493" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E493" s="14"/>
       <c r="G493" s="17"/>
     </row>
-    <row r="494" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="494" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E494" s="14"/>
       <c r="G494" s="17"/>
     </row>
-    <row r="495" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="495" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E495" s="14"/>
       <c r="G495" s="17"/>
     </row>
-    <row r="496" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="496" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E496" s="14"/>
       <c r="G496" s="17"/>
     </row>
-    <row r="497" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="497" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E497" s="14"/>
       <c r="G497" s="17"/>
     </row>
-    <row r="498" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="498" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E498" s="14"/>
       <c r="G498" s="17"/>
     </row>
-    <row r="499" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="499" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E499" s="14"/>
       <c r="G499" s="17"/>
     </row>
-    <row r="500" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="500" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E500" s="14"/>
       <c r="G500" s="17"/>
     </row>
-    <row r="501" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="501" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E501" s="14"/>
       <c r="G501" s="17"/>
     </row>
-    <row r="502" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="502" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E502" s="14"/>
       <c r="G502" s="17"/>
     </row>
-    <row r="503" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="503" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E503" s="14"/>
       <c r="G503" s="17"/>
     </row>
-    <row r="504" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="504" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E504" s="14"/>
       <c r="G504" s="17"/>
     </row>
-    <row r="505" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="505" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E505" s="14"/>
       <c r="G505" s="17"/>
     </row>
-    <row r="506" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="506" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E506" s="14"/>
       <c r="G506" s="17"/>
     </row>
-    <row r="507" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="507" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E507" s="14"/>
       <c r="G507" s="17"/>
     </row>
-    <row r="508" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="508" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E508" s="14"/>
       <c r="G508" s="17"/>
     </row>
-    <row r="509" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="509" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E509" s="14"/>
       <c r="G509" s="17"/>
     </row>
-    <row r="510" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="510" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E510" s="14"/>
       <c r="G510" s="17"/>
     </row>
-    <row r="511" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="511" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E511" s="14"/>
       <c r="G511" s="17"/>
     </row>
-    <row r="512" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="512" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E512" s="14"/>
       <c r="G512" s="17"/>
     </row>
-    <row r="513" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="513" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E513" s="14"/>
       <c r="G513" s="17"/>
     </row>
-    <row r="514" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="514" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E514" s="14"/>
       <c r="G514" s="17"/>
     </row>
-    <row r="515" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="515" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E515" s="14"/>
       <c r="G515" s="17"/>
     </row>
-    <row r="516" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="516" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E516" s="14"/>
       <c r="G516" s="17"/>
     </row>
-    <row r="517" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="517" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E517" s="14"/>
       <c r="G517" s="17"/>
     </row>
-    <row r="518" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="518" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E518" s="14"/>
       <c r="G518" s="17"/>
     </row>
-    <row r="519" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="519" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E519" s="14"/>
       <c r="G519" s="17"/>
     </row>
-    <row r="520" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="520" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E520" s="14"/>
       <c r="G520" s="17"/>
     </row>
-    <row r="521" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="521" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E521" s="14"/>
       <c r="G521" s="17"/>
     </row>
-    <row r="522" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="522" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E522" s="14"/>
       <c r="G522" s="17"/>
     </row>
-    <row r="523" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="523" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E523" s="14"/>
       <c r="G523" s="17"/>
     </row>
-    <row r="524" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="524" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E524" s="14"/>
       <c r="G524" s="17"/>
     </row>
-    <row r="525" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="525" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E525" s="14"/>
       <c r="G525" s="17"/>
     </row>
-    <row r="526" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="526" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E526" s="14"/>
       <c r="G526" s="17"/>
     </row>
-    <row r="527" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="527" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E527" s="14"/>
       <c r="G527" s="17"/>
     </row>
-    <row r="528" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="528" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E528" s="14"/>
       <c r="G528" s="17"/>
     </row>
-    <row r="529" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="529" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E529" s="14"/>
       <c r="G529" s="17"/>
     </row>
-    <row r="530" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="530" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E530" s="14"/>
       <c r="G530" s="17"/>
     </row>
-    <row r="531" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="531" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E531" s="14"/>
       <c r="G531" s="17"/>
     </row>
-    <row r="532" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="532" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E532" s="14"/>
       <c r="G532" s="17"/>
     </row>
-    <row r="533" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="533" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E533" s="14"/>
       <c r="G533" s="17"/>
     </row>
-    <row r="534" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="534" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E534" s="14"/>
       <c r="G534" s="17"/>
     </row>
-    <row r="535" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="535" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E535" s="14"/>
       <c r="G535" s="17"/>
     </row>
-    <row r="536" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="536" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E536" s="14"/>
       <c r="G536" s="17"/>
     </row>
-    <row r="537" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="537" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E537" s="14"/>
       <c r="G537" s="17"/>
     </row>
-    <row r="538" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="538" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E538" s="14"/>
       <c r="G538" s="17"/>
     </row>
-    <row r="539" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="539" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E539" s="14"/>
       <c r="G539" s="17"/>
     </row>
-    <row r="540" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="540" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E540" s="14"/>
       <c r="G540" s="17"/>
     </row>
-    <row r="541" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="541" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E541" s="14"/>
       <c r="G541" s="17"/>
     </row>
-    <row r="542" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="542" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E542" s="14"/>
       <c r="G542" s="17"/>
     </row>
-    <row r="543" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="543" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E543" s="14"/>
       <c r="G543" s="17"/>
     </row>
-    <row r="544" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="544" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E544" s="14"/>
       <c r="G544" s="17"/>
     </row>
-    <row r="545" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="545" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E545" s="14"/>
       <c r="G545" s="17"/>
     </row>
-    <row r="546" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="546" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E546" s="14"/>
       <c r="G546" s="17"/>
     </row>
-    <row r="547" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="547" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E547" s="14"/>
       <c r="G547" s="17"/>
     </row>
-    <row r="548" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="548" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E548" s="14"/>
       <c r="G548" s="17"/>
     </row>
-    <row r="549" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="549" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E549" s="14"/>
       <c r="G549" s="17"/>
     </row>
-    <row r="550" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="550" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E550" s="14"/>
       <c r="G550" s="17"/>
     </row>
-    <row r="551" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="551" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E551" s="14"/>
       <c r="G551" s="17"/>
     </row>
-    <row r="552" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="552" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E552" s="14"/>
       <c r="G552" s="17"/>
     </row>
-    <row r="553" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="553" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E553" s="14"/>
       <c r="G553" s="17"/>
     </row>
-    <row r="554" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="554" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E554" s="14"/>
       <c r="G554" s="17"/>
     </row>
-    <row r="555" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="555" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E555" s="14"/>
       <c r="G555" s="17"/>
     </row>
-    <row r="556" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="556" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E556" s="14"/>
       <c r="G556" s="17"/>
     </row>
-    <row r="557" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="557" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E557" s="14"/>
       <c r="G557" s="17"/>
     </row>
-    <row r="558" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="558" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E558" s="14"/>
       <c r="G558" s="17"/>
     </row>
-    <row r="559" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="559" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E559" s="14"/>
       <c r="G559" s="17"/>
     </row>
-    <row r="560" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="560" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E560" s="14"/>
       <c r="G560" s="17"/>
     </row>
-    <row r="561" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="561" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E561" s="14"/>
       <c r="G561" s="17"/>
     </row>
-    <row r="562" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="562" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E562" s="14"/>
       <c r="G562" s="17"/>
     </row>
-    <row r="563" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="563" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E563" s="14"/>
       <c r="G563" s="17"/>
     </row>
-    <row r="564" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="564" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E564" s="14"/>
       <c r="G564" s="17"/>
     </row>
-    <row r="565" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="565" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E565" s="14"/>
       <c r="G565" s="17"/>
     </row>
-    <row r="566" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="566" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E566" s="14"/>
       <c r="G566" s="17"/>
     </row>
-    <row r="567" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="567" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E567" s="14"/>
       <c r="G567" s="17"/>
     </row>
-    <row r="568" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="568" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E568" s="14"/>
       <c r="G568" s="17"/>
     </row>
-    <row r="569" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="569" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E569" s="14"/>
       <c r="G569" s="17"/>
     </row>
-    <row r="570" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="570" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E570" s="14"/>
       <c r="G570" s="17"/>
     </row>
-    <row r="571" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="571" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E571" s="14"/>
       <c r="G571" s="17"/>
     </row>
-    <row r="572" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="572" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E572" s="14"/>
       <c r="G572" s="17"/>
     </row>
-    <row r="573" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="573" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E573" s="14"/>
       <c r="G573" s="17"/>
     </row>
-    <row r="574" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="574" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E574" s="14"/>
       <c r="G574" s="17"/>
     </row>
-    <row r="575" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="575" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E575" s="14"/>
       <c r="G575" s="17"/>
     </row>
-    <row r="576" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="576" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E576" s="14"/>
       <c r="G576" s="17"/>
     </row>
-    <row r="577" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="577" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E577" s="14"/>
       <c r="G577" s="17"/>
     </row>
-    <row r="578" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="578" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E578" s="14"/>
       <c r="G578" s="17"/>
     </row>
-    <row r="579" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="579" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E579" s="14"/>
       <c r="G579" s="17"/>
     </row>
-    <row r="580" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="580" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E580" s="14"/>
       <c r="G580" s="17"/>
     </row>
-    <row r="581" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="581" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E581" s="14"/>
       <c r="G581" s="17"/>
     </row>
-    <row r="582" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="582" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E582" s="14"/>
       <c r="G582" s="17"/>
     </row>
-    <row r="583" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="583" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E583" s="14"/>
       <c r="G583" s="17"/>
     </row>
-    <row r="584" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="584" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E584" s="14"/>
       <c r="G584" s="17"/>
     </row>
-    <row r="585" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="585" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E585" s="14"/>
       <c r="G585" s="17"/>
     </row>
-    <row r="586" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="586" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E586" s="14"/>
       <c r="G586" s="17"/>
     </row>
-    <row r="587" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="587" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E587" s="14"/>
       <c r="G587" s="17"/>
     </row>
-    <row r="588" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="588" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E588" s="14"/>
       <c r="G588" s="17"/>
     </row>
-    <row r="589" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="589" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E589" s="14"/>
       <c r="G589" s="17"/>
     </row>
-    <row r="590" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="590" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E590" s="14"/>
       <c r="G590" s="17"/>
     </row>
-    <row r="591" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="591" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E591" s="14"/>
       <c r="G591" s="17"/>
     </row>
-    <row r="592" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="592" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E592" s="14"/>
       <c r="G592" s="17"/>
     </row>
-    <row r="593" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="593" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E593" s="14"/>
       <c r="G593" s="17"/>
     </row>
-    <row r="594" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="594" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E594" s="14"/>
       <c r="G594" s="17"/>
     </row>
-    <row r="595" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="595" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E595" s="14"/>
       <c r="G595" s="17"/>
     </row>
-    <row r="596" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="596" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E596" s="14"/>
       <c r="G596" s="17"/>
     </row>
-    <row r="597" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="597" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E597" s="14"/>
       <c r="G597" s="17"/>
     </row>
-    <row r="598" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="598" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E598" s="14"/>
       <c r="G598" s="17"/>
     </row>
-    <row r="599" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="599" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E599" s="14"/>
       <c r="G599" s="17"/>
     </row>
-    <row r="600" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="600" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E600" s="14"/>
       <c r="G600" s="17"/>
     </row>
-    <row r="601" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="601" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E601" s="14"/>
       <c r="G601" s="17"/>
     </row>
-    <row r="602" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="602" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E602" s="14"/>
       <c r="G602" s="17"/>
     </row>
-    <row r="603" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="603" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E603" s="14"/>
       <c r="G603" s="17"/>
     </row>
-    <row r="604" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="604" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E604" s="14"/>
       <c r="G604" s="17"/>
     </row>
-    <row r="605" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="605" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E605" s="14"/>
       <c r="G605" s="17"/>
     </row>
-    <row r="606" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="606" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E606" s="14"/>
       <c r="G606" s="17"/>
     </row>
-    <row r="607" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="607" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E607" s="14"/>
       <c r="G607" s="17"/>
     </row>
-    <row r="608" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="608" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E608" s="14"/>
       <c r="G608" s="17"/>
     </row>
-    <row r="609" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="609" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E609" s="14"/>
       <c r="G609" s="17"/>
     </row>
-    <row r="610" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="610" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E610" s="14"/>
       <c r="G610" s="17"/>
     </row>
-    <row r="611" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="611" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E611" s="14"/>
       <c r="G611" s="17"/>
     </row>
-    <row r="612" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="612" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E612" s="14"/>
       <c r="G612" s="17"/>
     </row>
-    <row r="613" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="613" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E613" s="14"/>
       <c r="G613" s="17"/>
     </row>
-    <row r="614" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="614" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E614" s="14"/>
       <c r="G614" s="17"/>
     </row>
-    <row r="615" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="615" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E615" s="14"/>
       <c r="G615" s="17"/>
     </row>
-    <row r="616" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="616" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E616" s="14"/>
       <c r="G616" s="17"/>
     </row>
-    <row r="617" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="617" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E617" s="14"/>
       <c r="G617" s="17"/>
     </row>
-    <row r="618" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="618" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E618" s="14"/>
       <c r="G618" s="17"/>
     </row>
-    <row r="619" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="619" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E619" s="14"/>
       <c r="G619" s="17"/>
     </row>
-    <row r="620" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="620" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E620" s="14"/>
       <c r="G620" s="17"/>
     </row>
-    <row r="621" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="621" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E621" s="14"/>
       <c r="G621" s="17"/>
     </row>
-    <row r="622" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="622" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E622" s="14"/>
       <c r="G622" s="17"/>
     </row>
-    <row r="623" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="623" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E623" s="14"/>
       <c r="G623" s="17"/>
     </row>
-    <row r="624" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="624" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E624" s="14"/>
       <c r="G624" s="17"/>
     </row>
-    <row r="625" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="625" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E625" s="14"/>
       <c r="G625" s="17"/>
     </row>
-    <row r="626" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="626" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E626" s="14"/>
       <c r="G626" s="17"/>
     </row>
-    <row r="627" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="627" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E627" s="14"/>
       <c r="G627" s="17"/>
     </row>
-    <row r="628" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="628" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E628" s="14"/>
       <c r="G628" s="17"/>
     </row>
-    <row r="629" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="629" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E629" s="14"/>
       <c r="G629" s="17"/>
     </row>
-    <row r="630" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="630" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E630" s="14"/>
       <c r="G630" s="17"/>
     </row>
-    <row r="631" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="631" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E631" s="14"/>
       <c r="G631" s="17"/>
     </row>
-    <row r="632" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="632" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E632" s="14"/>
       <c r="G632" s="17"/>
     </row>
-    <row r="633" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="633" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E633" s="14"/>
       <c r="G633" s="17"/>
     </row>
-    <row r="634" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="634" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E634" s="14"/>
       <c r="G634" s="17"/>
     </row>
-    <row r="635" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="635" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E635" s="14"/>
       <c r="G635" s="17"/>
     </row>
-    <row r="636" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="636" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E636" s="14"/>
       <c r="G636" s="17"/>
     </row>
-    <row r="637" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="637" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E637" s="14"/>
       <c r="G637" s="17"/>
     </row>
-    <row r="638" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="638" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E638" s="14"/>
       <c r="G638" s="17"/>
     </row>
-    <row r="639" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="639" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E639" s="14"/>
       <c r="G639" s="17"/>
     </row>
-    <row r="640" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="640" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E640" s="14"/>
       <c r="G640" s="17"/>
     </row>
-    <row r="641" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="641" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E641" s="14"/>
       <c r="G641" s="17"/>
     </row>
-    <row r="642" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="642" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E642" s="14"/>
       <c r="G642" s="17"/>
     </row>
-    <row r="643" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="643" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E643" s="14"/>
       <c r="G643" s="17"/>
     </row>
-    <row r="644" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="644" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E644" s="14"/>
       <c r="G644" s="17"/>
     </row>
-    <row r="645" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="645" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E645" s="14"/>
       <c r="G645" s="17"/>
     </row>
-    <row r="646" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="646" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E646" s="14"/>
       <c r="G646" s="17"/>
     </row>
-    <row r="647" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="647" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E647" s="14"/>
       <c r="G647" s="17"/>
     </row>
-    <row r="648" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="648" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E648" s="14"/>
       <c r="G648" s="17"/>
     </row>
-    <row r="649" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="649" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E649" s="14"/>
       <c r="G649" s="17"/>
     </row>
-    <row r="650" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="650" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E650" s="14"/>
       <c r="G650" s="17"/>
     </row>
-    <row r="651" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="651" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E651" s="14"/>
       <c r="G651" s="17"/>
     </row>
-    <row r="652" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="652" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E652" s="14"/>
       <c r="G652" s="17"/>
     </row>
-    <row r="653" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="653" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E653" s="14"/>
       <c r="G653" s="17"/>
     </row>
-    <row r="654" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="654" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E654" s="14"/>
       <c r="G654" s="17"/>
     </row>
-    <row r="655" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="655" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E655" s="14"/>
       <c r="G655" s="17"/>
     </row>
-    <row r="656" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="656" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E656" s="14"/>
       <c r="G656" s="17"/>
     </row>
-    <row r="657" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="657" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E657" s="14"/>
       <c r="G657" s="17"/>
     </row>
-    <row r="658" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="658" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E658" s="14"/>
       <c r="G658" s="17"/>
     </row>
-    <row r="659" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="659" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E659" s="14"/>
       <c r="G659" s="17"/>
     </row>
-    <row r="660" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="660" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E660" s="14"/>
       <c r="G660" s="17"/>
     </row>
-    <row r="661" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="661" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E661" s="14"/>
       <c r="G661" s="17"/>
     </row>
-    <row r="662" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="662" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E662" s="14"/>
       <c r="G662" s="17"/>
     </row>
-    <row r="663" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="663" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E663" s="14"/>
       <c r="G663" s="17"/>
     </row>
-    <row r="664" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="664" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E664" s="14"/>
       <c r="G664" s="17"/>
     </row>
-    <row r="665" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="665" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E665" s="14"/>
       <c r="G665" s="17"/>
     </row>
-    <row r="666" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="666" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E666" s="14"/>
       <c r="G666" s="17"/>
     </row>
-    <row r="667" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="667" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E667" s="14"/>
       <c r="G667" s="17"/>
     </row>
-    <row r="668" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="668" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E668" s="14"/>
       <c r="G668" s="17"/>
     </row>
-    <row r="669" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="669" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E669" s="14"/>
       <c r="G669" s="17"/>
     </row>
-    <row r="670" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="670" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E670" s="14"/>
       <c r="G670" s="17"/>
     </row>
-    <row r="671" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="671" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E671" s="14"/>
       <c r="G671" s="17"/>
     </row>
-    <row r="672" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="672" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E672" s="14"/>
       <c r="G672" s="17"/>
     </row>
-    <row r="673" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="673" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E673" s="14"/>
       <c r="G673" s="17"/>
     </row>
-    <row r="674" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="674" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E674" s="14"/>
       <c r="G674" s="17"/>
     </row>
-    <row r="675" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="675" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E675" s="14"/>
       <c r="G675" s="17"/>
     </row>
-    <row r="676" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="676" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E676" s="14"/>
       <c r="G676" s="17"/>
     </row>
-    <row r="677" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="677" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E677" s="14"/>
       <c r="G677" s="17"/>
     </row>
-    <row r="678" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="678" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E678" s="14"/>
       <c r="G678" s="17"/>
     </row>
-    <row r="679" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="679" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E679" s="14"/>
       <c r="G679" s="17"/>
     </row>
-    <row r="680" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="680" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E680" s="14"/>
       <c r="G680" s="17"/>
     </row>
-    <row r="681" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="681" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E681" s="14"/>
       <c r="G681" s="17"/>
     </row>
-    <row r="682" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="682" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E682" s="14"/>
       <c r="G682" s="17"/>
     </row>
-    <row r="683" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="683" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E683" s="14"/>
       <c r="G683" s="17"/>
     </row>
-    <row r="684" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="684" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E684" s="14"/>
       <c r="G684" s="17"/>
     </row>
-    <row r="685" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="685" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E685" s="14"/>
       <c r="G685" s="17"/>
     </row>
-    <row r="686" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="686" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E686" s="14"/>
       <c r="G686" s="17"/>
     </row>
-    <row r="687" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="687" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E687" s="14"/>
       <c r="G687" s="17"/>
     </row>
-    <row r="688" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="688" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E688" s="14"/>
       <c r="G688" s="17"/>
     </row>
-    <row r="689" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="689" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E689" s="14"/>
       <c r="G689" s="17"/>
     </row>
-    <row r="690" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="690" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E690" s="14"/>
       <c r="G690" s="17"/>
     </row>
-    <row r="691" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="691" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E691" s="14"/>
       <c r="G691" s="17"/>
     </row>
-    <row r="692" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="692" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E692" s="14"/>
       <c r="G692" s="17"/>
     </row>
-    <row r="693" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="693" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E693" s="14"/>
       <c r="G693" s="17"/>
     </row>
-    <row r="694" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="694" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E694" s="14"/>
       <c r="G694" s="17"/>
     </row>
-    <row r="695" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="695" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E695" s="14"/>
       <c r="G695" s="17"/>
     </row>
-    <row r="696" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="696" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E696" s="14"/>
       <c r="G696" s="17"/>
     </row>
-    <row r="697" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="697" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E697" s="14"/>
       <c r="G697" s="17"/>
     </row>
-    <row r="698" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="698" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E698" s="14"/>
       <c r="G698" s="17"/>
     </row>
-    <row r="699" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="699" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E699" s="14"/>
       <c r="G699" s="17"/>
     </row>
-    <row r="700" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="700" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E700" s="14"/>
       <c r="G700" s="17"/>
     </row>
-    <row r="701" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="701" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E701" s="14"/>
       <c r="G701" s="17"/>
     </row>
-    <row r="702" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="702" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E702" s="14"/>
       <c r="G702" s="17"/>
     </row>
-    <row r="703" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="703" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E703" s="14"/>
       <c r="G703" s="17"/>
     </row>
-    <row r="704" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="704" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E704" s="14"/>
       <c r="G704" s="17"/>
     </row>
-    <row r="705" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="705" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E705" s="14"/>
       <c r="G705" s="17"/>
     </row>
-    <row r="706" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="706" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E706" s="14"/>
       <c r="G706" s="17"/>
     </row>
-    <row r="707" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="707" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E707" s="14"/>
       <c r="G707" s="17"/>
     </row>
-    <row r="708" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="708" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E708" s="14"/>
       <c r="G708" s="17"/>
     </row>
-    <row r="709" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="709" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E709" s="14"/>
       <c r="G709" s="17"/>
     </row>
-    <row r="710" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="710" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E710" s="14"/>
       <c r="G710" s="17"/>
     </row>
-    <row r="711" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="711" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E711" s="14"/>
       <c r="G711" s="17"/>
     </row>
-    <row r="712" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="712" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E712" s="14"/>
       <c r="G712" s="17"/>
     </row>
-    <row r="713" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="713" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E713" s="14"/>
       <c r="G713" s="17"/>
     </row>
-    <row r="714" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="714" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E714" s="14"/>
       <c r="G714" s="17"/>
     </row>
-    <row r="715" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="715" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E715" s="14"/>
       <c r="G715" s="17"/>
     </row>
-    <row r="716" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="716" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E716" s="14"/>
       <c r="G716" s="17"/>
     </row>
-    <row r="717" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="717" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E717" s="14"/>
       <c r="G717" s="17"/>
     </row>
-    <row r="718" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="718" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E718" s="14"/>
       <c r="G718" s="17"/>
     </row>
-    <row r="719" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="719" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E719" s="14"/>
       <c r="G719" s="17"/>
     </row>
-    <row r="720" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="720" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E720" s="14"/>
       <c r="G720" s="17"/>
     </row>
-    <row r="721" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="721" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E721" s="14"/>
       <c r="G721" s="17"/>
     </row>
-    <row r="722" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="722" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E722" s="14"/>
       <c r="G722" s="17"/>
     </row>
-    <row r="723" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="723" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E723" s="14"/>
       <c r="G723" s="17"/>
     </row>
-    <row r="724" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="724" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E724" s="14"/>
       <c r="G724" s="17"/>
     </row>
-    <row r="725" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="725" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E725" s="14"/>
       <c r="G725" s="17"/>
     </row>
-    <row r="726" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="726" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E726" s="14"/>
       <c r="G726" s="17"/>
     </row>
-    <row r="727" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="727" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E727" s="14"/>
       <c r="G727" s="17"/>
     </row>
-    <row r="728" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="728" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E728" s="14"/>
       <c r="G728" s="17"/>
     </row>
-    <row r="729" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="729" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E729" s="14"/>
       <c r="G729" s="17"/>
     </row>
-    <row r="730" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="730" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E730" s="14"/>
       <c r="G730" s="17"/>
     </row>
-    <row r="731" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="731" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E731" s="14"/>
       <c r="G731" s="17"/>
     </row>
-    <row r="732" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="732" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E732" s="14"/>
       <c r="G732" s="17"/>
     </row>
-    <row r="733" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="733" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E733" s="14"/>
       <c r="G733" s="17"/>
     </row>
-    <row r="734" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="734" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E734" s="14"/>
       <c r="G734" s="17"/>
     </row>
-    <row r="735" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="735" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E735" s="14"/>
       <c r="G735" s="17"/>
     </row>
-    <row r="736" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="736" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E736" s="14"/>
       <c r="G736" s="17"/>
     </row>
-    <row r="737" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="737" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E737" s="14"/>
       <c r="G737" s="17"/>
     </row>
-    <row r="738" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="738" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E738" s="14"/>
       <c r="G738" s="17"/>
     </row>
-    <row r="739" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="739" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E739" s="14"/>
       <c r="G739" s="17"/>
     </row>
-    <row r="740" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="740" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E740" s="14"/>
       <c r="G740" s="17"/>
     </row>
-    <row r="741" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="741" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E741" s="14"/>
       <c r="G741" s="17"/>
     </row>
-    <row r="742" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="742" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E742" s="14"/>
       <c r="G742" s="17"/>
     </row>
-    <row r="743" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="743" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E743" s="14"/>
       <c r="G743" s="17"/>
     </row>
-    <row r="744" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="744" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E744" s="14"/>
       <c r="G744" s="17"/>
     </row>
-    <row r="745" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="745" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E745" s="14"/>
       <c r="G745" s="17"/>
     </row>
-    <row r="746" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="746" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E746" s="14"/>
       <c r="G746" s="17"/>
     </row>
-    <row r="747" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="747" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E747" s="14"/>
       <c r="G747" s="17"/>
     </row>
-    <row r="748" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="748" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E748" s="14"/>
       <c r="G748" s="17"/>
     </row>
-    <row r="749" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="749" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E749" s="14"/>
       <c r="G749" s="17"/>
     </row>
-    <row r="750" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="750" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E750" s="14"/>
       <c r="G750" s="17"/>
     </row>
-    <row r="751" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="751" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E751" s="14"/>
       <c r="G751" s="17"/>
     </row>
-    <row r="752" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="752" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E752" s="14"/>
       <c r="G752" s="17"/>
     </row>
-    <row r="753" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="753" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E753" s="14"/>
       <c r="G753" s="17"/>
     </row>
-    <row r="754" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="754" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E754" s="14"/>
       <c r="G754" s="17"/>
     </row>
-    <row r="755" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="755" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E755" s="14"/>
       <c r="G755" s="17"/>
     </row>
-    <row r="756" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="756" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E756" s="14"/>
       <c r="G756" s="17"/>
     </row>
-    <row r="757" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="757" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E757" s="14"/>
       <c r="G757" s="17"/>
     </row>
-    <row r="758" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="758" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E758" s="14"/>
       <c r="G758" s="17"/>
     </row>
-    <row r="759" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="759" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E759" s="14"/>
       <c r="G759" s="17"/>
     </row>
-    <row r="760" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="760" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E760" s="14"/>
       <c r="G760" s="17"/>
     </row>
-    <row r="761" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="761" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E761" s="14"/>
       <c r="G761" s="17"/>
     </row>
-    <row r="762" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="762" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E762" s="14"/>
       <c r="G762" s="17"/>
     </row>
-    <row r="763" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="763" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E763" s="14"/>
       <c r="G763" s="17"/>
     </row>
-    <row r="764" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="764" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E764" s="14"/>
       <c r="G764" s="17"/>
     </row>
-    <row r="765" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="765" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E765" s="14"/>
       <c r="G765" s="17"/>
     </row>
-    <row r="766" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="766" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E766" s="14"/>
       <c r="G766" s="17"/>
     </row>
-    <row r="767" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="767" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E767" s="14"/>
       <c r="G767" s="17"/>
     </row>
-    <row r="768" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="768" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E768" s="14"/>
       <c r="G768" s="17"/>
     </row>
-    <row r="769" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="769" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E769" s="14"/>
       <c r="G769" s="17"/>
     </row>
-    <row r="770" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="770" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E770" s="14"/>
       <c r="G770" s="17"/>
     </row>
-    <row r="771" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="771" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E771" s="14"/>
       <c r="G771" s="17"/>
     </row>
-    <row r="772" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="772" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E772" s="14"/>
       <c r="G772" s="17"/>
     </row>
-    <row r="773" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="773" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E773" s="14"/>
       <c r="G773" s="17"/>
     </row>
-    <row r="774" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="774" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E774" s="14"/>
       <c r="G774" s="17"/>
     </row>
-    <row r="775" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="775" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E775" s="14"/>
       <c r="G775" s="17"/>
     </row>
-    <row r="776" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="776" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E776" s="14"/>
       <c r="G776" s="17"/>
     </row>
-    <row r="777" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="777" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E777" s="14"/>
       <c r="G777" s="17"/>
     </row>
-    <row r="778" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="778" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E778" s="14"/>
       <c r="G778" s="17"/>
     </row>
-    <row r="779" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="779" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E779" s="14"/>
       <c r="G779" s="17"/>
     </row>
-    <row r="780" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="780" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E780" s="14"/>
       <c r="G780" s="17"/>
     </row>
-    <row r="781" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="781" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E781" s="14"/>
       <c r="G781" s="17"/>
     </row>
-    <row r="782" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="782" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E782" s="14"/>
       <c r="G782" s="17"/>
     </row>
-    <row r="783" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="783" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E783" s="14"/>
       <c r="G783" s="17"/>
     </row>
-    <row r="784" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="784" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E784" s="14"/>
       <c r="G784" s="17"/>
     </row>
-    <row r="785" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="785" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E785" s="14"/>
       <c r="G785" s="17"/>
     </row>
-    <row r="786" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="786" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E786" s="14"/>
       <c r="G786" s="17"/>
     </row>
-    <row r="787" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="787" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E787" s="14"/>
       <c r="G787" s="17"/>
     </row>
-    <row r="788" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="788" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E788" s="14"/>
       <c r="G788" s="17"/>
     </row>
-    <row r="789" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="789" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E789" s="14"/>
       <c r="G789" s="17"/>
     </row>
-    <row r="790" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="790" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E790" s="14"/>
       <c r="G790" s="17"/>
     </row>
-    <row r="791" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="791" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E791" s="14"/>
       <c r="G791" s="17"/>
     </row>
-    <row r="792" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="792" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E792" s="14"/>
       <c r="G792" s="17"/>
     </row>
-    <row r="793" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="793" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E793" s="14"/>
       <c r="G793" s="17"/>
     </row>
-    <row r="794" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="794" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E794" s="14"/>
       <c r="G794" s="17"/>
     </row>
-    <row r="795" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="795" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E795" s="14"/>
       <c r="G795" s="17"/>
     </row>
-    <row r="796" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="796" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E796" s="14"/>
       <c r="G796" s="17"/>
     </row>
-    <row r="797" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="797" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E797" s="14"/>
       <c r="G797" s="17"/>
     </row>
-    <row r="798" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="798" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E798" s="14"/>
       <c r="G798" s="17"/>
     </row>
-    <row r="799" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="799" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E799" s="14"/>
       <c r="G799" s="17"/>
     </row>
-    <row r="800" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="800" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E800" s="14"/>
       <c r="G800" s="17"/>
     </row>
-    <row r="801" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="801" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E801" s="14"/>
       <c r="G801" s="17"/>
     </row>
-    <row r="802" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="802" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E802" s="14"/>
       <c r="G802" s="17"/>
     </row>
-    <row r="803" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="803" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E803" s="14"/>
       <c r="G803" s="17"/>
     </row>
-    <row r="804" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="804" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E804" s="14"/>
       <c r="G804" s="17"/>
     </row>
-    <row r="805" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="805" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E805" s="14"/>
       <c r="G805" s="17"/>
     </row>
-    <row r="806" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="806" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E806" s="14"/>
       <c r="G806" s="17"/>
     </row>
-    <row r="807" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="807" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E807" s="14"/>
       <c r="G807" s="17"/>
     </row>
-    <row r="808" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="808" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E808" s="14"/>
       <c r="G808" s="17"/>
     </row>
-    <row r="809" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="809" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E809" s="14"/>
       <c r="G809" s="17"/>
     </row>
-    <row r="810" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="810" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E810" s="14"/>
       <c r="G810" s="17"/>
     </row>
-    <row r="811" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="811" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E811" s="14"/>
       <c r="G811" s="17"/>
     </row>
-    <row r="812" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="812" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E812" s="14"/>
       <c r="G812" s="17"/>
     </row>
-    <row r="813" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="813" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E813" s="14"/>
       <c r="G813" s="17"/>
     </row>
-    <row r="814" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="814" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E814" s="14"/>
       <c r="G814" s="17"/>
     </row>
-    <row r="815" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="815" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E815" s="14"/>
       <c r="G815" s="17"/>
     </row>
-    <row r="816" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="816" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E816" s="14"/>
       <c r="G816" s="17"/>
     </row>
-    <row r="817" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="817" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E817" s="14"/>
       <c r="G817" s="17"/>
     </row>
-    <row r="818" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="818" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E818" s="14"/>
       <c r="G818" s="17"/>
     </row>
-    <row r="819" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="819" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E819" s="14"/>
       <c r="G819" s="17"/>
     </row>
-    <row r="820" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="820" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E820" s="14"/>
       <c r="G820" s="17"/>
     </row>
-    <row r="821" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="821" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E821" s="14"/>
       <c r="G821" s="17"/>
     </row>
-    <row r="822" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="822" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E822" s="14"/>
       <c r="G822" s="17"/>
     </row>
-    <row r="823" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="823" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E823" s="14"/>
       <c r="G823" s="17"/>
     </row>
-    <row r="824" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="824" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E824" s="14"/>
       <c r="G824" s="17"/>
     </row>
-    <row r="825" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="825" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E825" s="14"/>
       <c r="G825" s="17"/>
     </row>
-    <row r="826" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="826" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E826" s="14"/>
       <c r="G826" s="17"/>
     </row>
-    <row r="827" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="827" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E827" s="14"/>
       <c r="G827" s="17"/>
     </row>
-    <row r="828" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="828" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E828" s="14"/>
       <c r="G828" s="17"/>
     </row>
-    <row r="829" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="829" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E829" s="14"/>
       <c r="G829" s="17"/>
     </row>
-    <row r="830" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="830" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E830" s="14"/>
       <c r="G830" s="17"/>
     </row>
-    <row r="831" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="831" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E831" s="14"/>
       <c r="G831" s="17"/>
     </row>
-    <row r="832" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="832" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E832" s="14"/>
       <c r="G832" s="17"/>
     </row>
-    <row r="833" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="833" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E833" s="14"/>
       <c r="G833" s="17"/>
     </row>
-    <row r="834" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="834" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E834" s="14"/>
       <c r="G834" s="17"/>
     </row>
-    <row r="835" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="835" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E835" s="14"/>
       <c r="G835" s="17"/>
     </row>
-    <row r="836" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="836" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E836" s="14"/>
       <c r="G836" s="17"/>
     </row>
-    <row r="837" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="837" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E837" s="14"/>
       <c r="G837" s="17"/>
     </row>
-    <row r="838" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="838" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E838" s="14"/>
       <c r="G838" s="17"/>
     </row>
-    <row r="839" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="839" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E839" s="14"/>
       <c r="G839" s="17"/>
     </row>
-    <row r="840" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="840" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E840" s="14"/>
       <c r="G840" s="17"/>
     </row>
-    <row r="841" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="841" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E841" s="14"/>
       <c r="G841" s="17"/>
     </row>
-    <row r="842" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="842" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E842" s="14"/>
       <c r="G842" s="17"/>
     </row>
-    <row r="843" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="843" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E843" s="14"/>
       <c r="G843" s="17"/>
     </row>
-    <row r="844" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="844" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E844" s="14"/>
       <c r="G844" s="17"/>
     </row>
-    <row r="845" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="845" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E845" s="14"/>
       <c r="G845" s="17"/>
     </row>
-    <row r="846" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="846" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E846" s="14"/>
       <c r="G846" s="17"/>
     </row>
-    <row r="847" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="847" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E847" s="14"/>
       <c r="G847" s="17"/>
     </row>
-    <row r="848" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="848" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E848" s="14"/>
       <c r="G848" s="17"/>
     </row>
-    <row r="849" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="849" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E849" s="14"/>
       <c r="G849" s="17"/>
     </row>
-    <row r="850" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="850" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E850" s="14"/>
       <c r="G850" s="17"/>
     </row>
-    <row r="851" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="851" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E851" s="14"/>
       <c r="G851" s="17"/>
     </row>
-    <row r="852" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="852" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E852" s="14"/>
       <c r="G852" s="17"/>
     </row>
-    <row r="853" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="853" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E853" s="14"/>
       <c r="G853" s="17"/>
     </row>
-    <row r="854" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="854" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E854" s="14"/>
       <c r="G854" s="17"/>
     </row>
-    <row r="855" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="855" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E855" s="14"/>
       <c r="G855" s="17"/>
     </row>
-    <row r="856" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="856" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E856" s="14"/>
       <c r="G856" s="17"/>
     </row>
-    <row r="857" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="857" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E857" s="14"/>
       <c r="G857" s="17"/>
     </row>
-    <row r="858" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="858" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E858" s="14"/>
       <c r="G858" s="17"/>
     </row>
-    <row r="859" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="859" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E859" s="14"/>
       <c r="G859" s="17"/>
     </row>
-    <row r="860" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="860" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E860" s="14"/>
       <c r="G860" s="17"/>
     </row>
-    <row r="861" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="861" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E861" s="14"/>
       <c r="G861" s="17"/>
     </row>
-    <row r="862" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="862" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E862" s="14"/>
       <c r="G862" s="17"/>
     </row>
-    <row r="863" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="863" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E863" s="14"/>
       <c r="G863" s="17"/>
     </row>
-    <row r="864" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="864" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E864" s="14"/>
       <c r="G864" s="17"/>
     </row>
-    <row r="865" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="865" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E865" s="14"/>
       <c r="G865" s="17"/>
     </row>
-    <row r="866" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="866" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E866" s="14"/>
       <c r="G866" s="17"/>
     </row>
-    <row r="867" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="867" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E867" s="14"/>
       <c r="G867" s="17"/>
     </row>
-    <row r="868" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="868" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E868" s="14"/>
       <c r="G868" s="17"/>
     </row>
-    <row r="869" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="869" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E869" s="14"/>
       <c r="G869" s="17"/>
     </row>
-    <row r="870" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="870" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E870" s="14"/>
       <c r="G870" s="17"/>
     </row>
-    <row r="871" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="871" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E871" s="14"/>
       <c r="G871" s="17"/>
     </row>
-    <row r="872" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="872" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E872" s="14"/>
       <c r="G872" s="17"/>
     </row>
-    <row r="873" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="873" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E873" s="14"/>
       <c r="G873" s="17"/>
     </row>
-    <row r="874" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="874" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E874" s="14"/>
       <c r="G874" s="17"/>
     </row>
-    <row r="875" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="875" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E875" s="14"/>
       <c r="G875" s="17"/>
     </row>
-    <row r="876" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="876" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E876" s="14"/>
       <c r="G876" s="17"/>
     </row>
-    <row r="877" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="877" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E877" s="14"/>
       <c r="G877" s="17"/>
     </row>
-    <row r="878" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="878" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E878" s="14"/>
       <c r="G878" s="17"/>
     </row>
-    <row r="879" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="879" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E879" s="14"/>
       <c r="G879" s="17"/>
     </row>
-    <row r="880" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="880" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E880" s="14"/>
       <c r="G880" s="17"/>
     </row>
-    <row r="881" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="881" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E881" s="14"/>
       <c r="G881" s="17"/>
     </row>
-    <row r="882" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="882" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E882" s="14"/>
       <c r="G882" s="17"/>
     </row>
-    <row r="883" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="883" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E883" s="14"/>
       <c r="G883" s="17"/>
     </row>
-    <row r="884" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="884" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E884" s="14"/>
       <c r="G884" s="17"/>
     </row>
-    <row r="885" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="885" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E885" s="14"/>
       <c r="G885" s="17"/>
     </row>
-    <row r="886" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="886" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E886" s="14"/>
       <c r="G886" s="17"/>
     </row>
-    <row r="887" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="887" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E887" s="14"/>
       <c r="G887" s="17"/>
     </row>
-    <row r="888" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="888" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E888" s="14"/>
       <c r="G888" s="17"/>
     </row>
-    <row r="889" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="889" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E889" s="14"/>
       <c r="G889" s="17"/>
     </row>
-    <row r="890" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="890" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E890" s="14"/>
       <c r="G890" s="17"/>
     </row>
-    <row r="891" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="891" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E891" s="14"/>
       <c r="G891" s="17"/>
     </row>
-    <row r="892" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="892" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E892" s="14"/>
       <c r="G892" s="17"/>
     </row>
-    <row r="893" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="893" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E893" s="14"/>
       <c r="G893" s="17"/>
     </row>
-    <row r="894" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="894" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E894" s="14"/>
       <c r="G894" s="17"/>
     </row>
-    <row r="895" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="895" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E895" s="14"/>
       <c r="G895" s="17"/>
     </row>
-    <row r="896" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="896" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E896" s="14"/>
       <c r="G896" s="17"/>
     </row>
-    <row r="897" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="897" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E897" s="14"/>
       <c r="G897" s="17"/>
     </row>
-    <row r="898" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="898" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E898" s="14"/>
       <c r="G898" s="17"/>
     </row>
-    <row r="899" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="899" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E899" s="14"/>
       <c r="G899" s="17"/>
     </row>
-    <row r="900" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="900" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E900" s="14"/>
       <c r="G900" s="17"/>
     </row>
-    <row r="901" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="901" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E901" s="14"/>
       <c r="G901" s="17"/>
     </row>
-    <row r="902" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="902" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E902" s="14"/>
       <c r="G902" s="17"/>
     </row>
-    <row r="903" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="903" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E903" s="14"/>
       <c r="G903" s="17"/>
     </row>
-    <row r="904" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="904" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E904" s="14"/>
       <c r="G904" s="17"/>
     </row>
-    <row r="905" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="905" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E905" s="14"/>
       <c r="G905" s="17"/>
     </row>
-    <row r="906" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="906" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E906" s="14"/>
       <c r="G906" s="17"/>
     </row>
-    <row r="907" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="907" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E907" s="14"/>
       <c r="G907" s="17"/>
     </row>
-    <row r="908" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="908" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E908" s="14"/>
       <c r="G908" s="17"/>
     </row>
-    <row r="909" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="909" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E909" s="14"/>
       <c r="G909" s="17"/>
     </row>
-    <row r="910" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="910" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E910" s="14"/>
       <c r="G910" s="17"/>
     </row>
-    <row r="911" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="911" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E911" s="14"/>
       <c r="G911" s="17"/>
     </row>
-    <row r="912" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="912" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E912" s="14"/>
       <c r="G912" s="17"/>
     </row>
-    <row r="913" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="913" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E913" s="14"/>
       <c r="G913" s="17"/>
     </row>
-    <row r="914" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="914" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E914" s="14"/>
       <c r="G914" s="17"/>
     </row>
-    <row r="915" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="915" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E915" s="14"/>
       <c r="G915" s="17"/>
     </row>
-    <row r="916" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="916" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E916" s="14"/>
       <c r="G916" s="17"/>
     </row>
-    <row r="917" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="917" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E917" s="14"/>
       <c r="G917" s="17"/>
     </row>
-    <row r="918" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="918" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E918" s="14"/>
       <c r="G918" s="17"/>
     </row>
-    <row r="919" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="919" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E919" s="14"/>
       <c r="G919" s="17"/>
     </row>
-    <row r="920" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="920" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E920" s="14"/>
       <c r="G920" s="17"/>
     </row>
-    <row r="921" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="921" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E921" s="14"/>
       <c r="G921" s="17"/>
     </row>
-    <row r="922" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="922" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E922" s="14"/>
       <c r="G922" s="17"/>
     </row>
-    <row r="923" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="923" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E923" s="14"/>
       <c r="G923" s="17"/>
     </row>
-    <row r="924" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="924" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E924" s="14"/>
       <c r="G924" s="17"/>
     </row>
-    <row r="925" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="925" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E925" s="14"/>
       <c r="G925" s="17"/>
     </row>
-    <row r="926" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="926" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E926" s="14"/>
       <c r="G926" s="17"/>
     </row>
-    <row r="927" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="927" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E927" s="14"/>
       <c r="G927" s="17"/>
     </row>
-    <row r="928" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="928" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E928" s="14"/>
       <c r="G928" s="17"/>
     </row>
-    <row r="929" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="929" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E929" s="14"/>
       <c r="G929" s="17"/>
     </row>
-    <row r="930" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="930" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E930" s="14"/>
       <c r="G930" s="17"/>
     </row>
-    <row r="931" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="931" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E931" s="14"/>
       <c r="G931" s="17"/>
     </row>
-    <row r="932" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="932" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E932" s="14"/>
       <c r="G932" s="17"/>
     </row>
-    <row r="933" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="933" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E933" s="14"/>
       <c r="G933" s="17"/>
     </row>
-    <row r="934" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="934" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E934" s="14"/>
       <c r="G934" s="17"/>
     </row>
-    <row r="935" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="935" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E935" s="14"/>
       <c r="G935" s="17"/>
     </row>
-    <row r="936" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="936" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E936" s="14"/>
       <c r="G936" s="17"/>
     </row>
-    <row r="937" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="937" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E937" s="14"/>
       <c r="G937" s="17"/>
     </row>
-    <row r="938" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="938" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E938" s="14"/>
       <c r="G938" s="17"/>
     </row>
-    <row r="939" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="939" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E939" s="14"/>
       <c r="G939" s="17"/>
     </row>
-    <row r="940" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="940" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E940" s="14"/>
       <c r="G940" s="17"/>
     </row>
-    <row r="941" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="941" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E941" s="14"/>
       <c r="G941" s="17"/>
     </row>
-    <row r="942" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="942" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E942" s="14"/>
       <c r="G942" s="17"/>
     </row>
-    <row r="943" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="943" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E943" s="14"/>
       <c r="G943" s="17"/>
     </row>
-    <row r="944" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="944" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E944" s="14"/>
       <c r="G944" s="17"/>
     </row>
-    <row r="945" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="945" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E945" s="14"/>
       <c r="G945" s="17"/>
     </row>
-    <row r="946" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="946" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E946" s="14"/>
       <c r="G946" s="17"/>
     </row>
-    <row r="947" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="947" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E947" s="14"/>
       <c r="G947" s="17"/>
     </row>
-    <row r="948" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="948" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E948" s="14"/>
       <c r="G948" s="17"/>
     </row>
-    <row r="949" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="949" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E949" s="14"/>
       <c r="G949" s="17"/>
     </row>
-    <row r="950" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="950" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E950" s="14"/>
       <c r="G950" s="17"/>
     </row>
-    <row r="951" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="951" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E951" s="14"/>
       <c r="G951" s="17"/>
     </row>
-    <row r="952" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="952" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E952" s="14"/>
       <c r="G952" s="17"/>
     </row>
-    <row r="953" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="953" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E953" s="14"/>
       <c r="G953" s="17"/>
     </row>
-    <row r="954" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="954" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E954" s="14"/>
       <c r="G954" s="17"/>
     </row>
-    <row r="955" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="955" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E955" s="14"/>
       <c r="G955" s="17"/>
     </row>
-    <row r="956" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="956" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E956" s="14"/>
       <c r="G956" s="17"/>
     </row>
-    <row r="957" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="957" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E957" s="14"/>
       <c r="G957" s="17"/>
     </row>
-    <row r="958" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="958" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E958" s="14"/>
       <c r="G958" s="17"/>
     </row>
-    <row r="959" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="959" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E959" s="14"/>
       <c r="G959" s="17"/>
     </row>
-    <row r="960" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="960" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E960" s="14"/>
       <c r="G960" s="17"/>
     </row>
-    <row r="961" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="961" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E961" s="14"/>
       <c r="G961" s="17"/>
     </row>
-    <row r="962" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="962" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E962" s="14"/>
       <c r="G962" s="17"/>
     </row>
-    <row r="963" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="963" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E963" s="14"/>
       <c r="G963" s="17"/>
     </row>
-    <row r="964" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="964" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E964" s="14"/>
       <c r="G964" s="17"/>
     </row>
-    <row r="965" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="965" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E965" s="14"/>
       <c r="G965" s="17"/>
     </row>
-    <row r="966" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="966" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E966" s="14"/>
       <c r="G966" s="17"/>
     </row>
-    <row r="967" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="967" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E967" s="14"/>
       <c r="G967" s="17"/>
     </row>
-    <row r="968" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="968" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E968" s="14"/>
       <c r="G968" s="17"/>
     </row>
-    <row r="969" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="969" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E969" s="14"/>
       <c r="G969" s="17"/>
     </row>
-    <row r="970" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="970" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E970" s="14"/>
       <c r="G970" s="17"/>
     </row>
-    <row r="971" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="971" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E971" s="14"/>
       <c r="G971" s="17"/>
     </row>
-    <row r="972" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="972" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E972" s="14"/>
       <c r="G972" s="17"/>
     </row>
-    <row r="973" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="973" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E973" s="14"/>
       <c r="G973" s="17"/>
     </row>
-    <row r="974" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="974" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E974" s="14"/>
       <c r="G974" s="17"/>
     </row>
-    <row r="975" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="975" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E975" s="14"/>
       <c r="G975" s="17"/>
     </row>
-    <row r="976" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="976" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E976" s="14"/>
       <c r="G976" s="17"/>
     </row>
-    <row r="977" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="977" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E977" s="14"/>
       <c r="G977" s="17"/>
     </row>
-    <row r="978" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="978" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E978" s="14"/>
       <c r="G978" s="17"/>
     </row>
-    <row r="979" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="979" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E979" s="14"/>
       <c r="G979" s="17"/>
     </row>
-    <row r="980" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="980" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E980" s="14"/>
       <c r="G980" s="17"/>
     </row>
-    <row r="981" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="981" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E981" s="14"/>
       <c r="G981" s="17"/>
     </row>
-    <row r="982" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="982" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E982" s="14"/>
       <c r="G982" s="17"/>
     </row>
-    <row r="983" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="983" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E983" s="14"/>
       <c r="G983" s="17"/>
     </row>
-    <row r="984" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="984" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E984" s="14"/>
       <c r="G984" s="17"/>
     </row>
-    <row r="985" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="985" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E985" s="14"/>
       <c r="G985" s="17"/>
     </row>
-    <row r="986" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="986" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E986" s="14"/>
       <c r="G986" s="17"/>
     </row>
-    <row r="987" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="987" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E987" s="14"/>
       <c r="G987" s="17"/>
     </row>
-    <row r="988" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="988" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E988" s="14"/>
       <c r="G988" s="17"/>
     </row>
-    <row r="989" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="989" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E989" s="14"/>
       <c r="G989" s="17"/>
     </row>
-    <row r="990" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="990" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E990" s="14"/>
       <c r="G990" s="17"/>
     </row>
-    <row r="991" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="991" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E991" s="14"/>
       <c r="G991" s="17"/>
     </row>
-    <row r="992" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="992" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E992" s="14"/>
       <c r="G992" s="17"/>
     </row>
-    <row r="993" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="993" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E993" s="14"/>
       <c r="G993" s="17"/>
     </row>
-    <row r="994" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="994" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E994" s="14"/>
       <c r="G994" s="17"/>
     </row>
-    <row r="995" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="995" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E995" s="14"/>
       <c r="G995" s="17"/>
     </row>
-    <row r="996" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="996" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E996" s="14"/>
       <c r="G996" s="17"/>
     </row>
-    <row r="997" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="997" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E997" s="14"/>
       <c r="G997" s="17"/>
     </row>
-    <row r="998" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="998" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E998" s="14"/>
       <c r="G998" s="17"/>
     </row>
-    <row r="999" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="999" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E999" s="14"/>
       <c r="G999" s="17"/>
     </row>
-    <row r="1000" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="1000" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1000" s="14"/>
       <c r="G1000" s="17"/>
     </row>
-    <row r="1001" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="1001" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1001" s="14"/>
       <c r="G1001" s="17"/>
     </row>
-    <row r="1002" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="1002" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1002" s="14"/>
       <c r="G1002" s="17"/>
     </row>
-    <row r="1003" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="1003" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1003" s="14"/>
       <c r="G1003" s="17"/>
     </row>
-    <row r="1004" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="1004" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1004" s="14"/>
       <c r="G1004" s="17"/>
     </row>
-    <row r="1005" spans="5:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="1005" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E1005" s="14"/>
       <c r="G1005" s="17"/>
     </row>
